--- a/server/orders/OrderConfirmationTmpRu.xlsx
+++ b/server/orders/OrderConfirmationTmpRu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="9555"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="20730" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Agreement" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -956,6 +956,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2031,7 +2037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="347">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -2161,10 +2167,14 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2181,22 +2191,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="79" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="80" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="81" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2226,40 +2236,40 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="82" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="83" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="84" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="85" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="86" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -2386,7 +2396,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3129,8 +3139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4851231" y="99392"/>
-          <a:ext cx="1969292" cy="1186070"/>
+          <a:off x="4709598" y="99392"/>
+          <a:ext cx="1914213" cy="1214645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3500,413 +3510,413 @@
   <dimension ref="A1:AG87"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:K8"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="26" width="3.85546875" style="24" customWidth="1"/>
     <col min="27" max="27" width="9.28515625" style="24" customWidth="1"/>
-    <col min="28" max="28" width="65.7109375" style="72" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" style="72" customWidth="1"/>
+    <col min="28" max="28" width="65.7109375" style="73" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="73" customWidth="1"/>
     <col min="30" max="30" width="9.140625" style="24" customWidth="1"/>
-    <col min="31" max="16384" width="8.85546875" style="78"/>
+    <col min="31" max="16384" width="8.85546875" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="70" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
-      <c r="X1" s="89"/>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="79"/>
-      <c r="AB1" s="123" t="s">
+    <row r="1" spans="1:33" s="71" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="122" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="123"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="91"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="80"/>
-    </row>
-    <row r="2" spans="1:33" s="70" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="125" t="s">
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="81"/>
+    </row>
+    <row r="2" spans="1:33" s="71" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="92"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="92"/>
-      <c r="W2" s="92"/>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="127" t="s">
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="R2" s="127"/>
+      <c r="S2" s="127"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="93"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="93"/>
+      <c r="X2" s="93"/>
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="128"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="83"/>
-      <c r="AG2" s="71">
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
+      <c r="AG2" s="72">
         <f>COUNTBLANK(H38:H42)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="70" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="125" t="s">
+    <row r="3" spans="1:33" s="71" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="92"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="126" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="92"/>
-      <c r="U3" s="92"/>
-      <c r="V3" s="92"/>
-      <c r="W3" s="92"/>
-      <c r="X3" s="92"/>
-      <c r="Y3" s="92"/>
-      <c r="Z3" s="93"/>
-      <c r="AA3" s="81"/>
-      <c r="AB3" s="127" t="s">
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="127"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="127"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="93"/>
+      <c r="V3" s="93"/>
+      <c r="W3" s="93"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="94"/>
+      <c r="AA3" s="82"/>
+      <c r="AB3" s="128" t="s">
         <v>191</v>
       </c>
-      <c r="AC3" s="128"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="83"/>
-      <c r="AG3" s="71">
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="84"/>
+      <c r="AG3" s="72">
         <f>COUNTBLANK(K38:K42)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="92"/>
-      <c r="G4" s="92"/>
-      <c r="H4" s="129" t="s">
+    <row r="4" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="130" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="92"/>
-      <c r="W4" s="92"/>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="93"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="130" t="str">
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="93"/>
+      <c r="U4" s="93"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="93"/>
+      <c r="X4" s="93"/>
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="131" t="str">
         <f>H4</f>
         <v>Мы благодарим Вас за заказ парашютной системы Fire 1</v>
       </c>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="82"/>
-      <c r="AE4" s="83"/>
-    </row>
-    <row r="5" spans="1:33" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="131" t="s">
+      <c r="AC4" s="129"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="84"/>
+    </row>
+    <row r="5" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="93"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="132" t="str">
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="127"/>
+      <c r="P5" s="127"/>
+      <c r="Q5" s="127"/>
+      <c r="R5" s="127"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="93"/>
+      <c r="U5" s="93"/>
+      <c r="V5" s="93"/>
+      <c r="W5" s="93"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="94"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="133" t="str">
         <f>H5</f>
         <v>Пожалуйста, тщательно проверьте введенную информацию:</v>
       </c>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="83"/>
-    </row>
-    <row r="6" spans="1:33" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="147" t="s">
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="84"/>
+    </row>
+    <row r="6" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="96"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="132" t="str">
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="96"/>
+      <c r="U6" s="96"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="96"/>
+      <c r="X6" s="96"/>
+      <c r="Y6" s="96"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="82"/>
+      <c r="AB6" s="133" t="str">
         <f>H6</f>
         <v>она будет использована при производстве.</v>
       </c>
-      <c r="AC6" s="149"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="83"/>
-    </row>
-    <row r="7" spans="1:33" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="150" t="s">
+      <c r="AC6" s="150"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="84"/>
+    </row>
+    <row r="7" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="151"/>
-      <c r="H7" s="151"/>
-      <c r="I7" s="151"/>
-      <c r="J7" s="151"/>
-      <c r="K7" s="151"/>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="153" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="154" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="154"/>
-      <c r="U7" s="154"/>
-      <c r="V7" s="154"/>
-      <c r="W7" s="154"/>
-      <c r="X7" s="154"/>
-      <c r="Y7" s="155" t="s">
+      <c r="T7" s="155"/>
+      <c r="U7" s="155"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="155"/>
+      <c r="X7" s="155"/>
+      <c r="Y7" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="156"/>
-      <c r="AA7" s="81"/>
+      <c r="Z7" s="157"/>
+      <c r="AA7" s="82"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-      <c r="AD7" s="84"/>
-      <c r="AE7" s="83"/>
-    </row>
-    <row r="8" spans="1:33" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="144" t="s">
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="84"/>
+    </row>
+    <row r="8" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="141"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="133" t="s">
+      <c r="B8" s="142"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="141"/>
-      <c r="N8" s="134"/>
-      <c r="O8" s="138"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="133" t="s">
+      <c r="M8" s="142"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="134"/>
-      <c r="U8" s="135"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="133" t="s">
+      <c r="T8" s="135"/>
+      <c r="U8" s="136"/>
+      <c r="V8" s="137"/>
+      <c r="W8" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="134"/>
-      <c r="Y8" s="135"/>
-      <c r="Z8" s="137"/>
-      <c r="AA8" s="81"/>
+      <c r="X8" s="135"/>
+      <c r="Y8" s="136"/>
+      <c r="Z8" s="138"/>
+      <c r="AA8" s="82"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="83"/>
-    </row>
-    <row r="9" spans="1:33" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="144" t="s">
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="84"/>
+    </row>
+    <row r="9" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="145" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="157" t="s">
+      <c r="B9" s="142"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="141"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="138"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="133" t="s">
+      <c r="M9" s="142"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="134"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="136"/>
-      <c r="W9" s="133" t="s">
+      <c r="T9" s="135"/>
+      <c r="U9" s="136"/>
+      <c r="V9" s="137"/>
+      <c r="W9" s="134" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="134"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="137"/>
-      <c r="AA9" s="81"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="136"/>
+      <c r="Z9" s="138"/>
+      <c r="AA9" s="82"/>
       <c r="AB9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="AC9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="82"/>
-      <c r="AE9" s="83"/>
-    </row>
-    <row r="10" spans="1:33" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="144" t="s">
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="84"/>
+    </row>
+    <row r="10" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="133" t="s">
+      <c r="B10" s="142"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="141"/>
-      <c r="N10" s="134"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="133" t="s">
+      <c r="M10" s="142"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="134" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="134"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="133" t="s">
+      <c r="T10" s="135"/>
+      <c r="U10" s="136"/>
+      <c r="V10" s="137"/>
+      <c r="W10" s="134" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="134"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="81"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="136"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="82"/>
       <c r="AB10" s="4" t="str">
         <f>PriceList!F3</f>
         <v>Ранец Fire 1</v>
@@ -3915,45 +3925,45 @@
         <f>PriceList!G3</f>
         <v>1300</v>
       </c>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="83"/>
-    </row>
-    <row r="11" spans="1:33" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="144" t="s">
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="84"/>
+    </row>
+    <row r="11" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="141"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="133" t="s">
+      <c r="B11" s="142"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="139"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="141"/>
-      <c r="N11" s="134"/>
-      <c r="O11" s="138"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="146"/>
-      <c r="S11" s="133" t="s">
+      <c r="M11" s="142"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="T11" s="134"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="157" t="s">
+      <c r="T11" s="135"/>
+      <c r="U11" s="136"/>
+      <c r="V11" s="137"/>
+      <c r="W11" s="158" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="137"/>
-      <c r="AA11" s="81"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="136"/>
+      <c r="Z11" s="138"/>
+      <c r="AA11" s="82"/>
       <c r="AB11" s="4" t="str">
         <f>PriceList!F4</f>
         <v>Проверь цвет ПОДВЕСНОЙ</v>
@@ -3962,45 +3972,45 @@
         <f>PriceList!G4</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="82"/>
-      <c r="AE11" s="83"/>
-    </row>
-    <row r="12" spans="1:33" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="179" t="s">
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="84"/>
+    </row>
+    <row r="12" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="166"/>
-      <c r="C12" s="167"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="163"/>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="163"/>
-      <c r="K12" s="164"/>
-      <c r="L12" s="165" t="s">
+      <c r="B12" s="167"/>
+      <c r="C12" s="168"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="166"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="171" t="s">
+      <c r="M12" s="167"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="170"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="171"/>
+      <c r="S12" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="167"/>
-      <c r="U12" s="172"/>
-      <c r="V12" s="173"/>
-      <c r="W12" s="165" t="s">
+      <c r="T12" s="168"/>
+      <c r="U12" s="173"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="167"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="174"/>
-      <c r="AA12" s="81"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="82"/>
       <c r="AB12" s="4" t="str">
         <f>PriceList!F5</f>
         <v>Проверь цвет ОКАНТОВКИ</v>
@@ -4009,47 +4019,47 @@
         <f>PriceList!G5</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="82"/>
-      <c r="AE12" s="83"/>
-    </row>
-    <row r="13" spans="1:33" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="150" t="s">
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="84"/>
+    </row>
+    <row r="13" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="151" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="153" t="s">
+      <c r="B13" s="155"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="175"/>
-      <c r="H13" s="153" t="s">
+      <c r="G13" s="176"/>
+      <c r="H13" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="154"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="153" t="s">
+      <c r="I13" s="155"/>
+      <c r="J13" s="176"/>
+      <c r="K13" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="176" t="s">
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
-      <c r="R13" s="177"/>
-      <c r="S13" s="177"/>
-      <c r="T13" s="177"/>
-      <c r="U13" s="177"/>
-      <c r="V13" s="177"/>
-      <c r="W13" s="177"/>
-      <c r="X13" s="177"/>
-      <c r="Y13" s="177"/>
-      <c r="Z13" s="178"/>
-      <c r="AA13" s="81"/>
+      <c r="O13" s="178"/>
+      <c r="P13" s="178"/>
+      <c r="Q13" s="178"/>
+      <c r="R13" s="178"/>
+      <c r="S13" s="178"/>
+      <c r="T13" s="178"/>
+      <c r="U13" s="178"/>
+      <c r="V13" s="178"/>
+      <c r="W13" s="178"/>
+      <c r="X13" s="178"/>
+      <c r="Y13" s="178"/>
+      <c r="Z13" s="179"/>
+      <c r="AA13" s="82"/>
       <c r="AB13" s="4" t="str">
         <f>PriceList!F6</f>
         <v>Без стандартный вышивок</v>
@@ -4058,47 +4068,47 @@
         <f>PriceList!G6</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="82"/>
-      <c r="AE13" s="83"/>
-    </row>
-    <row r="14" spans="1:33" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="97">
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="84"/>
+    </row>
+    <row r="14" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="98">
         <v>1</v>
       </c>
-      <c r="B14" s="133" t="s">
+      <c r="B14" s="134" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="185" t="s">
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="182"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
+      <c r="N14" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="160"/>
-      <c r="P14" s="158"/>
-      <c r="Q14" s="158"/>
-      <c r="R14" s="159" t="s">
+      <c r="O14" s="161"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="160"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="158"/>
-      <c r="V14" s="159" t="s">
+      <c r="S14" s="161"/>
+      <c r="T14" s="159"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="81"/>
+      <c r="W14" s="161"/>
+      <c r="X14" s="161"/>
+      <c r="Y14" s="159"/>
+      <c r="Z14" s="162"/>
+      <c r="AA14" s="82"/>
       <c r="AB14" s="4" t="str">
         <f>PriceList!F7</f>
         <v>ИТОГО</v>
@@ -4107,47 +4117,47 @@
         <f>PriceList!G7</f>
         <v>1300</v>
       </c>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="83"/>
-    </row>
-    <row r="15" spans="1:33" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="182">
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="84"/>
+    </row>
+    <row r="15" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="183">
         <v>2</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="141"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="185" t="s">
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="182"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="160"/>
-      <c r="P15" s="158"/>
-      <c r="Q15" s="158"/>
-      <c r="R15" s="186" t="s">
+      <c r="O15" s="161"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="187" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="160"/>
-      <c r="T15" s="158"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="186" t="s">
+      <c r="S15" s="161"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="161"/>
-      <c r="AA15" s="81"/>
+      <c r="W15" s="161"/>
+      <c r="X15" s="161"/>
+      <c r="Y15" s="159"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="82"/>
       <c r="AB15" s="4" t="str">
         <f>PriceList!F8</f>
         <v/>
@@ -4156,41 +4166,41 @@
         <f>PriceList!G8</f>
         <v/>
       </c>
-      <c r="AD15" s="82"/>
-      <c r="AE15" s="83"/>
-    </row>
-    <row r="16" spans="1:33" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183"/>
-      <c r="B16" s="133" t="s">
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="84"/>
+    </row>
+    <row r="16" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="184"/>
+      <c r="B16" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="195" t="s">
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="142"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="126"/>
-      <c r="R16" s="126"/>
-      <c r="S16" s="126"/>
-      <c r="T16" s="190"/>
-      <c r="U16" s="190"/>
-      <c r="V16" s="126"/>
-      <c r="W16" s="126"/>
-      <c r="X16" s="126"/>
-      <c r="Y16" s="126"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="81"/>
+      <c r="O16" s="127"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+      <c r="S16" s="127"/>
+      <c r="T16" s="191"/>
+      <c r="U16" s="191"/>
+      <c r="V16" s="127"/>
+      <c r="W16" s="127"/>
+      <c r="X16" s="127"/>
+      <c r="Y16" s="127"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="82"/>
       <c r="AB16" s="4" t="str">
         <f>PriceList!F9</f>
         <v/>
@@ -4199,41 +4209,41 @@
         <f>PriceList!G9</f>
         <v/>
       </c>
-      <c r="AD16" s="82"/>
-      <c r="AE16" s="83"/>
-    </row>
-    <row r="17" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="184"/>
-      <c r="B17" s="133" t="s">
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="84"/>
+    </row>
+    <row r="17" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="185"/>
+      <c r="B17" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="141"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="192" t="s">
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="142"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="182"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
+      <c r="N17" s="193" t="s">
         <v>44</v>
       </c>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="193"/>
-      <c r="R17" s="193"/>
-      <c r="S17" s="193"/>
-      <c r="T17" s="193"/>
-      <c r="U17" s="193"/>
-      <c r="V17" s="193"/>
-      <c r="W17" s="193"/>
-      <c r="X17" s="193"/>
-      <c r="Y17" s="193"/>
-      <c r="Z17" s="194"/>
-      <c r="AA17" s="81"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="194"/>
+      <c r="T17" s="194"/>
+      <c r="U17" s="194"/>
+      <c r="V17" s="194"/>
+      <c r="W17" s="194"/>
+      <c r="X17" s="194"/>
+      <c r="Y17" s="194"/>
+      <c r="Z17" s="195"/>
+      <c r="AA17" s="82"/>
       <c r="AB17" s="4" t="str">
         <f>PriceList!F10</f>
         <v/>
@@ -4242,47 +4252,47 @@
         <f>PriceList!G10</f>
         <v/>
       </c>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="83"/>
-    </row>
-    <row r="18" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="97">
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="84"/>
+    </row>
+    <row r="18" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="98">
         <v>3</v>
       </c>
-      <c r="B18" s="133" t="s">
+      <c r="B18" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="141"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="198"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="187" t="s">
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="199"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="142"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
+      <c r="N18" s="188" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="188"/>
-      <c r="P18" s="188"/>
-      <c r="Q18" s="188"/>
-      <c r="R18" s="188"/>
+      <c r="O18" s="189"/>
+      <c r="P18" s="189"/>
+      <c r="Q18" s="189"/>
+      <c r="R18" s="189"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="189" t="s">
+      <c r="T18" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="U18" s="188"/>
-      <c r="V18" s="188"/>
+      <c r="U18" s="189"/>
+      <c r="V18" s="189"/>
       <c r="W18" s="9"/>
-      <c r="X18" s="189" t="s">
+      <c r="X18" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="188"/>
+      <c r="Y18" s="189"/>
       <c r="Z18" s="10"/>
-      <c r="AA18" s="81"/>
+      <c r="AA18" s="82"/>
       <c r="AB18" s="4" t="str">
         <f>PriceList!F11</f>
         <v/>
@@ -4291,45 +4301,45 @@
         <f>PriceList!G11</f>
         <v/>
       </c>
-      <c r="AD18" s="82"/>
-      <c r="AE18" s="83"/>
-    </row>
-    <row r="19" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="98">
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="84"/>
+    </row>
+    <row r="19" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="99">
         <v>4</v>
       </c>
-      <c r="B19" s="165" t="s">
+      <c r="B19" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="187" t="s">
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="182"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
+      <c r="N19" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="188"/>
-      <c r="P19" s="188"/>
-      <c r="Q19" s="188"/>
-      <c r="R19" s="188"/>
+      <c r="O19" s="189"/>
+      <c r="P19" s="189"/>
+      <c r="Q19" s="189"/>
+      <c r="R19" s="189"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="189" t="s">
+      <c r="T19" s="190" t="s">
         <v>51</v>
       </c>
-      <c r="U19" s="188"/>
-      <c r="V19" s="188"/>
+      <c r="U19" s="189"/>
+      <c r="V19" s="189"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="196"/>
-      <c r="Y19" s="196"/>
-      <c r="Z19" s="197"/>
-      <c r="AA19" s="81"/>
+      <c r="X19" s="197"/>
+      <c r="Y19" s="197"/>
+      <c r="Z19" s="198"/>
+      <c r="AA19" s="82"/>
       <c r="AB19" s="4" t="str">
         <f>PriceList!F12</f>
         <v/>
@@ -4338,47 +4348,47 @@
         <f>PriceList!G12</f>
         <v/>
       </c>
-      <c r="AD19" s="82"/>
-      <c r="AE19" s="83"/>
-    </row>
-    <row r="20" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="97">
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="84"/>
+    </row>
+    <row r="20" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="98">
         <v>5</v>
       </c>
-      <c r="B20" s="199" t="s">
+      <c r="B20" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="201"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="181"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="187" t="s">
+      <c r="C20" s="201"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="201"/>
+      <c r="F20" s="202"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="188" t="s">
         <v>53</v>
       </c>
-      <c r="O20" s="188"/>
-      <c r="P20" s="188"/>
-      <c r="Q20" s="188"/>
-      <c r="R20" s="188"/>
+      <c r="O20" s="189"/>
+      <c r="P20" s="189"/>
+      <c r="Q20" s="189"/>
+      <c r="R20" s="189"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="189" t="s">
+      <c r="T20" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="U20" s="188"/>
-      <c r="V20" s="188"/>
+      <c r="U20" s="189"/>
+      <c r="V20" s="189"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="189" t="s">
+      <c r="X20" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="Y20" s="188"/>
+      <c r="Y20" s="189"/>
       <c r="Z20" s="10"/>
-      <c r="AA20" s="81"/>
+      <c r="AA20" s="82"/>
       <c r="AB20" s="4" t="str">
         <f>PriceList!F13</f>
         <v/>
@@ -4387,45 +4397,45 @@
         <f>PriceList!G13</f>
         <v/>
       </c>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="83"/>
-    </row>
-    <row r="21" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="182">
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
+    </row>
+    <row r="21" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="183">
         <v>6</v>
       </c>
-      <c r="B21" s="202" t="s">
+      <c r="B21" s="203" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="201"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="181"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="187" t="s">
+      <c r="C21" s="204"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="181"/>
+      <c r="H21" s="182"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="182"/>
+      <c r="L21" s="142"/>
+      <c r="M21" s="142"/>
+      <c r="N21" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="188"/>
-      <c r="P21" s="188"/>
-      <c r="Q21" s="188"/>
-      <c r="R21" s="188"/>
+      <c r="O21" s="189"/>
+      <c r="P21" s="189"/>
+      <c r="Q21" s="189"/>
+      <c r="R21" s="189"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="189" t="s">
+      <c r="T21" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="188"/>
-      <c r="V21" s="188"/>
+      <c r="U21" s="189"/>
+      <c r="V21" s="189"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="196"/>
-      <c r="Y21" s="196"/>
-      <c r="Z21" s="197"/>
-      <c r="AA21" s="81"/>
+      <c r="X21" s="197"/>
+      <c r="Y21" s="197"/>
+      <c r="Z21" s="198"/>
+      <c r="AA21" s="82"/>
       <c r="AB21" s="4" t="str">
         <f>PriceList!F14</f>
         <v/>
@@ -4434,43 +4444,43 @@
         <f>PriceList!G14</f>
         <v/>
       </c>
-      <c r="AD21" s="82"/>
-      <c r="AE21" s="83"/>
-    </row>
-    <row r="22" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="183"/>
-      <c r="B22" s="202" t="s">
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="84"/>
+    </row>
+    <row r="22" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="184"/>
+      <c r="B22" s="203" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="180"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="187" t="s">
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="182"/>
+      <c r="L22" s="142"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="188" t="s">
         <v>59</v>
       </c>
-      <c r="O22" s="188"/>
-      <c r="P22" s="188"/>
-      <c r="Q22" s="188"/>
-      <c r="R22" s="188"/>
+      <c r="O22" s="189"/>
+      <c r="P22" s="189"/>
+      <c r="Q22" s="189"/>
+      <c r="R22" s="189"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="189" t="s">
+      <c r="T22" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="188"/>
-      <c r="V22" s="188"/>
+      <c r="U22" s="189"/>
+      <c r="V22" s="189"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="196"/>
-      <c r="Y22" s="196"/>
-      <c r="Z22" s="197"/>
-      <c r="AA22" s="81"/>
+      <c r="X22" s="197"/>
+      <c r="Y22" s="197"/>
+      <c r="Z22" s="198"/>
+      <c r="AA22" s="82"/>
       <c r="AB22" s="4" t="str">
         <f>PriceList!F15</f>
         <v/>
@@ -4479,43 +4489,43 @@
         <f>PriceList!G15</f>
         <v/>
       </c>
-      <c r="AD22" s="82"/>
-      <c r="AE22" s="83"/>
-    </row>
-    <row r="23" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="184"/>
-      <c r="B23" s="205" t="s">
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="84"/>
+    </row>
+    <row r="23" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="185"/>
+      <c r="B23" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="206"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="180"/>
-      <c r="H23" s="181"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="187" t="s">
+      <c r="C23" s="207"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="182"/>
+      <c r="I23" s="142"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="182"/>
+      <c r="L23" s="142"/>
+      <c r="M23" s="142"/>
+      <c r="N23" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="O23" s="188"/>
-      <c r="P23" s="188"/>
-      <c r="Q23" s="188"/>
-      <c r="R23" s="188"/>
+      <c r="O23" s="189"/>
+      <c r="P23" s="189"/>
+      <c r="Q23" s="189"/>
+      <c r="R23" s="189"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="189" t="s">
+      <c r="T23" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="U23" s="188"/>
-      <c r="V23" s="188"/>
+      <c r="U23" s="189"/>
+      <c r="V23" s="189"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="196"/>
-      <c r="Y23" s="196"/>
-      <c r="Z23" s="197"/>
-      <c r="AA23" s="81"/>
+      <c r="X23" s="197"/>
+      <c r="Y23" s="197"/>
+      <c r="Z23" s="198"/>
+      <c r="AA23" s="82"/>
       <c r="AB23" s="4" t="str">
         <f>PriceList!F16</f>
         <v/>
@@ -4524,47 +4534,47 @@
         <f>PriceList!G16</f>
         <v/>
       </c>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="83"/>
-    </row>
-    <row r="24" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="97">
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="84"/>
+    </row>
+    <row r="24" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="98">
         <v>7</v>
       </c>
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="141"/>
-      <c r="D24" s="141"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="180"/>
-      <c r="H24" s="181"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="187" t="s">
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="181"/>
+      <c r="H24" s="182"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="182"/>
+      <c r="L24" s="142"/>
+      <c r="M24" s="142"/>
+      <c r="N24" s="188" t="s">
         <v>63</v>
       </c>
-      <c r="O24" s="189"/>
-      <c r="P24" s="189"/>
-      <c r="Q24" s="189"/>
-      <c r="R24" s="189"/>
+      <c r="O24" s="190"/>
+      <c r="P24" s="190"/>
+      <c r="Q24" s="190"/>
+      <c r="R24" s="190"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="189" t="s">
+      <c r="T24" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="U24" s="189"/>
-      <c r="V24" s="189"/>
+      <c r="U24" s="190"/>
+      <c r="V24" s="190"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="204" t="s">
+      <c r="X24" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="Y24" s="204"/>
+      <c r="Y24" s="205"/>
       <c r="Z24" s="10"/>
-      <c r="AA24" s="81"/>
+      <c r="AA24" s="82"/>
       <c r="AB24" s="4" t="str">
         <f>PriceList!F17</f>
         <v/>
@@ -4573,47 +4583,47 @@
         <f>PriceList!G17</f>
         <v/>
       </c>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="83"/>
-    </row>
-    <row r="25" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="99">
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="84"/>
+    </row>
+    <row r="25" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="100">
         <v>8</v>
       </c>
-      <c r="B25" s="209" t="s">
+      <c r="B25" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="180"/>
-      <c r="H25" s="181"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="187" t="s">
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="181"/>
+      <c r="H25" s="182"/>
+      <c r="I25" s="142"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="142"/>
+      <c r="M25" s="142"/>
+      <c r="N25" s="188" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="188"/>
-      <c r="P25" s="188"/>
-      <c r="Q25" s="188"/>
-      <c r="R25" s="188"/>
+      <c r="O25" s="189"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="189"/>
+      <c r="R25" s="189"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="189">
+      <c r="T25" s="190">
         <v>550</v>
       </c>
-      <c r="U25" s="188"/>
-      <c r="V25" s="188"/>
+      <c r="U25" s="189"/>
+      <c r="V25" s="189"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="189">
+      <c r="X25" s="190">
         <v>600</v>
       </c>
-      <c r="Y25" s="188"/>
+      <c r="Y25" s="189"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="81"/>
+      <c r="AA25" s="82"/>
       <c r="AB25" s="4" t="str">
         <f>PriceList!F18</f>
         <v/>
@@ -4622,43 +4632,43 @@
         <f>PriceList!G18</f>
         <v/>
       </c>
-      <c r="AD25" s="82"/>
-      <c r="AE25" s="83"/>
-    </row>
-    <row r="26" spans="1:31" s="70" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97">
+      <c r="AD25" s="83"/>
+      <c r="AE25" s="84"/>
+    </row>
+    <row r="26" spans="1:31" s="71" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="98">
         <v>9</v>
       </c>
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="200" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="D26" s="200"/>
-      <c r="E26" s="200"/>
-      <c r="F26" s="201"/>
-      <c r="G26" s="180"/>
-      <c r="H26" s="181"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="208" t="s">
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
+      <c r="E26" s="201"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="181"/>
+      <c r="H26" s="182"/>
+      <c r="I26" s="142"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="182"/>
+      <c r="L26" s="142"/>
+      <c r="M26" s="142"/>
+      <c r="N26" s="209" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="196"/>
-      <c r="P26" s="196"/>
-      <c r="Q26" s="196"/>
-      <c r="R26" s="196"/>
-      <c r="S26" s="196"/>
-      <c r="T26" s="196"/>
-      <c r="U26" s="196"/>
-      <c r="V26" s="196"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="196"/>
-      <c r="Y26" s="196"/>
-      <c r="Z26" s="197"/>
-      <c r="AA26" s="81"/>
+      <c r="O26" s="197"/>
+      <c r="P26" s="197"/>
+      <c r="Q26" s="197"/>
+      <c r="R26" s="197"/>
+      <c r="S26" s="197"/>
+      <c r="T26" s="197"/>
+      <c r="U26" s="197"/>
+      <c r="V26" s="197"/>
+      <c r="W26" s="76"/>
+      <c r="X26" s="197"/>
+      <c r="Y26" s="197"/>
+      <c r="Z26" s="198"/>
+      <c r="AA26" s="82"/>
       <c r="AB26" s="4" t="str">
         <f>PriceList!F19</f>
         <v/>
@@ -4667,43 +4677,43 @@
         <f>PriceList!G19</f>
         <v/>
       </c>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="83"/>
-    </row>
-    <row r="27" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="100">
+      <c r="AD26" s="83"/>
+      <c r="AE26" s="84"/>
+    </row>
+    <row r="27" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A27" s="101">
         <v>10</v>
       </c>
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="213" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="213"/>
-      <c r="D27" s="213"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="192" t="s">
+      <c r="C27" s="214"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="182"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="142"/>
+      <c r="N27" s="193" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="Q27" s="193"/>
-      <c r="R27" s="193"/>
-      <c r="S27" s="193"/>
-      <c r="T27" s="193"/>
-      <c r="U27" s="193"/>
-      <c r="V27" s="193"/>
-      <c r="W27" s="193"/>
-      <c r="X27" s="193"/>
-      <c r="Y27" s="193"/>
-      <c r="Z27" s="194"/>
-      <c r="AA27" s="81"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="194"/>
+      <c r="T27" s="194"/>
+      <c r="U27" s="194"/>
+      <c r="V27" s="194"/>
+      <c r="W27" s="194"/>
+      <c r="X27" s="194"/>
+      <c r="Y27" s="194"/>
+      <c r="Z27" s="195"/>
+      <c r="AA27" s="82"/>
       <c r="AB27" s="4" t="str">
         <f>PriceList!F20</f>
         <v/>
@@ -4712,45 +4722,45 @@
         <f>PriceList!G20</f>
         <v/>
       </c>
-      <c r="AD27" s="82"/>
-      <c r="AE27" s="83"/>
-    </row>
-    <row r="28" spans="1:31" s="70" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="97">
+      <c r="AD27" s="83"/>
+      <c r="AE27" s="84"/>
+    </row>
+    <row r="28" spans="1:31" s="71" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="98">
         <v>11</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="187" t="s">
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="135"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="182"/>
+      <c r="L28" s="142"/>
+      <c r="M28" s="142"/>
+      <c r="N28" s="188" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="188"/>
-      <c r="P28" s="188"/>
-      <c r="Q28" s="188"/>
-      <c r="R28" s="188"/>
+      <c r="O28" s="189"/>
+      <c r="P28" s="189"/>
+      <c r="Q28" s="189"/>
+      <c r="R28" s="189"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="189" t="s">
+      <c r="T28" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="U28" s="188"/>
-      <c r="V28" s="188"/>
+      <c r="U28" s="189"/>
+      <c r="V28" s="189"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="210"/>
-      <c r="Y28" s="210"/>
-      <c r="Z28" s="211"/>
-      <c r="AA28" s="81"/>
+      <c r="X28" s="211"/>
+      <c r="Y28" s="211"/>
+      <c r="Z28" s="212"/>
+      <c r="AA28" s="82"/>
       <c r="AB28" s="4" t="str">
         <f>PriceList!F21</f>
         <v/>
@@ -4759,45 +4769,45 @@
         <f>PriceList!G21</f>
         <v/>
       </c>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="83"/>
-    </row>
-    <row r="29" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="97">
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="84"/>
+    </row>
+    <row r="29" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="98">
         <v>12</v>
       </c>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="141"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="187" t="s">
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="188" t="s">
         <v>74</v>
       </c>
-      <c r="O29" s="188"/>
-      <c r="P29" s="188"/>
-      <c r="Q29" s="188"/>
-      <c r="R29" s="188"/>
+      <c r="O29" s="189"/>
+      <c r="P29" s="189"/>
+      <c r="Q29" s="189"/>
+      <c r="R29" s="189"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="189" t="s">
+      <c r="T29" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="U29" s="188"/>
-      <c r="V29" s="188"/>
+      <c r="U29" s="189"/>
+      <c r="V29" s="189"/>
       <c r="W29" s="9"/>
-      <c r="X29" s="210"/>
-      <c r="Y29" s="210"/>
-      <c r="Z29" s="211"/>
-      <c r="AA29" s="81"/>
+      <c r="X29" s="211"/>
+      <c r="Y29" s="211"/>
+      <c r="Z29" s="212"/>
+      <c r="AA29" s="82"/>
       <c r="AB29" s="4" t="str">
         <f>PriceList!F22</f>
         <v/>
@@ -4806,86 +4816,86 @@
         <f>PriceList!G22</f>
         <v/>
       </c>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="83"/>
-    </row>
-    <row r="30" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="101">
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="84"/>
+    </row>
+    <row r="30" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="102">
         <v>13</v>
       </c>
-      <c r="B30" s="222" t="s">
+      <c r="B30" s="223" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="223"/>
-      <c r="D30" s="223"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="224"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="223"/>
-      <c r="M30" s="223"/>
-      <c r="N30" s="208" t="s">
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="225"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="225"/>
+      <c r="K30" s="228"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
+      <c r="N30" s="209" t="s">
         <v>193</v>
       </c>
-      <c r="O30" s="196"/>
-      <c r="P30" s="196"/>
-      <c r="Q30" s="196"/>
-      <c r="R30" s="215"/>
+      <c r="O30" s="197"/>
+      <c r="P30" s="197"/>
+      <c r="Q30" s="197"/>
+      <c r="R30" s="216"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="216" t="s">
+      <c r="T30" s="217" t="s">
         <v>194</v>
       </c>
-      <c r="U30" s="189"/>
-      <c r="V30" s="217"/>
+      <c r="U30" s="190"/>
+      <c r="V30" s="218"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="210"/>
-      <c r="Y30" s="210"/>
-      <c r="Z30" s="211"/>
-      <c r="AA30" s="81"/>
+      <c r="X30" s="211"/>
+      <c r="Y30" s="211"/>
+      <c r="Z30" s="212"/>
+      <c r="AA30" s="82"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="5"/>
-      <c r="AD30" s="82"/>
-      <c r="AE30" s="83"/>
-    </row>
-    <row r="31" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="150" t="s">
+      <c r="AD30" s="83"/>
+      <c r="AE30" s="84"/>
+    </row>
+    <row r="31" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="151" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="154"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="154" t="s">
+      <c r="B31" s="155"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="155" t="s">
         <v>85</v>
       </c>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="218"/>
-      <c r="N31" s="187" t="s">
+      <c r="J31" s="152"/>
+      <c r="K31" s="152"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="219"/>
+      <c r="N31" s="188" t="s">
         <v>77</v>
       </c>
-      <c r="O31" s="188"/>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="188"/>
-      <c r="R31" s="188"/>
+      <c r="O31" s="189"/>
+      <c r="P31" s="189"/>
+      <c r="Q31" s="189"/>
+      <c r="R31" s="189"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="189" t="s">
+      <c r="T31" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="U31" s="188"/>
-      <c r="V31" s="188"/>
+      <c r="U31" s="189"/>
+      <c r="V31" s="189"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="210"/>
-      <c r="Y31" s="210"/>
-      <c r="Z31" s="211"/>
-      <c r="AA31" s="81"/>
+      <c r="X31" s="211"/>
+      <c r="Y31" s="211"/>
+      <c r="Z31" s="212"/>
+      <c r="AA31" s="82"/>
       <c r="AB31" s="4" t="str">
         <f>PriceList!F23</f>
         <v/>
@@ -4894,43 +4904,43 @@
         <f>PriceList!G23</f>
         <v/>
       </c>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="83"/>
-    </row>
-    <row r="32" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="103"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="102">
+      <c r="AD31" s="83"/>
+      <c r="AE31" s="84"/>
+    </row>
+    <row r="32" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="104"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="103">
         <v>9</v>
       </c>
-      <c r="D32" s="230"/>
-      <c r="E32" s="231"/>
-      <c r="F32" s="232"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="233" t="s">
+      <c r="D32" s="231"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="233"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="234" t="s">
         <v>86</v>
       </c>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="192" t="s">
+      <c r="N32" s="193" t="s">
         <v>80</v>
       </c>
-      <c r="O32" s="193"/>
-      <c r="P32" s="193"/>
-      <c r="Q32" s="193"/>
-      <c r="R32" s="193"/>
-      <c r="S32" s="193"/>
-      <c r="T32" s="193"/>
-      <c r="U32" s="193"/>
-      <c r="V32" s="193"/>
-      <c r="W32" s="193"/>
-      <c r="X32" s="193"/>
-      <c r="Y32" s="193"/>
-      <c r="Z32" s="194"/>
-      <c r="AA32" s="81"/>
+      <c r="O32" s="194"/>
+      <c r="P32" s="194"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="194"/>
+      <c r="V32" s="194"/>
+      <c r="W32" s="194"/>
+      <c r="X32" s="194"/>
+      <c r="Y32" s="194"/>
+      <c r="Z32" s="195"/>
+      <c r="AA32" s="82"/>
       <c r="AB32" s="4" t="str">
         <f>PriceList!F24</f>
         <v/>
@@ -4939,45 +4949,45 @@
         <f>PriceList!G24</f>
         <v/>
       </c>
-      <c r="AD32" s="82"/>
-      <c r="AE32" s="83"/>
-    </row>
-    <row r="33" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="104"/>
-      <c r="B33" s="107" t="s">
+      <c r="AD32" s="83"/>
+      <c r="AE32" s="84"/>
+    </row>
+    <row r="33" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="105"/>
+      <c r="B33" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="107" t="s">
+      <c r="C33" s="235"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="235"/>
-      <c r="J33" s="236"/>
-      <c r="K33" s="236"/>
-      <c r="L33" s="236"/>
-      <c r="M33" s="113"/>
-      <c r="N33" s="228" t="s">
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="236"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="237"/>
+      <c r="M33" s="114"/>
+      <c r="N33" s="229" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="229"/>
-      <c r="P33" s="229"/>
-      <c r="Q33" s="229"/>
-      <c r="R33" s="229"/>
+      <c r="O33" s="230"/>
+      <c r="P33" s="230"/>
+      <c r="Q33" s="230"/>
+      <c r="R33" s="230"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="196" t="s">
+      <c r="T33" s="197" t="s">
         <v>83</v>
       </c>
-      <c r="U33" s="196"/>
-      <c r="V33" s="196"/>
-      <c r="W33" s="196"/>
-      <c r="X33" s="240"/>
-      <c r="Y33" s="240"/>
-      <c r="Z33" s="241"/>
-      <c r="AA33" s="81"/>
+      <c r="U33" s="197"/>
+      <c r="V33" s="197"/>
+      <c r="W33" s="197"/>
+      <c r="X33" s="241"/>
+      <c r="Y33" s="241"/>
+      <c r="Z33" s="242"/>
+      <c r="AA33" s="82"/>
       <c r="AB33" s="4" t="str">
         <f>PriceList!F25</f>
         <v/>
@@ -4986,47 +4996,47 @@
         <f>PriceList!G25</f>
         <v/>
       </c>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="83"/>
-    </row>
-    <row r="34" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="104"/>
-      <c r="B34" s="107" t="s">
+      <c r="AD33" s="83"/>
+      <c r="AE33" s="84"/>
+    </row>
+    <row r="34" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="105"/>
+      <c r="B34" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="234"/>
-      <c r="D34" s="234"/>
-      <c r="E34" s="107" t="s">
+      <c r="C34" s="235"/>
+      <c r="D34" s="235"/>
+      <c r="E34" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="234"/>
-      <c r="G34" s="234"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="242" t="s">
+      <c r="F34" s="235"/>
+      <c r="G34" s="235"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="243" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="243"/>
-      <c r="K34" s="243"/>
-      <c r="L34" s="243"/>
+      <c r="J34" s="244"/>
+      <c r="K34" s="244"/>
+      <c r="L34" s="244"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="187" t="s">
+      <c r="N34" s="188" t="s">
         <v>179</v>
       </c>
-      <c r="O34" s="189"/>
-      <c r="P34" s="189"/>
-      <c r="Q34" s="189"/>
-      <c r="R34" s="189"/>
+      <c r="O34" s="190"/>
+      <c r="P34" s="190"/>
+      <c r="Q34" s="190"/>
+      <c r="R34" s="190"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="219" t="s">
+      <c r="T34" s="220" t="s">
         <v>180</v>
       </c>
-      <c r="U34" s="219"/>
-      <c r="V34" s="219"/>
-      <c r="W34" s="219"/>
-      <c r="X34" s="220"/>
-      <c r="Y34" s="220"/>
-      <c r="Z34" s="221"/>
-      <c r="AA34" s="81"/>
+      <c r="U34" s="220"/>
+      <c r="V34" s="220"/>
+      <c r="W34" s="220"/>
+      <c r="X34" s="221"/>
+      <c r="Y34" s="221"/>
+      <c r="Z34" s="222"/>
+      <c r="AA34" s="82"/>
       <c r="AB34" s="4" t="str">
         <f>PriceList!F26</f>
         <v/>
@@ -5035,47 +5045,47 @@
         <f>PriceList!G26</f>
         <v/>
       </c>
-      <c r="AD34" s="82"/>
-      <c r="AE34" s="83"/>
-    </row>
-    <row r="35" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="108">
+      <c r="AD34" s="83"/>
+      <c r="AE34" s="84"/>
+    </row>
+    <row r="35" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="106"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="109">
         <v>3</v>
       </c>
-      <c r="D35" s="244"/>
-      <c r="E35" s="245"/>
-      <c r="F35" s="246"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="247" t="s">
+      <c r="D35" s="245"/>
+      <c r="E35" s="246"/>
+      <c r="F35" s="247"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="248" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="248"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="249"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="187" t="s">
+      <c r="N35" s="188" t="s">
         <v>87</v>
       </c>
-      <c r="O35" s="189"/>
-      <c r="P35" s="189"/>
-      <c r="Q35" s="189"/>
-      <c r="R35" s="189"/>
+      <c r="O35" s="190"/>
+      <c r="P35" s="190"/>
+      <c r="Q35" s="190"/>
+      <c r="R35" s="190"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="189" t="s">
+      <c r="T35" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="U35" s="188"/>
-      <c r="V35" s="188"/>
+      <c r="U35" s="189"/>
+      <c r="V35" s="189"/>
       <c r="W35" s="9"/>
-      <c r="X35" s="189" t="s">
+      <c r="X35" s="190" t="s">
         <v>48</v>
       </c>
-      <c r="Y35" s="188"/>
+      <c r="Y35" s="189"/>
       <c r="Z35" s="12"/>
-      <c r="AA35" s="84"/>
+      <c r="AA35" s="85"/>
       <c r="AB35" s="4" t="str">
         <f>PriceList!F27</f>
         <v/>
@@ -5084,47 +5094,47 @@
         <f>PriceList!G27</f>
         <v/>
       </c>
-      <c r="AD35" s="82"/>
-      <c r="AE35" s="83"/>
-    </row>
-    <row r="36" spans="1:31" s="70" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="249" t="s">
+      <c r="AD35" s="83"/>
+      <c r="AE35" s="84"/>
+    </row>
+    <row r="36" spans="1:31" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="250" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="250"/>
-      <c r="C36" s="251"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="260" t="s">
+      <c r="B36" s="251"/>
+      <c r="C36" s="252"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="261" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="160"/>
-      <c r="H36" s="261"/>
-      <c r="I36" s="258"/>
-      <c r="J36" s="259"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="160"/>
-      <c r="M36" s="160"/>
-      <c r="N36" s="237" t="s">
+      <c r="G36" s="161"/>
+      <c r="H36" s="262"/>
+      <c r="I36" s="259"/>
+      <c r="J36" s="260"/>
+      <c r="K36" s="161"/>
+      <c r="L36" s="161"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="238" t="s">
         <v>91</v>
       </c>
-      <c r="O36" s="238"/>
-      <c r="P36" s="238"/>
-      <c r="Q36" s="238"/>
-      <c r="R36" s="238"/>
+      <c r="O36" s="239"/>
+      <c r="P36" s="239"/>
+      <c r="Q36" s="239"/>
+      <c r="R36" s="239"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="238" t="s">
+      <c r="T36" s="239" t="s">
         <v>88</v>
       </c>
-      <c r="U36" s="239"/>
-      <c r="V36" s="239"/>
+      <c r="U36" s="240"/>
+      <c r="V36" s="240"/>
       <c r="W36" s="14"/>
-      <c r="X36" s="238" t="s">
+      <c r="X36" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="Y36" s="239"/>
+      <c r="Y36" s="240"/>
       <c r="Z36" s="15"/>
-      <c r="AA36" s="84"/>
+      <c r="AA36" s="85"/>
       <c r="AB36" s="4" t="str">
         <f>PriceList!F28</f>
         <v/>
@@ -5133,47 +5143,47 @@
         <f>PriceList!G28</f>
         <v/>
       </c>
-      <c r="AD36" s="82"/>
-      <c r="AE36" s="83"/>
-    </row>
-    <row r="37" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="266" t="s">
+      <c r="AD36" s="83"/>
+      <c r="AE36" s="84"/>
+    </row>
+    <row r="37" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="267" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="267"/>
-      <c r="C37" s="268"/>
-      <c r="D37" s="269" t="s">
+      <c r="B37" s="268"/>
+      <c r="C37" s="269"/>
+      <c r="D37" s="270" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="268"/>
-      <c r="F37" s="269" t="s">
+      <c r="E37" s="269"/>
+      <c r="F37" s="270" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="270"/>
-      <c r="H37" s="270"/>
-      <c r="I37" s="270"/>
-      <c r="J37" s="270"/>
-      <c r="K37" s="271"/>
-      <c r="L37" s="269" t="s">
+      <c r="G37" s="271"/>
+      <c r="H37" s="271"/>
+      <c r="I37" s="271"/>
+      <c r="J37" s="271"/>
+      <c r="K37" s="272"/>
+      <c r="L37" s="270" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="272"/>
-      <c r="N37" s="192" t="s">
+      <c r="M37" s="273"/>
+      <c r="N37" s="193" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="193"/>
-      <c r="P37" s="193"/>
-      <c r="Q37" s="193"/>
-      <c r="R37" s="193"/>
-      <c r="S37" s="193"/>
-      <c r="T37" s="193"/>
-      <c r="U37" s="193"/>
-      <c r="V37" s="193"/>
-      <c r="W37" s="193"/>
-      <c r="X37" s="193"/>
-      <c r="Y37" s="193"/>
-      <c r="Z37" s="194"/>
-      <c r="AA37" s="84"/>
+      <c r="O37" s="194"/>
+      <c r="P37" s="194"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="194"/>
+      <c r="S37" s="194"/>
+      <c r="T37" s="194"/>
+      <c r="U37" s="194"/>
+      <c r="V37" s="194"/>
+      <c r="W37" s="194"/>
+      <c r="X37" s="194"/>
+      <c r="Y37" s="194"/>
+      <c r="Z37" s="195"/>
+      <c r="AA37" s="85"/>
       <c r="AB37" s="4" t="str">
         <f>PriceList!F29</f>
         <v/>
@@ -5182,55 +5192,55 @@
         <f>PriceList!G29</f>
         <v/>
       </c>
-      <c r="AD37" s="82"/>
-      <c r="AE37" s="83"/>
-    </row>
-    <row r="38" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="252" t="s">
+      <c r="AD37" s="83"/>
+      <c r="AE37" s="84"/>
+    </row>
+    <row r="38" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="253" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="253"/>
-      <c r="C38" s="254"/>
-      <c r="D38" s="114" t="s">
+      <c r="B38" s="254"/>
+      <c r="C38" s="255"/>
+      <c r="D38" s="115" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="255" t="s">
+      <c r="F38" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="134"/>
+      <c r="G38" s="135"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="255" t="s">
+      <c r="I38" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="256"/>
+      <c r="J38" s="257"/>
       <c r="K38" s="19"/>
-      <c r="L38" s="138"/>
-      <c r="M38" s="257"/>
-      <c r="N38" s="116" t="s">
+      <c r="L38" s="139"/>
+      <c r="M38" s="258"/>
+      <c r="N38" s="117" t="s">
         <v>97</v>
       </c>
       <c r="O38" s="6"/>
-      <c r="P38" s="117" t="s">
+      <c r="P38" s="118" t="s">
         <v>98</v>
       </c>
       <c r="Q38" s="6"/>
-      <c r="R38" s="262" t="s">
+      <c r="R38" s="263" t="s">
         <v>99</v>
       </c>
-      <c r="S38" s="262"/>
+      <c r="S38" s="263"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="263" t="s">
+      <c r="U38" s="264" t="s">
         <v>100</v>
       </c>
-      <c r="V38" s="263"/>
+      <c r="V38" s="264"/>
       <c r="W38" s="6"/>
-      <c r="X38" s="118" t="s">
+      <c r="X38" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="Y38" s="264"/>
-      <c r="Z38" s="265"/>
-      <c r="AA38" s="84"/>
+      <c r="Y38" s="265"/>
+      <c r="Z38" s="266"/>
+      <c r="AA38" s="85"/>
       <c r="AB38" s="4" t="str">
         <f>PriceList!F30</f>
         <v/>
@@ -5239,49 +5249,49 @@
         <f>PriceList!G30</f>
         <v/>
       </c>
-      <c r="AD38" s="82"/>
-      <c r="AE38" s="83"/>
-    </row>
-    <row r="39" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="252" t="s">
+      <c r="AD38" s="83"/>
+      <c r="AE38" s="84"/>
+    </row>
+    <row r="39" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="253" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="253"/>
-      <c r="C39" s="254"/>
-      <c r="D39" s="114" t="s">
+      <c r="B39" s="254"/>
+      <c r="C39" s="255"/>
+      <c r="D39" s="115" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="18"/>
-      <c r="F39" s="255" t="s">
+      <c r="F39" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="134"/>
+      <c r="G39" s="135"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="255" t="s">
+      <c r="I39" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="J39" s="256"/>
+      <c r="J39" s="257"/>
       <c r="K39" s="19"/>
-      <c r="L39" s="138"/>
-      <c r="M39" s="257"/>
-      <c r="N39" s="187" t="s">
+      <c r="L39" s="139"/>
+      <c r="M39" s="258"/>
+      <c r="N39" s="188" t="s">
         <v>103</v>
       </c>
-      <c r="O39" s="189"/>
-      <c r="P39" s="189"/>
-      <c r="Q39" s="189"/>
-      <c r="R39" s="189"/>
+      <c r="O39" s="190"/>
+      <c r="P39" s="190"/>
+      <c r="Q39" s="190"/>
+      <c r="R39" s="190"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="196" t="s">
+      <c r="T39" s="197" t="s">
         <v>104</v>
       </c>
-      <c r="U39" s="196"/>
-      <c r="V39" s="196"/>
-      <c r="W39" s="196"/>
+      <c r="U39" s="197"/>
+      <c r="V39" s="197"/>
+      <c r="W39" s="197"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="210"/>
-      <c r="Z39" s="211"/>
-      <c r="AA39" s="84"/>
+      <c r="Y39" s="211"/>
+      <c r="Z39" s="212"/>
+      <c r="AA39" s="85"/>
       <c r="AB39" s="4" t="str">
         <f>PriceList!F31</f>
         <v/>
@@ -5290,49 +5300,49 @@
         <f>PriceList!G31</f>
         <v/>
       </c>
-      <c r="AD39" s="82"/>
-      <c r="AE39" s="83"/>
-    </row>
-    <row r="40" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="252" t="s">
+      <c r="AD39" s="83"/>
+      <c r="AE39" s="84"/>
+    </row>
+    <row r="40" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="253" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="253"/>
-      <c r="C40" s="254"/>
-      <c r="D40" s="114" t="s">
+      <c r="B40" s="254"/>
+      <c r="C40" s="255"/>
+      <c r="D40" s="115" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="255" t="s">
+      <c r="F40" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="134"/>
+      <c r="G40" s="135"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="255" t="s">
+      <c r="I40" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="J40" s="256"/>
+      <c r="J40" s="257"/>
       <c r="K40" s="19"/>
-      <c r="L40" s="138"/>
-      <c r="M40" s="257"/>
-      <c r="N40" s="189" t="s">
+      <c r="L40" s="139"/>
+      <c r="M40" s="258"/>
+      <c r="N40" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="189"/>
-      <c r="P40" s="189"/>
-      <c r="Q40" s="189"/>
-      <c r="R40" s="189"/>
+      <c r="O40" s="190"/>
+      <c r="P40" s="190"/>
+      <c r="Q40" s="190"/>
+      <c r="R40" s="190"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="189" t="s">
+      <c r="T40" s="190" t="s">
         <v>83</v>
       </c>
-      <c r="U40" s="189"/>
-      <c r="V40" s="189"/>
-      <c r="W40" s="189"/>
-      <c r="X40" s="240"/>
-      <c r="Y40" s="240"/>
-      <c r="Z40" s="241"/>
-      <c r="AA40" s="84"/>
+      <c r="U40" s="190"/>
+      <c r="V40" s="190"/>
+      <c r="W40" s="190"/>
+      <c r="X40" s="241"/>
+      <c r="Y40" s="241"/>
+      <c r="Z40" s="242"/>
+      <c r="AA40" s="85"/>
       <c r="AB40" s="4" t="str">
         <f>PriceList!F32</f>
         <v/>
@@ -5341,49 +5351,49 @@
         <f>PriceList!G32</f>
         <v/>
       </c>
-      <c r="AD40" s="82"/>
-      <c r="AE40" s="83"/>
-    </row>
-    <row r="41" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="252" t="s">
+      <c r="AD40" s="83"/>
+      <c r="AE40" s="84"/>
+    </row>
+    <row r="41" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="253" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="253"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="114" t="s">
+      <c r="B41" s="254"/>
+      <c r="C41" s="255"/>
+      <c r="D41" s="115" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="255" t="s">
+      <c r="F41" s="256" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="134"/>
+      <c r="G41" s="135"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="255" t="s">
+      <c r="I41" s="256" t="s">
         <v>112</v>
       </c>
-      <c r="J41" s="256"/>
+      <c r="J41" s="257"/>
       <c r="K41" s="19"/>
-      <c r="L41" s="138"/>
-      <c r="M41" s="257"/>
-      <c r="N41" s="189" t="s">
+      <c r="L41" s="139"/>
+      <c r="M41" s="258"/>
+      <c r="N41" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="O41" s="189"/>
-      <c r="P41" s="189"/>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="189"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="190"/>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="190"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="196" t="s">
+      <c r="T41" s="197" t="s">
         <v>72</v>
       </c>
-      <c r="U41" s="196"/>
-      <c r="V41" s="196"/>
-      <c r="W41" s="196"/>
+      <c r="U41" s="197"/>
+      <c r="V41" s="197"/>
+      <c r="W41" s="197"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="275"/>
-      <c r="Z41" s="276"/>
-      <c r="AA41" s="84"/>
+      <c r="Y41" s="276"/>
+      <c r="Z41" s="277"/>
+      <c r="AA41" s="85"/>
       <c r="AB41" s="4" t="str">
         <f>PriceList!F33</f>
         <v/>
@@ -5392,49 +5402,49 @@
         <f>PriceList!G33</f>
         <v/>
       </c>
-      <c r="AD41" s="82"/>
-      <c r="AE41" s="83"/>
-    </row>
-    <row r="42" spans="1:31" s="70" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="280" t="s">
+      <c r="AD41" s="83"/>
+      <c r="AE41" s="84"/>
+    </row>
+    <row r="42" spans="1:31" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="281" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="281"/>
-      <c r="C42" s="282"/>
-      <c r="D42" s="115" t="s">
+      <c r="B42" s="282"/>
+      <c r="C42" s="283"/>
+      <c r="D42" s="116" t="s">
         <v>122</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="283" t="s">
+      <c r="F42" s="284" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="284"/>
+      <c r="G42" s="285"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="283" t="s">
+      <c r="I42" s="284" t="s">
         <v>112</v>
       </c>
-      <c r="J42" s="285"/>
+      <c r="J42" s="286"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="286"/>
-      <c r="M42" s="287"/>
-      <c r="N42" s="189" t="s">
+      <c r="L42" s="287"/>
+      <c r="M42" s="288"/>
+      <c r="N42" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="O42" s="189"/>
-      <c r="P42" s="189"/>
-      <c r="Q42" s="189"/>
-      <c r="R42" s="189"/>
+      <c r="O42" s="190"/>
+      <c r="P42" s="190"/>
+      <c r="Q42" s="190"/>
+      <c r="R42" s="190"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="196" t="s">
+      <c r="T42" s="197" t="s">
         <v>116</v>
       </c>
-      <c r="U42" s="196"/>
-      <c r="V42" s="196"/>
-      <c r="W42" s="196"/>
-      <c r="X42" s="75"/>
-      <c r="Y42" s="277"/>
-      <c r="Z42" s="211"/>
-      <c r="AA42" s="84"/>
+      <c r="U42" s="197"/>
+      <c r="V42" s="197"/>
+      <c r="W42" s="197"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="278"/>
+      <c r="Z42" s="212"/>
+      <c r="AA42" s="85"/>
       <c r="AB42" s="4" t="str">
         <f>PriceList!F34</f>
         <v/>
@@ -5443,41 +5453,41 @@
         <f>PriceList!G34</f>
         <v/>
       </c>
-      <c r="AD42" s="82"/>
-      <c r="AE42" s="83"/>
-    </row>
-    <row r="43" spans="1:31" s="70" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="313" t="s">
+      <c r="AD42" s="83"/>
+      <c r="AE42" s="84"/>
+    </row>
+    <row r="43" spans="1:31" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="314" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="314"/>
-      <c r="C43" s="314"/>
-      <c r="D43" s="314"/>
-      <c r="E43" s="314"/>
-      <c r="F43" s="314"/>
-      <c r="G43" s="314"/>
-      <c r="H43" s="314"/>
-      <c r="I43" s="314"/>
-      <c r="J43" s="314"/>
-      <c r="K43" s="314"/>
-      <c r="L43" s="314"/>
-      <c r="M43" s="315"/>
-      <c r="N43" s="288" t="s">
+      <c r="B43" s="315"/>
+      <c r="C43" s="315"/>
+      <c r="D43" s="315"/>
+      <c r="E43" s="315"/>
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="315"/>
+      <c r="L43" s="315"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="289" t="s">
         <v>118</v>
       </c>
-      <c r="O43" s="288"/>
-      <c r="P43" s="288"/>
-      <c r="Q43" s="288"/>
-      <c r="R43" s="288"/>
-      <c r="S43" s="288"/>
-      <c r="T43" s="288"/>
-      <c r="U43" s="288"/>
-      <c r="V43" s="288"/>
-      <c r="W43" s="289"/>
+      <c r="O43" s="289"/>
+      <c r="P43" s="289"/>
+      <c r="Q43" s="289"/>
+      <c r="R43" s="289"/>
+      <c r="S43" s="289"/>
+      <c r="T43" s="289"/>
+      <c r="U43" s="289"/>
+      <c r="V43" s="289"/>
+      <c r="W43" s="290"/>
       <c r="X43" s="14"/>
-      <c r="Y43" s="278"/>
-      <c r="Z43" s="279"/>
-      <c r="AA43" s="84"/>
+      <c r="Y43" s="279"/>
+      <c r="Z43" s="280"/>
+      <c r="AA43" s="85"/>
       <c r="AB43" s="4" t="str">
         <f>PriceList!F35</f>
         <v/>
@@ -5486,39 +5496,39 @@
         <f>PriceList!G35</f>
         <v/>
       </c>
-      <c r="AD43" s="82"/>
-      <c r="AE43" s="83"/>
-    </row>
-    <row r="44" spans="1:31" s="70" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="290"/>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="169"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="169"/>
-      <c r="K44" s="169"/>
-      <c r="L44" s="169"/>
-      <c r="M44" s="291"/>
-      <c r="N44" s="273" t="s">
+      <c r="AD43" s="83"/>
+      <c r="AE43" s="84"/>
+    </row>
+    <row r="44" spans="1:31" s="71" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="291"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170"/>
+      <c r="D44" s="170"/>
+      <c r="E44" s="170"/>
+      <c r="F44" s="170"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="170"/>
+      <c r="I44" s="170"/>
+      <c r="J44" s="170"/>
+      <c r="K44" s="170"/>
+      <c r="L44" s="170"/>
+      <c r="M44" s="292"/>
+      <c r="N44" s="274" t="s">
         <v>120</v>
       </c>
-      <c r="O44" s="273"/>
-      <c r="P44" s="273"/>
-      <c r="Q44" s="273"/>
-      <c r="R44" s="273"/>
-      <c r="S44" s="273"/>
-      <c r="T44" s="273"/>
-      <c r="U44" s="273"/>
-      <c r="V44" s="273"/>
-      <c r="W44" s="273"/>
-      <c r="X44" s="273"/>
-      <c r="Y44" s="273"/>
-      <c r="Z44" s="274"/>
-      <c r="AA44" s="81"/>
+      <c r="O44" s="274"/>
+      <c r="P44" s="274"/>
+      <c r="Q44" s="274"/>
+      <c r="R44" s="274"/>
+      <c r="S44" s="274"/>
+      <c r="T44" s="274"/>
+      <c r="U44" s="274"/>
+      <c r="V44" s="274"/>
+      <c r="W44" s="274"/>
+      <c r="X44" s="274"/>
+      <c r="Y44" s="274"/>
+      <c r="Z44" s="275"/>
+      <c r="AA44" s="82"/>
       <c r="AB44" s="4" t="str">
         <f>PriceList!F36</f>
         <v/>
@@ -5527,41 +5537,41 @@
         <f>PriceList!G36</f>
         <v/>
       </c>
-      <c r="AD44" s="82"/>
-      <c r="AE44" s="83"/>
-    </row>
-    <row r="45" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="292"/>
-      <c r="B45" s="293"/>
-      <c r="C45" s="293"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="293"/>
-      <c r="F45" s="293"/>
-      <c r="G45" s="293"/>
-      <c r="H45" s="293"/>
-      <c r="I45" s="293"/>
-      <c r="J45" s="293"/>
-      <c r="K45" s="293"/>
-      <c r="L45" s="293"/>
-      <c r="M45" s="294"/>
-      <c r="N45" s="189" t="s">
+      <c r="AD44" s="83"/>
+      <c r="AE44" s="84"/>
+    </row>
+    <row r="45" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="293"/>
+      <c r="B45" s="294"/>
+      <c r="C45" s="294"/>
+      <c r="D45" s="294"/>
+      <c r="E45" s="294"/>
+      <c r="F45" s="294"/>
+      <c r="G45" s="294"/>
+      <c r="H45" s="294"/>
+      <c r="I45" s="294"/>
+      <c r="J45" s="294"/>
+      <c r="K45" s="294"/>
+      <c r="L45" s="294"/>
+      <c r="M45" s="295"/>
+      <c r="N45" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="O45" s="189"/>
-      <c r="P45" s="189"/>
-      <c r="Q45" s="189"/>
-      <c r="R45" s="189"/>
-      <c r="S45" s="189"/>
+      <c r="O45" s="190"/>
+      <c r="P45" s="190"/>
+      <c r="Q45" s="190"/>
+      <c r="R45" s="190"/>
+      <c r="S45" s="190"/>
       <c r="T45" s="9"/>
-      <c r="U45" s="189" t="s">
+      <c r="U45" s="190" t="s">
         <v>188</v>
       </c>
-      <c r="V45" s="189"/>
-      <c r="W45" s="189"/>
-      <c r="X45" s="189"/>
-      <c r="Y45" s="189"/>
+      <c r="V45" s="190"/>
+      <c r="W45" s="190"/>
+      <c r="X45" s="190"/>
+      <c r="Y45" s="190"/>
       <c r="Z45" s="10"/>
-      <c r="AA45" s="81"/>
+      <c r="AA45" s="82"/>
       <c r="AB45" s="4" t="str">
         <f>PriceList!F41</f>
         <v/>
@@ -5570,39 +5580,39 @@
         <f>PriceList!G41</f>
         <v/>
       </c>
-      <c r="AD45" s="82"/>
-      <c r="AE45" s="83"/>
-    </row>
-    <row r="46" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="292"/>
-      <c r="B46" s="293"/>
-      <c r="C46" s="293"/>
-      <c r="D46" s="293"/>
-      <c r="E46" s="293"/>
-      <c r="F46" s="293"/>
-      <c r="G46" s="293"/>
-      <c r="H46" s="293"/>
-      <c r="I46" s="293"/>
-      <c r="J46" s="293"/>
-      <c r="K46" s="293"/>
-      <c r="L46" s="293"/>
-      <c r="M46" s="294"/>
-      <c r="N46" s="189" t="s">
+      <c r="AD45" s="83"/>
+      <c r="AE45" s="84"/>
+    </row>
+    <row r="46" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="293"/>
+      <c r="B46" s="294"/>
+      <c r="C46" s="294"/>
+      <c r="D46" s="294"/>
+      <c r="E46" s="294"/>
+      <c r="F46" s="294"/>
+      <c r="G46" s="294"/>
+      <c r="H46" s="294"/>
+      <c r="I46" s="294"/>
+      <c r="J46" s="294"/>
+      <c r="K46" s="294"/>
+      <c r="L46" s="294"/>
+      <c r="M46" s="295"/>
+      <c r="N46" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="O46" s="189"/>
-      <c r="P46" s="189"/>
-      <c r="Q46" s="189"/>
-      <c r="R46" s="189"/>
-      <c r="S46" s="189"/>
-      <c r="T46" s="189"/>
-      <c r="U46" s="189"/>
-      <c r="V46" s="189"/>
-      <c r="W46" s="189"/>
-      <c r="X46" s="189"/>
-      <c r="Y46" s="189"/>
+      <c r="O46" s="190"/>
+      <c r="P46" s="190"/>
+      <c r="Q46" s="190"/>
+      <c r="R46" s="190"/>
+      <c r="S46" s="190"/>
+      <c r="T46" s="190"/>
+      <c r="U46" s="190"/>
+      <c r="V46" s="190"/>
+      <c r="W46" s="190"/>
+      <c r="X46" s="190"/>
+      <c r="Y46" s="190"/>
       <c r="Z46" s="10"/>
-      <c r="AA46" s="81"/>
+      <c r="AA46" s="82"/>
       <c r="AB46" s="4" t="str">
         <f>PriceList!F42</f>
         <v/>
@@ -5611,39 +5621,39 @@
         <f>PriceList!G42</f>
         <v/>
       </c>
-      <c r="AD46" s="82"/>
-      <c r="AE46" s="83"/>
-    </row>
-    <row r="47" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="292"/>
-      <c r="B47" s="293"/>
-      <c r="C47" s="293"/>
-      <c r="D47" s="293"/>
-      <c r="E47" s="293"/>
-      <c r="F47" s="293"/>
-      <c r="G47" s="293"/>
-      <c r="H47" s="293"/>
-      <c r="I47" s="293"/>
-      <c r="J47" s="293"/>
-      <c r="K47" s="293"/>
-      <c r="L47" s="293"/>
-      <c r="M47" s="294"/>
-      <c r="N47" s="189" t="s">
+      <c r="AD46" s="83"/>
+      <c r="AE46" s="84"/>
+    </row>
+    <row r="47" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="293"/>
+      <c r="B47" s="294"/>
+      <c r="C47" s="294"/>
+      <c r="D47" s="294"/>
+      <c r="E47" s="294"/>
+      <c r="F47" s="294"/>
+      <c r="G47" s="294"/>
+      <c r="H47" s="294"/>
+      <c r="I47" s="294"/>
+      <c r="J47" s="294"/>
+      <c r="K47" s="294"/>
+      <c r="L47" s="294"/>
+      <c r="M47" s="295"/>
+      <c r="N47" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="O47" s="189"/>
-      <c r="P47" s="189"/>
-      <c r="Q47" s="189"/>
-      <c r="R47" s="189"/>
-      <c r="S47" s="189"/>
-      <c r="T47" s="189"/>
-      <c r="U47" s="189"/>
-      <c r="V47" s="189"/>
-      <c r="W47" s="189"/>
-      <c r="X47" s="189"/>
-      <c r="Y47" s="189"/>
+      <c r="O47" s="190"/>
+      <c r="P47" s="190"/>
+      <c r="Q47" s="190"/>
+      <c r="R47" s="190"/>
+      <c r="S47" s="190"/>
+      <c r="T47" s="190"/>
+      <c r="U47" s="190"/>
+      <c r="V47" s="190"/>
+      <c r="W47" s="190"/>
+      <c r="X47" s="190"/>
+      <c r="Y47" s="190"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="81"/>
+      <c r="AA47" s="82"/>
       <c r="AB47" s="4" t="str">
         <f>PriceList!F43</f>
         <v/>
@@ -5652,39 +5662,39 @@
         <f>PriceList!G43</f>
         <v/>
       </c>
-      <c r="AD47" s="82"/>
-      <c r="AE47" s="83"/>
-    </row>
-    <row r="48" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="295"/>
-      <c r="B48" s="296"/>
-      <c r="C48" s="296"/>
-      <c r="D48" s="296"/>
-      <c r="E48" s="296"/>
-      <c r="F48" s="296"/>
-      <c r="G48" s="296"/>
-      <c r="H48" s="296"/>
-      <c r="I48" s="296"/>
-      <c r="J48" s="296"/>
-      <c r="K48" s="296"/>
-      <c r="L48" s="296"/>
-      <c r="M48" s="297"/>
-      <c r="N48" s="238" t="s">
+      <c r="AD47" s="83"/>
+      <c r="AE47" s="84"/>
+    </row>
+    <row r="48" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="296"/>
+      <c r="B48" s="297"/>
+      <c r="C48" s="297"/>
+      <c r="D48" s="297"/>
+      <c r="E48" s="297"/>
+      <c r="F48" s="297"/>
+      <c r="G48" s="297"/>
+      <c r="H48" s="297"/>
+      <c r="I48" s="297"/>
+      <c r="J48" s="297"/>
+      <c r="K48" s="297"/>
+      <c r="L48" s="297"/>
+      <c r="M48" s="298"/>
+      <c r="N48" s="239" t="s">
         <v>127</v>
       </c>
-      <c r="O48" s="238"/>
-      <c r="P48" s="238"/>
-      <c r="Q48" s="238"/>
-      <c r="R48" s="238"/>
-      <c r="S48" s="238"/>
-      <c r="T48" s="238"/>
-      <c r="U48" s="238"/>
-      <c r="V48" s="238"/>
-      <c r="W48" s="238"/>
-      <c r="X48" s="238"/>
-      <c r="Y48" s="238"/>
+      <c r="O48" s="239"/>
+      <c r="P48" s="239"/>
+      <c r="Q48" s="239"/>
+      <c r="R48" s="239"/>
+      <c r="S48" s="239"/>
+      <c r="T48" s="239"/>
+      <c r="U48" s="239"/>
+      <c r="V48" s="239"/>
+      <c r="W48" s="239"/>
+      <c r="X48" s="239"/>
+      <c r="Y48" s="239"/>
       <c r="Z48" s="15"/>
-      <c r="AA48" s="81"/>
+      <c r="AA48" s="82"/>
       <c r="AB48" s="4" t="str">
         <f>PriceList!F44</f>
         <v/>
@@ -5693,39 +5703,39 @@
         <f>PriceList!G44</f>
         <v/>
       </c>
-      <c r="AD48" s="82"/>
-      <c r="AE48" s="83"/>
-    </row>
-    <row r="49" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="298" t="s">
+      <c r="AD48" s="83"/>
+      <c r="AE48" s="84"/>
+    </row>
+    <row r="49" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="299" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="299"/>
-      <c r="C49" s="299"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
-      <c r="G49" s="299"/>
-      <c r="H49" s="299"/>
-      <c r="I49" s="299"/>
-      <c r="J49" s="299"/>
-      <c r="K49" s="299"/>
-      <c r="L49" s="299"/>
-      <c r="M49" s="299"/>
-      <c r="N49" s="299"/>
-      <c r="O49" s="299"/>
-      <c r="P49" s="299"/>
-      <c r="Q49" s="299"/>
-      <c r="R49" s="299"/>
-      <c r="S49" s="299"/>
-      <c r="T49" s="299"/>
-      <c r="U49" s="299"/>
-      <c r="V49" s="299"/>
-      <c r="W49" s="299"/>
-      <c r="X49" s="299"/>
-      <c r="Y49" s="299"/>
-      <c r="Z49" s="300"/>
-      <c r="AA49" s="81"/>
+      <c r="B49" s="300"/>
+      <c r="C49" s="300"/>
+      <c r="D49" s="300"/>
+      <c r="E49" s="300"/>
+      <c r="F49" s="300"/>
+      <c r="G49" s="300"/>
+      <c r="H49" s="300"/>
+      <c r="I49" s="300"/>
+      <c r="J49" s="300"/>
+      <c r="K49" s="300"/>
+      <c r="L49" s="300"/>
+      <c r="M49" s="300"/>
+      <c r="N49" s="300"/>
+      <c r="O49" s="300"/>
+      <c r="P49" s="300"/>
+      <c r="Q49" s="300"/>
+      <c r="R49" s="300"/>
+      <c r="S49" s="300"/>
+      <c r="T49" s="300"/>
+      <c r="U49" s="300"/>
+      <c r="V49" s="300"/>
+      <c r="W49" s="300"/>
+      <c r="X49" s="300"/>
+      <c r="Y49" s="300"/>
+      <c r="Z49" s="301"/>
+      <c r="AA49" s="82"/>
       <c r="AB49" s="4" t="str">
         <f>PriceList!F47</f>
         <v/>
@@ -5734,37 +5744,37 @@
         <f>PriceList!G47</f>
         <v/>
       </c>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="83"/>
-    </row>
-    <row r="50" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="301"/>
-      <c r="B50" s="302"/>
-      <c r="C50" s="302"/>
-      <c r="D50" s="302"/>
-      <c r="E50" s="302"/>
-      <c r="F50" s="302"/>
-      <c r="G50" s="302"/>
-      <c r="H50" s="302"/>
-      <c r="I50" s="302"/>
-      <c r="J50" s="302"/>
-      <c r="K50" s="302"/>
-      <c r="L50" s="302"/>
-      <c r="M50" s="302"/>
-      <c r="N50" s="302"/>
-      <c r="O50" s="302"/>
-      <c r="P50" s="302"/>
-      <c r="Q50" s="302"/>
-      <c r="R50" s="302"/>
-      <c r="S50" s="302"/>
-      <c r="T50" s="302"/>
-      <c r="U50" s="302"/>
-      <c r="V50" s="302"/>
-      <c r="W50" s="302"/>
-      <c r="X50" s="302"/>
-      <c r="Y50" s="302"/>
-      <c r="Z50" s="303"/>
-      <c r="AA50" s="81"/>
+      <c r="AD49" s="83"/>
+      <c r="AE49" s="84"/>
+    </row>
+    <row r="50" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="302"/>
+      <c r="B50" s="303"/>
+      <c r="C50" s="303"/>
+      <c r="D50" s="303"/>
+      <c r="E50" s="303"/>
+      <c r="F50" s="303"/>
+      <c r="G50" s="303"/>
+      <c r="H50" s="303"/>
+      <c r="I50" s="303"/>
+      <c r="J50" s="303"/>
+      <c r="K50" s="303"/>
+      <c r="L50" s="303"/>
+      <c r="M50" s="303"/>
+      <c r="N50" s="303"/>
+      <c r="O50" s="303"/>
+      <c r="P50" s="303"/>
+      <c r="Q50" s="303"/>
+      <c r="R50" s="303"/>
+      <c r="S50" s="303"/>
+      <c r="T50" s="303"/>
+      <c r="U50" s="303"/>
+      <c r="V50" s="303"/>
+      <c r="W50" s="303"/>
+      <c r="X50" s="303"/>
+      <c r="Y50" s="303"/>
+      <c r="Z50" s="304"/>
+      <c r="AA50" s="82"/>
       <c r="AB50" s="4" t="str">
         <f>PriceList!F48</f>
         <v/>
@@ -5773,37 +5783,37 @@
         <f>PriceList!G48</f>
         <v/>
       </c>
-      <c r="AD50" s="82"/>
-      <c r="AE50" s="83"/>
-    </row>
-    <row r="51" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="301"/>
-      <c r="B51" s="302"/>
-      <c r="C51" s="302"/>
-      <c r="D51" s="302"/>
-      <c r="E51" s="302"/>
-      <c r="F51" s="302"/>
-      <c r="G51" s="302"/>
-      <c r="H51" s="302"/>
-      <c r="I51" s="302"/>
-      <c r="J51" s="302"/>
-      <c r="K51" s="302"/>
-      <c r="L51" s="302"/>
-      <c r="M51" s="302"/>
-      <c r="N51" s="302"/>
-      <c r="O51" s="302"/>
-      <c r="P51" s="302"/>
-      <c r="Q51" s="302"/>
-      <c r="R51" s="302"/>
-      <c r="S51" s="302"/>
-      <c r="T51" s="302"/>
-      <c r="U51" s="302"/>
-      <c r="V51" s="302"/>
-      <c r="W51" s="302"/>
-      <c r="X51" s="302"/>
-      <c r="Y51" s="302"/>
-      <c r="Z51" s="303"/>
-      <c r="AA51" s="81"/>
+      <c r="AD50" s="83"/>
+      <c r="AE50" s="84"/>
+    </row>
+    <row r="51" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="302"/>
+      <c r="B51" s="303"/>
+      <c r="C51" s="303"/>
+      <c r="D51" s="303"/>
+      <c r="E51" s="303"/>
+      <c r="F51" s="303"/>
+      <c r="G51" s="303"/>
+      <c r="H51" s="303"/>
+      <c r="I51" s="303"/>
+      <c r="J51" s="303"/>
+      <c r="K51" s="303"/>
+      <c r="L51" s="303"/>
+      <c r="M51" s="303"/>
+      <c r="N51" s="303"/>
+      <c r="O51" s="303"/>
+      <c r="P51" s="303"/>
+      <c r="Q51" s="303"/>
+      <c r="R51" s="303"/>
+      <c r="S51" s="303"/>
+      <c r="T51" s="303"/>
+      <c r="U51" s="303"/>
+      <c r="V51" s="303"/>
+      <c r="W51" s="303"/>
+      <c r="X51" s="303"/>
+      <c r="Y51" s="303"/>
+      <c r="Z51" s="304"/>
+      <c r="AA51" s="82"/>
       <c r="AB51" s="4" t="str">
         <f>PriceList!F49</f>
         <v/>
@@ -5812,37 +5822,37 @@
         <f>PriceList!G49</f>
         <v/>
       </c>
-      <c r="AD51" s="82"/>
-      <c r="AE51" s="83"/>
-    </row>
-    <row r="52" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="301"/>
-      <c r="B52" s="302"/>
-      <c r="C52" s="302"/>
-      <c r="D52" s="302"/>
-      <c r="E52" s="302"/>
-      <c r="F52" s="302"/>
-      <c r="G52" s="302"/>
-      <c r="H52" s="302"/>
-      <c r="I52" s="302"/>
-      <c r="J52" s="302"/>
-      <c r="K52" s="302"/>
-      <c r="L52" s="302"/>
-      <c r="M52" s="302"/>
-      <c r="N52" s="302"/>
-      <c r="O52" s="302"/>
-      <c r="P52" s="302"/>
-      <c r="Q52" s="302"/>
-      <c r="R52" s="302"/>
-      <c r="S52" s="302"/>
-      <c r="T52" s="302"/>
-      <c r="U52" s="302"/>
-      <c r="V52" s="302"/>
-      <c r="W52" s="302"/>
-      <c r="X52" s="302"/>
-      <c r="Y52" s="302"/>
-      <c r="Z52" s="303"/>
-      <c r="AA52" s="81"/>
+      <c r="AD51" s="83"/>
+      <c r="AE51" s="84"/>
+    </row>
+    <row r="52" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="302"/>
+      <c r="B52" s="303"/>
+      <c r="C52" s="303"/>
+      <c r="D52" s="303"/>
+      <c r="E52" s="303"/>
+      <c r="F52" s="303"/>
+      <c r="G52" s="303"/>
+      <c r="H52" s="303"/>
+      <c r="I52" s="303"/>
+      <c r="J52" s="303"/>
+      <c r="K52" s="303"/>
+      <c r="L52" s="303"/>
+      <c r="M52" s="303"/>
+      <c r="N52" s="303"/>
+      <c r="O52" s="303"/>
+      <c r="P52" s="303"/>
+      <c r="Q52" s="303"/>
+      <c r="R52" s="303"/>
+      <c r="S52" s="303"/>
+      <c r="T52" s="303"/>
+      <c r="U52" s="303"/>
+      <c r="V52" s="303"/>
+      <c r="W52" s="303"/>
+      <c r="X52" s="303"/>
+      <c r="Y52" s="303"/>
+      <c r="Z52" s="304"/>
+      <c r="AA52" s="82"/>
       <c r="AB52" s="4" t="str">
         <f>PriceList!F50</f>
         <v/>
@@ -5851,37 +5861,37 @@
         <f>PriceList!G50</f>
         <v/>
       </c>
-      <c r="AD52" s="82"/>
-      <c r="AE52" s="83"/>
-    </row>
-    <row r="53" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="301"/>
-      <c r="B53" s="302"/>
-      <c r="C53" s="302"/>
-      <c r="D53" s="302"/>
-      <c r="E53" s="302"/>
-      <c r="F53" s="302"/>
-      <c r="G53" s="302"/>
-      <c r="H53" s="302"/>
-      <c r="I53" s="302"/>
-      <c r="J53" s="302"/>
-      <c r="K53" s="302"/>
-      <c r="L53" s="302"/>
-      <c r="M53" s="302"/>
-      <c r="N53" s="302"/>
-      <c r="O53" s="302"/>
-      <c r="P53" s="302"/>
-      <c r="Q53" s="302"/>
-      <c r="R53" s="302"/>
-      <c r="S53" s="302"/>
-      <c r="T53" s="302"/>
-      <c r="U53" s="302"/>
-      <c r="V53" s="302"/>
-      <c r="W53" s="302"/>
-      <c r="X53" s="302"/>
-      <c r="Y53" s="302"/>
-      <c r="Z53" s="303"/>
-      <c r="AA53" s="81"/>
+      <c r="AD52" s="83"/>
+      <c r="AE52" s="84"/>
+    </row>
+    <row r="53" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="302"/>
+      <c r="B53" s="303"/>
+      <c r="C53" s="303"/>
+      <c r="D53" s="303"/>
+      <c r="E53" s="303"/>
+      <c r="F53" s="303"/>
+      <c r="G53" s="303"/>
+      <c r="H53" s="303"/>
+      <c r="I53" s="303"/>
+      <c r="J53" s="303"/>
+      <c r="K53" s="303"/>
+      <c r="L53" s="303"/>
+      <c r="M53" s="303"/>
+      <c r="N53" s="303"/>
+      <c r="O53" s="303"/>
+      <c r="P53" s="303"/>
+      <c r="Q53" s="303"/>
+      <c r="R53" s="303"/>
+      <c r="S53" s="303"/>
+      <c r="T53" s="303"/>
+      <c r="U53" s="303"/>
+      <c r="V53" s="303"/>
+      <c r="W53" s="303"/>
+      <c r="X53" s="303"/>
+      <c r="Y53" s="303"/>
+      <c r="Z53" s="304"/>
+      <c r="AA53" s="82"/>
       <c r="AB53" s="4" t="str">
         <f>PriceList!F51</f>
         <v/>
@@ -5890,37 +5900,37 @@
         <f>PriceList!G51</f>
         <v/>
       </c>
-      <c r="AD53" s="82"/>
-      <c r="AE53" s="83"/>
-    </row>
-    <row r="54" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="301"/>
-      <c r="B54" s="302"/>
-      <c r="C54" s="302"/>
-      <c r="D54" s="302"/>
-      <c r="E54" s="302"/>
-      <c r="F54" s="302"/>
-      <c r="G54" s="302"/>
-      <c r="H54" s="302"/>
-      <c r="I54" s="302"/>
-      <c r="J54" s="302"/>
-      <c r="K54" s="302"/>
-      <c r="L54" s="302"/>
-      <c r="M54" s="302"/>
-      <c r="N54" s="302"/>
-      <c r="O54" s="302"/>
-      <c r="P54" s="302"/>
-      <c r="Q54" s="302"/>
-      <c r="R54" s="302"/>
-      <c r="S54" s="302"/>
-      <c r="T54" s="302"/>
-      <c r="U54" s="302"/>
-      <c r="V54" s="302"/>
-      <c r="W54" s="302"/>
-      <c r="X54" s="302"/>
-      <c r="Y54" s="302"/>
-      <c r="Z54" s="303"/>
-      <c r="AA54" s="81"/>
+      <c r="AD53" s="83"/>
+      <c r="AE53" s="84"/>
+    </row>
+    <row r="54" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="302"/>
+      <c r="B54" s="303"/>
+      <c r="C54" s="303"/>
+      <c r="D54" s="303"/>
+      <c r="E54" s="303"/>
+      <c r="F54" s="303"/>
+      <c r="G54" s="303"/>
+      <c r="H54" s="303"/>
+      <c r="I54" s="303"/>
+      <c r="J54" s="303"/>
+      <c r="K54" s="303"/>
+      <c r="L54" s="303"/>
+      <c r="M54" s="303"/>
+      <c r="N54" s="303"/>
+      <c r="O54" s="303"/>
+      <c r="P54" s="303"/>
+      <c r="Q54" s="303"/>
+      <c r="R54" s="303"/>
+      <c r="S54" s="303"/>
+      <c r="T54" s="303"/>
+      <c r="U54" s="303"/>
+      <c r="V54" s="303"/>
+      <c r="W54" s="303"/>
+      <c r="X54" s="303"/>
+      <c r="Y54" s="303"/>
+      <c r="Z54" s="304"/>
+      <c r="AA54" s="82"/>
       <c r="AB54" s="4" t="str">
         <f>PriceList!F52</f>
         <v/>
@@ -5929,39 +5939,39 @@
         <f>PriceList!G52</f>
         <v/>
       </c>
-      <c r="AD54" s="82"/>
-      <c r="AE54" s="83"/>
-    </row>
-    <row r="55" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="304" t="s">
+      <c r="AD54" s="83"/>
+      <c r="AE54" s="84"/>
+    </row>
+    <row r="55" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="305" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="305"/>
-      <c r="C55" s="305"/>
-      <c r="D55" s="305"/>
-      <c r="E55" s="305"/>
-      <c r="F55" s="305"/>
-      <c r="G55" s="305"/>
-      <c r="H55" s="305"/>
-      <c r="I55" s="305"/>
-      <c r="J55" s="305"/>
-      <c r="K55" s="305"/>
-      <c r="L55" s="305"/>
-      <c r="M55" s="305"/>
-      <c r="N55" s="305"/>
-      <c r="O55" s="305"/>
-      <c r="P55" s="305"/>
-      <c r="Q55" s="305"/>
-      <c r="R55" s="305"/>
-      <c r="S55" s="305"/>
-      <c r="T55" s="305"/>
-      <c r="U55" s="305"/>
-      <c r="V55" s="305"/>
-      <c r="W55" s="305"/>
-      <c r="X55" s="305"/>
-      <c r="Y55" s="305"/>
-      <c r="Z55" s="306"/>
-      <c r="AA55" s="81"/>
+      <c r="B55" s="306"/>
+      <c r="C55" s="306"/>
+      <c r="D55" s="306"/>
+      <c r="E55" s="306"/>
+      <c r="F55" s="306"/>
+      <c r="G55" s="306"/>
+      <c r="H55" s="306"/>
+      <c r="I55" s="306"/>
+      <c r="J55" s="306"/>
+      <c r="K55" s="306"/>
+      <c r="L55" s="306"/>
+      <c r="M55" s="306"/>
+      <c r="N55" s="306"/>
+      <c r="O55" s="306"/>
+      <c r="P55" s="306"/>
+      <c r="Q55" s="306"/>
+      <c r="R55" s="306"/>
+      <c r="S55" s="306"/>
+      <c r="T55" s="306"/>
+      <c r="U55" s="306"/>
+      <c r="V55" s="306"/>
+      <c r="W55" s="306"/>
+      <c r="X55" s="306"/>
+      <c r="Y55" s="306"/>
+      <c r="Z55" s="307"/>
+      <c r="AA55" s="82"/>
       <c r="AB55" s="4" t="str">
         <f>PriceList!F53</f>
         <v/>
@@ -5970,41 +5980,41 @@
         <f>PriceList!G53</f>
         <v/>
       </c>
-      <c r="AD55" s="82"/>
-      <c r="AE55" s="83"/>
-    </row>
-    <row r="56" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="307" t="s">
+      <c r="AD55" s="83"/>
+      <c r="AE55" s="84"/>
+    </row>
+    <row r="56" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="308" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="308"/>
-      <c r="C56" s="308"/>
-      <c r="D56" s="308"/>
-      <c r="E56" s="308"/>
-      <c r="F56" s="308"/>
-      <c r="G56" s="309"/>
-      <c r="H56" s="310"/>
-      <c r="I56" s="311"/>
-      <c r="J56" s="312"/>
-      <c r="K56" s="318"/>
-      <c r="L56" s="319"/>
-      <c r="M56" s="320"/>
-      <c r="N56" s="317" t="s">
+      <c r="B56" s="309"/>
+      <c r="C56" s="309"/>
+      <c r="D56" s="309"/>
+      <c r="E56" s="309"/>
+      <c r="F56" s="309"/>
+      <c r="G56" s="310"/>
+      <c r="H56" s="311"/>
+      <c r="I56" s="312"/>
+      <c r="J56" s="313"/>
+      <c r="K56" s="319"/>
+      <c r="L56" s="320"/>
+      <c r="M56" s="321"/>
+      <c r="N56" s="318" t="s">
         <v>131</v>
       </c>
-      <c r="O56" s="308"/>
-      <c r="P56" s="308"/>
-      <c r="Q56" s="308"/>
-      <c r="R56" s="308"/>
-      <c r="S56" s="308"/>
-      <c r="T56" s="309"/>
-      <c r="U56" s="310"/>
-      <c r="V56" s="311"/>
-      <c r="W56" s="312"/>
-      <c r="X56" s="310"/>
-      <c r="Y56" s="311"/>
-      <c r="Z56" s="316"/>
-      <c r="AA56" s="81"/>
+      <c r="O56" s="309"/>
+      <c r="P56" s="309"/>
+      <c r="Q56" s="309"/>
+      <c r="R56" s="309"/>
+      <c r="S56" s="309"/>
+      <c r="T56" s="310"/>
+      <c r="U56" s="311"/>
+      <c r="V56" s="312"/>
+      <c r="W56" s="313"/>
+      <c r="X56" s="311"/>
+      <c r="Y56" s="312"/>
+      <c r="Z56" s="317"/>
+      <c r="AA56" s="82"/>
       <c r="AB56" s="4" t="str">
         <f>PriceList!F54</f>
         <v/>
@@ -6013,41 +6023,41 @@
         <f>PriceList!G54</f>
         <v/>
       </c>
-      <c r="AD56" s="82"/>
-      <c r="AE56" s="83"/>
-    </row>
-    <row r="57" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="307" t="s">
+      <c r="AD56" s="83"/>
+      <c r="AE56" s="84"/>
+    </row>
+    <row r="57" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="308" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="308"/>
-      <c r="C57" s="308"/>
-      <c r="D57" s="308"/>
-      <c r="E57" s="308"/>
-      <c r="F57" s="308"/>
-      <c r="G57" s="309"/>
-      <c r="H57" s="310"/>
-      <c r="I57" s="311"/>
-      <c r="J57" s="312"/>
-      <c r="K57" s="321"/>
-      <c r="L57" s="322"/>
-      <c r="M57" s="323"/>
-      <c r="N57" s="317" t="s">
+      <c r="B57" s="309"/>
+      <c r="C57" s="309"/>
+      <c r="D57" s="309"/>
+      <c r="E57" s="309"/>
+      <c r="F57" s="309"/>
+      <c r="G57" s="310"/>
+      <c r="H57" s="311"/>
+      <c r="I57" s="312"/>
+      <c r="J57" s="313"/>
+      <c r="K57" s="322"/>
+      <c r="L57" s="323"/>
+      <c r="M57" s="324"/>
+      <c r="N57" s="318" t="s">
         <v>203</v>
       </c>
-      <c r="O57" s="308"/>
-      <c r="P57" s="308"/>
-      <c r="Q57" s="308"/>
-      <c r="R57" s="308"/>
-      <c r="S57" s="308"/>
-      <c r="T57" s="309"/>
-      <c r="U57" s="310"/>
-      <c r="V57" s="311"/>
-      <c r="W57" s="312"/>
-      <c r="X57" s="310"/>
-      <c r="Y57" s="311"/>
-      <c r="Z57" s="316"/>
-      <c r="AA57" s="81"/>
+      <c r="O57" s="309"/>
+      <c r="P57" s="309"/>
+      <c r="Q57" s="309"/>
+      <c r="R57" s="309"/>
+      <c r="S57" s="309"/>
+      <c r="T57" s="310"/>
+      <c r="U57" s="311"/>
+      <c r="V57" s="312"/>
+      <c r="W57" s="313"/>
+      <c r="X57" s="311"/>
+      <c r="Y57" s="312"/>
+      <c r="Z57" s="317"/>
+      <c r="AA57" s="82"/>
       <c r="AB57" s="4" t="str">
         <f>PriceList!F55</f>
         <v/>
@@ -6056,41 +6066,41 @@
         <f>PriceList!G55</f>
         <v/>
       </c>
-      <c r="AD57" s="82"/>
-      <c r="AE57" s="83"/>
-    </row>
-    <row r="58" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="307" t="s">
+      <c r="AD57" s="83"/>
+      <c r="AE57" s="84"/>
+    </row>
+    <row r="58" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="308" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="308"/>
-      <c r="C58" s="308"/>
-      <c r="D58" s="308"/>
-      <c r="E58" s="308"/>
-      <c r="F58" s="308"/>
-      <c r="G58" s="309"/>
-      <c r="H58" s="310"/>
-      <c r="I58" s="311"/>
-      <c r="J58" s="312"/>
-      <c r="K58" s="321"/>
-      <c r="L58" s="322"/>
-      <c r="M58" s="323"/>
-      <c r="N58" s="317" t="s">
+      <c r="B58" s="309"/>
+      <c r="C58" s="309"/>
+      <c r="D58" s="309"/>
+      <c r="E58" s="309"/>
+      <c r="F58" s="309"/>
+      <c r="G58" s="310"/>
+      <c r="H58" s="311"/>
+      <c r="I58" s="312"/>
+      <c r="J58" s="313"/>
+      <c r="K58" s="322"/>
+      <c r="L58" s="323"/>
+      <c r="M58" s="324"/>
+      <c r="N58" s="318" t="s">
         <v>132</v>
       </c>
-      <c r="O58" s="308"/>
-      <c r="P58" s="308"/>
-      <c r="Q58" s="308"/>
-      <c r="R58" s="308"/>
-      <c r="S58" s="308"/>
-      <c r="T58" s="309"/>
-      <c r="U58" s="310"/>
-      <c r="V58" s="311"/>
-      <c r="W58" s="312"/>
-      <c r="X58" s="310"/>
-      <c r="Y58" s="311"/>
-      <c r="Z58" s="316"/>
-      <c r="AA58" s="81"/>
+      <c r="O58" s="309"/>
+      <c r="P58" s="309"/>
+      <c r="Q58" s="309"/>
+      <c r="R58" s="309"/>
+      <c r="S58" s="309"/>
+      <c r="T58" s="310"/>
+      <c r="U58" s="311"/>
+      <c r="V58" s="312"/>
+      <c r="W58" s="313"/>
+      <c r="X58" s="311"/>
+      <c r="Y58" s="312"/>
+      <c r="Z58" s="317"/>
+      <c r="AA58" s="82"/>
       <c r="AB58" s="4" t="str">
         <f>PriceList!F56</f>
         <v/>
@@ -6099,41 +6109,41 @@
         <f>PriceList!G56</f>
         <v/>
       </c>
-      <c r="AD58" s="82"/>
-      <c r="AE58" s="83"/>
-    </row>
-    <row r="59" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="307" t="s">
+      <c r="AD58" s="83"/>
+      <c r="AE58" s="84"/>
+    </row>
+    <row r="59" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="308" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="308"/>
-      <c r="C59" s="308"/>
-      <c r="D59" s="308"/>
-      <c r="E59" s="308"/>
-      <c r="F59" s="308"/>
-      <c r="G59" s="309"/>
-      <c r="H59" s="310"/>
-      <c r="I59" s="311"/>
-      <c r="J59" s="312"/>
-      <c r="K59" s="321"/>
-      <c r="L59" s="322"/>
-      <c r="M59" s="323"/>
-      <c r="N59" s="317" t="s">
+      <c r="B59" s="309"/>
+      <c r="C59" s="309"/>
+      <c r="D59" s="309"/>
+      <c r="E59" s="309"/>
+      <c r="F59" s="309"/>
+      <c r="G59" s="310"/>
+      <c r="H59" s="311"/>
+      <c r="I59" s="312"/>
+      <c r="J59" s="313"/>
+      <c r="K59" s="322"/>
+      <c r="L59" s="323"/>
+      <c r="M59" s="324"/>
+      <c r="N59" s="318" t="s">
         <v>134</v>
       </c>
-      <c r="O59" s="308"/>
-      <c r="P59" s="308"/>
-      <c r="Q59" s="308"/>
-      <c r="R59" s="308"/>
-      <c r="S59" s="308"/>
-      <c r="T59" s="309"/>
-      <c r="U59" s="310"/>
-      <c r="V59" s="311"/>
-      <c r="W59" s="312"/>
-      <c r="X59" s="310"/>
-      <c r="Y59" s="311"/>
-      <c r="Z59" s="316"/>
-      <c r="AA59" s="81"/>
+      <c r="O59" s="309"/>
+      <c r="P59" s="309"/>
+      <c r="Q59" s="309"/>
+      <c r="R59" s="309"/>
+      <c r="S59" s="309"/>
+      <c r="T59" s="310"/>
+      <c r="U59" s="311"/>
+      <c r="V59" s="312"/>
+      <c r="W59" s="313"/>
+      <c r="X59" s="311"/>
+      <c r="Y59" s="312"/>
+      <c r="Z59" s="317"/>
+      <c r="AA59" s="82"/>
       <c r="AB59" s="4" t="str">
         <f>PriceList!F57</f>
         <v/>
@@ -6142,41 +6152,41 @@
         <f>PriceList!G57</f>
         <v/>
       </c>
-      <c r="AD59" s="82"/>
-      <c r="AE59" s="83"/>
-    </row>
-    <row r="60" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="336" t="s">
+      <c r="AD59" s="83"/>
+      <c r="AE59" s="84"/>
+    </row>
+    <row r="60" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="337" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="337"/>
-      <c r="C60" s="337"/>
-      <c r="D60" s="337"/>
-      <c r="E60" s="337"/>
-      <c r="F60" s="337"/>
-      <c r="G60" s="338"/>
-      <c r="H60" s="339"/>
-      <c r="I60" s="340"/>
-      <c r="J60" s="341"/>
-      <c r="K60" s="324"/>
-      <c r="L60" s="325"/>
-      <c r="M60" s="326"/>
-      <c r="N60" s="342" t="s">
+      <c r="B60" s="338"/>
+      <c r="C60" s="338"/>
+      <c r="D60" s="338"/>
+      <c r="E60" s="338"/>
+      <c r="F60" s="338"/>
+      <c r="G60" s="339"/>
+      <c r="H60" s="340"/>
+      <c r="I60" s="341"/>
+      <c r="J60" s="342"/>
+      <c r="K60" s="325"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="343" t="s">
         <v>136</v>
       </c>
-      <c r="O60" s="343"/>
-      <c r="P60" s="343"/>
-      <c r="Q60" s="343"/>
-      <c r="R60" s="343"/>
-      <c r="S60" s="343"/>
-      <c r="T60" s="344"/>
-      <c r="U60" s="339"/>
-      <c r="V60" s="340"/>
-      <c r="W60" s="341"/>
-      <c r="X60" s="339"/>
-      <c r="Y60" s="340"/>
-      <c r="Z60" s="345"/>
-      <c r="AA60" s="81"/>
+      <c r="O60" s="344"/>
+      <c r="P60" s="344"/>
+      <c r="Q60" s="344"/>
+      <c r="R60" s="344"/>
+      <c r="S60" s="344"/>
+      <c r="T60" s="345"/>
+      <c r="U60" s="340"/>
+      <c r="V60" s="341"/>
+      <c r="W60" s="342"/>
+      <c r="X60" s="340"/>
+      <c r="Y60" s="341"/>
+      <c r="Z60" s="346"/>
+      <c r="AA60" s="82"/>
       <c r="AB60" s="4" t="str">
         <f>PriceList!F58</f>
         <v/>
@@ -6185,51 +6195,51 @@
         <f>PriceList!G58</f>
         <v/>
       </c>
-      <c r="AD60" s="82"/>
-      <c r="AE60" s="83"/>
-    </row>
-    <row r="61" spans="1:31" s="70" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="327"/>
-      <c r="B61" s="328"/>
-      <c r="C61" s="328"/>
-      <c r="D61" s="328"/>
-      <c r="E61" s="328"/>
-      <c r="F61" s="328"/>
-      <c r="G61" s="328"/>
-      <c r="H61" s="328"/>
-      <c r="I61" s="328"/>
-      <c r="J61" s="328"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="328"/>
-      <c r="M61" s="329"/>
-      <c r="N61" s="330" t="s">
+      <c r="AD60" s="83"/>
+      <c r="AE60" s="84"/>
+    </row>
+    <row r="61" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="328"/>
+      <c r="B61" s="329"/>
+      <c r="C61" s="329"/>
+      <c r="D61" s="329"/>
+      <c r="E61" s="329"/>
+      <c r="F61" s="329"/>
+      <c r="G61" s="329"/>
+      <c r="H61" s="329"/>
+      <c r="I61" s="329"/>
+      <c r="J61" s="329"/>
+      <c r="K61" s="329"/>
+      <c r="L61" s="329"/>
+      <c r="M61" s="330"/>
+      <c r="N61" s="331" t="s">
         <v>137</v>
       </c>
-      <c r="O61" s="331"/>
-      <c r="P61" s="331"/>
-      <c r="Q61" s="331"/>
-      <c r="R61" s="331"/>
-      <c r="S61" s="331"/>
-      <c r="T61" s="332"/>
-      <c r="U61" s="333"/>
-      <c r="V61" s="334"/>
-      <c r="W61" s="334"/>
-      <c r="X61" s="334"/>
-      <c r="Y61" s="334"/>
-      <c r="Z61" s="335"/>
-      <c r="AA61" s="85"/>
+      <c r="O61" s="332"/>
+      <c r="P61" s="332"/>
+      <c r="Q61" s="332"/>
+      <c r="R61" s="332"/>
+      <c r="S61" s="332"/>
+      <c r="T61" s="333"/>
+      <c r="U61" s="334"/>
+      <c r="V61" s="335"/>
+      <c r="W61" s="335"/>
+      <c r="X61" s="335"/>
+      <c r="Y61" s="335"/>
+      <c r="Z61" s="336"/>
+      <c r="AA61" s="86"/>
       <c r="AB61" s="22"/>
       <c r="AC61" s="23"/>
-      <c r="AD61" s="86"/>
-      <c r="AE61" s="87"/>
-    </row>
-    <row r="62" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="AD61" s="87"/>
+      <c r="AE61" s="88"/>
+    </row>
+    <row r="62" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AA62" s="24"/>
-      <c r="AB62" s="73"/>
-      <c r="AC62" s="74"/>
+      <c r="AB62" s="74"/>
+      <c r="AC62" s="75"/>
       <c r="AE62" s="24"/>
     </row>
-    <row r="63" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="25"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -6248,7 +6258,7 @@
       <c r="P63" s="24"/>
       <c r="Q63" s="24"/>
       <c r="R63" s="24"/>
-      <c r="S63" s="77"/>
+      <c r="S63" s="78"/>
       <c r="T63" s="24"/>
       <c r="U63" s="24"/>
       <c r="V63" s="24"/>
@@ -6257,11 +6267,11 @@
       <c r="Y63" s="24"/>
       <c r="Z63" s="24"/>
       <c r="AA63" s="24"/>
-      <c r="AB63" s="73"/>
-      <c r="AC63" s="74"/>
+      <c r="AB63" s="74"/>
+      <c r="AC63" s="75"/>
       <c r="AE63" s="24"/>
     </row>
-    <row r="64" spans="1:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="25"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
@@ -6289,118 +6299,118 @@
       <c r="Y64" s="24"/>
       <c r="Z64" s="24"/>
       <c r="AA64" s="24"/>
-      <c r="AB64" s="73"/>
-      <c r="AC64" s="74"/>
+      <c r="AB64" s="74"/>
+      <c r="AC64" s="75"/>
       <c r="AE64" s="24"/>
     </row>
-    <row r="65" spans="27:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="27:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AA65" s="24"/>
-      <c r="AB65" s="73"/>
-      <c r="AC65" s="74"/>
+      <c r="AB65" s="74"/>
+      <c r="AC65" s="75"/>
       <c r="AE65" s="24"/>
     </row>
-    <row r="66" spans="27:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="27:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AA66" s="24"/>
-      <c r="AB66" s="73"/>
-      <c r="AC66" s="74"/>
+      <c r="AB66" s="74"/>
+      <c r="AC66" s="75"/>
       <c r="AE66" s="24"/>
     </row>
-    <row r="67" spans="27:31" s="70" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="27:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="AA67" s="24"/>
-      <c r="AB67" s="72"/>
-      <c r="AC67" s="72"/>
+      <c r="AB67" s="73"/>
+      <c r="AC67" s="73"/>
       <c r="AD67" s="24"/>
       <c r="AE67" s="24"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="78"/>
-      <c r="B82" s="78"/>
-      <c r="C82" s="78"/>
-      <c r="D82" s="78"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="78"/>
-      <c r="J82" s="78"/>
-      <c r="K82" s="78"/>
-      <c r="L82" s="78"/>
-      <c r="M82" s="78"/>
+      <c r="A82" s="79"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
+      <c r="H82" s="79"/>
+      <c r="I82" s="79"/>
+      <c r="J82" s="79"/>
+      <c r="K82" s="79"/>
+      <c r="L82" s="79"/>
+      <c r="M82" s="79"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="78"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="78"/>
-      <c r="H83" s="78"/>
-      <c r="I83" s="78"/>
-      <c r="J83" s="78"/>
-      <c r="K83" s="78"/>
-      <c r="L83" s="78"/>
-      <c r="M83" s="78"/>
+      <c r="A83" s="79"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
+      <c r="H83" s="79"/>
+      <c r="I83" s="79"/>
+      <c r="J83" s="79"/>
+      <c r="K83" s="79"/>
+      <c r="L83" s="79"/>
+      <c r="M83" s="79"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="78"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="78"/>
-      <c r="H84" s="78"/>
-      <c r="I84" s="78"/>
-      <c r="J84" s="78"/>
-      <c r="K84" s="78"/>
-      <c r="L84" s="78"/>
-      <c r="M84" s="78"/>
+      <c r="A84" s="79"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="79"/>
+      <c r="H84" s="79"/>
+      <c r="I84" s="79"/>
+      <c r="J84" s="79"/>
+      <c r="K84" s="79"/>
+      <c r="L84" s="79"/>
+      <c r="M84" s="79"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="78"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="78"/>
-      <c r="H85" s="78"/>
-      <c r="I85" s="78"/>
-      <c r="J85" s="78"/>
-      <c r="K85" s="78"/>
-      <c r="L85" s="78"/>
-      <c r="M85" s="78"/>
+      <c r="A85" s="79"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="79"/>
+      <c r="D85" s="79"/>
+      <c r="E85" s="79"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="79"/>
+      <c r="H85" s="79"/>
+      <c r="I85" s="79"/>
+      <c r="J85" s="79"/>
+      <c r="K85" s="79"/>
+      <c r="L85" s="79"/>
+      <c r="M85" s="79"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="78"/>
-      <c r="B86" s="78"/>
-      <c r="C86" s="78"/>
-      <c r="D86" s="78"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="78"/>
-      <c r="H86" s="78"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="78"/>
-      <c r="K86" s="78"/>
-      <c r="L86" s="78"/>
-      <c r="M86" s="78"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="79"/>
+      <c r="H86" s="79"/>
+      <c r="I86" s="79"/>
+      <c r="J86" s="79"/>
+      <c r="K86" s="79"/>
+      <c r="L86" s="79"/>
+      <c r="M86" s="79"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="78"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="78"/>
-      <c r="H87" s="78"/>
-      <c r="I87" s="78"/>
-      <c r="J87" s="78"/>
-      <c r="K87" s="78"/>
-      <c r="L87" s="78"/>
-      <c r="M87" s="78"/>
+      <c r="A87" s="79"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="79"/>
+      <c r="H87" s="79"/>
+      <c r="I87" s="79"/>
+      <c r="J87" s="79"/>
+      <c r="K87" s="79"/>
+      <c r="L87" s="79"/>
+      <c r="M87" s="79"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -6716,22 +6726,22 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="39" customWidth="1"/>
-    <col min="2" max="2" width="50" style="40" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="40" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="41" customWidth="1"/>
-    <col min="6" max="6" width="51" style="40" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="40" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="40"/>
+    <col min="1" max="1" width="4.28515625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="50" style="41" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="40" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="42" customWidth="1"/>
+    <col min="6" max="6" width="51" style="41" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="41" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="26" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6783,11 +6793,11 @@
         <f>IF(MAX(A1:$A$78)&lt;ROW(A1:A14),"",VLOOKUP(ROW(A1:A14),A1:$E$78,5))</f>
         <v>1300</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119" t="s">
+      <c r="I3" s="120"/>
+      <c r="J3" s="120" t="s">
         <v>141</v>
       </c>
-      <c r="K3" s="119"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="str">
@@ -6811,21 +6821,21 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="str">
+      <c r="A5" s="47" t="str">
         <f>IF(D5=0,"",MAX($A$2:A4)+1)</f>
         <v/>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="49">
         <v>60</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="49">
         <f>IF(Agreement!M32&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="47">
         <f>C5*D5</f>
         <v>0</v>
       </c>
@@ -6942,22 +6952,22 @@
       </c>
     </row>
     <row r="10" spans="1:11" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="str">
+      <c r="A10" s="47" t="str">
         <f>IF(D10=0,"",MAX($A$2:A9)+1)</f>
         <v/>
       </c>
-      <c r="B10" s="47" t="str">
+      <c r="B10" s="48" t="str">
         <f>IF(ISNUMBER(Agreement!M34)=TRUE,CONCATENATE("Изменение цвета материала на ",Agreement!M34," деталях"),"Изменение цвета материала -Значение д/б ЦИФРОЙ")</f>
         <v>Изменение цвета материала -Значение д/б ЦИФРОЙ</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="49">
         <v>50</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="49">
         <f>IF(Agreement!M34&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="47">
         <f>IF(ISNUMBER(Agreement!M34)=TRUE,C10*Agreement!M34,0)</f>
         <v>0</v>
       </c>
@@ -6971,22 +6981,22 @@
       </c>
     </row>
     <row r="11" spans="1:11" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="str">
+      <c r="A11" s="47" t="str">
         <f>IF(D11=0,"",MAX($A$2:A10)+1)</f>
         <v/>
       </c>
-      <c r="B11" s="47" t="str">
+      <c r="B11" s="48" t="str">
         <f>IF(ISNUMBER(Agreement!M35)=TRUE,CONCATENATE("Изменение цвета окантовки на ",Agreement!M35," деталях"),"Изменение цвета окантовки -Значение д/б ЦИФРОЙ")</f>
         <v>Изменение цвета окантовки -Значение д/б ЦИФРОЙ</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="49">
         <v>50</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="49">
         <f>IF(Agreement!M35&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="47">
         <f>IF(ISNUMBER(Agreement!M35)=TRUE,C11*Agreement!M35,0)</f>
         <v>0</v>
       </c>
@@ -7028,22 +7038,22 @@
       </c>
     </row>
     <row r="13" spans="1:11" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="str">
+      <c r="A13" s="47" t="str">
         <f>IF(D13=0,"",MAX($A$2:A12)+1)</f>
         <v/>
       </c>
-      <c r="B13" s="47" t="str">
+      <c r="B13" s="48" t="str">
         <f>CONCATENATE("Вышивка текст на ",COUNTA(Agreement!H38:H42)," детатях")</f>
         <v>Вышивка текст на 0 детатях</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="49">
         <v>30</v>
       </c>
-      <c r="D13" s="48">
-        <f>IF(COUNTBLANK(Agreement!H38:H42)=5,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="46">
+      <c r="D13" s="49">
+        <f>IF(COUNTBLANK(Agreement!H38:H42)=5,0,COUNTA(Agreement!H38:H42))</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="47">
         <f>C13*D13</f>
         <v>0</v>
       </c>
@@ -7057,22 +7067,22 @@
       </c>
     </row>
     <row r="14" spans="1:11" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="str">
+      <c r="A14" s="47" t="str">
         <f>IF(D14=0,"",MAX($A$2:A13)+1)</f>
         <v/>
       </c>
-      <c r="B14" s="47" t="str">
+      <c r="B14" s="48" t="str">
         <f>CONCATENATE("Вышивка Logo на ",COUNTA(Agreement!K38:K42)," детатях")</f>
         <v>Вышивка Logo на 0 детатях</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="49">
         <v>50</v>
       </c>
-      <c r="D14" s="48">
-        <f>IF(COUNTBLANK(Agreement!K38:K42)=5,0,1)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="46">
+      <c r="D14" s="49">
+        <f>IF(COUNTBLANK(Agreement!K38:K42)=5,0,COUNTA(Agreement!K38:K42))</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="47">
         <f>C14*D14</f>
         <v>0</v>
       </c>
@@ -7114,21 +7124,21 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="str">
+      <c r="A16" s="47" t="str">
         <f>IF(D16=0,"",MAX($A$2:A15)+1)</f>
         <v/>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="49">
         <v>125</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="49">
         <f>IF(AND(Agreement!S18&lt;&gt;0,Agreement!W20&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7142,21 +7152,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="str">
+      <c r="A17" s="47" t="str">
         <f>IF(D17=0,"",MAX($A$2:A16)+1)</f>
         <v/>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="49">
         <v>200</v>
       </c>
-      <c r="D17" s="48">
+      <c r="D17" s="49">
         <f>IF(AND(Agreement!S18&lt;&gt;0,Agreement!Z20&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7170,21 +7180,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="str">
+      <c r="A18" s="47" t="str">
         <f>IF(D18=0,"",MAX($A$2:A17)+1)</f>
         <v/>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="49">
         <v>175</v>
       </c>
-      <c r="D18" s="48">
+      <c r="D18" s="49">
         <f>IF(AND(Agreement!W18&lt;&gt;0,Agreement!S20&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7198,21 +7208,21 @@
       </c>
     </row>
     <row r="19" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="str">
+      <c r="A19" s="47" t="str">
         <f>IF(D19=0,"",MAX($A$2:A18)+1)</f>
         <v/>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="C19" s="48">
+      <c r="C19" s="49">
         <v>225</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="49">
         <f>IF(AND(Agreement!W18&lt;&gt;0,Agreement!W20&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7226,21 +7236,21 @@
       </c>
     </row>
     <row r="20" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="str">
+      <c r="A20" s="50" t="str">
         <f>IF(D20=0,"",MAX($A$2:A19)+1)</f>
         <v/>
       </c>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="68">
         <v>200</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="68">
         <f>IF(AND(Agreement!W18&lt;&gt;0,Agreement!Z20&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E20" s="68">
+      <c r="E20" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7254,21 +7264,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="46" t="str">
+      <c r="A21" s="47" t="str">
         <f>IF(D21=0,"",MAX($A$2:A20)+1)</f>
         <v/>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="49">
         <v>175</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="49">
         <f>IF(AND(Agreement!Z18&lt;&gt;0,Agreement!S20&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7282,21 +7292,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="46" t="str">
+      <c r="A22" s="47" t="str">
         <f>IF(D22=0,"",MAX($A$2:A21)+1)</f>
         <v/>
       </c>
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="49">
         <v>225</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="49">
         <f>IF(AND(Agreement!Z18&lt;&gt;0,Agreement!W20&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7310,21 +7320,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="str">
+      <c r="A23" s="50" t="str">
         <f>IF(D23=0,"",MAX($A$2:A22)+1)</f>
         <v/>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="C23" s="67">
+      <c r="C23" s="68">
         <v>200</v>
       </c>
-      <c r="D23" s="67">
+      <c r="D23" s="68">
         <f>IF(AND(Agreement!Z18&lt;&gt;0,Agreement!Z20&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7473,21 +7483,21 @@
       </c>
     </row>
     <row r="29" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="str">
+      <c r="A29" s="47" t="str">
         <f>IF(D29=0,"",MAX($A$2:A28)+1)</f>
         <v/>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="49">
         <v>50</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="49">
         <f>IF(Agreement!W22&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7525,7 +7535,7 @@
         <f>IF(MAX(A28:$A$78)&lt;ROW(A28:A41),"",VLOOKUP(ROW(A28:A41),A28:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J30" s="43">
+      <c r="J30" s="44">
         <f>IF(AND(Agreement!S23=0,Agreement!S24=0,Agreement!W24=0,Agreement!Z24=0),0,IF(AND(Agreement!S23&lt;&gt;0,Agreement!S24=0,Agreement!W24=0,Agreement!Z24=0),1))</f>
         <v>0</v>
       </c>
@@ -7557,24 +7567,24 @@
         <f>IF(MAX(A29:$A$78)&lt;ROW(A29:A42),"",VLOOKUP(ROW(A29:A42),A29:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J31" s="42"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="46" t="str">
+      <c r="A32" s="47" t="str">
         <f>IF(D32=0,"",MAX($A$2:A31)+1)</f>
         <v/>
       </c>
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="49">
         <v>25</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="49">
         <f>IF(OR(J32=FALSE,J32=0),0,1)</f>
         <v>0</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7586,27 +7596,27 @@
         <f>IF(MAX(A30:$A$78)&lt;ROW(A30:A43),"",VLOOKUP(ROW(A30:A43),A30:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="45">
         <f>IF(AND(Agreement!S23=0,Agreement!S24=0,Agreement!W24=0,Agreement!Z24=0),0,IF(AND(Agreement!S23&lt;&gt;0,Agreement!S24&lt;&gt;0,Agreement!W24=0,Agreement!Z24=0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="str">
+      <c r="A33" s="47" t="str">
         <f>IF(D33=0,"",MAX($A$2:A32)+1)</f>
         <v/>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="48" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="49">
         <v>25</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="49">
         <f t="shared" ref="D33:D36" si="2">IF(OR(J33=FALSE,J33=0),0,1)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7618,27 +7628,27 @@
         <f>IF(MAX(A31:$A$78)&lt;ROW(A31:A44),"",VLOOKUP(ROW(A31:A44),A31:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="45">
         <f>IF(AND(Agreement!S23=0,Agreement!S24=0,Agreement!W24=0,Agreement!Z24=0),0,IF(AND(Agreement!S23&lt;&gt;0,Agreement!S24=0,Agreement!W24&lt;&gt;0,Agreement!Z24=0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="46" t="str">
+      <c r="A34" s="47" t="str">
         <f>IF(D34=0,"",MAX($A$2:A33)+1)</f>
         <v/>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="49">
         <v>25</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7650,27 +7660,27 @@
         <f>IF(MAX(A32:$A$78)&lt;ROW(A32:A45),"",VLOOKUP(ROW(A32:A45),A32:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="45">
         <f>IF(AND(Agreement!S23=0,Agreement!S24=0,Agreement!W24=0,Agreement!Z24=0),0,IF(AND(Agreement!S23&lt;&gt;0,Agreement!S24=0,Agreement!W24=0,Agreement!Z24&lt;&gt;0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="46" t="str">
+      <c r="A35" s="47" t="str">
         <f>IF(D35=0,"",MAX($A$2:A34)+1)</f>
         <v/>
       </c>
-      <c r="B35" s="47" t="s">
+      <c r="B35" s="48" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="49">
         <v>50</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7682,27 +7692,27 @@
         <f>IF(MAX(A33:$A$78)&lt;ROW(A33:A46),"",VLOOKUP(ROW(A33:A46),A33:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="45">
         <f>IF(AND(Agreement!S23=0,Agreement!S24=0,Agreement!W24=0,Agreement!Z24=0),0,IF(AND(Agreement!S23&lt;&gt;0,Agreement!S24&lt;&gt;0,Agreement!W24&lt;&gt;0,Agreement!Z24=0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="str">
+      <c r="A36" s="47" t="str">
         <f>IF(D36=0,"",MAX($A$2:A35)+1)</f>
         <v/>
       </c>
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="49">
         <v>75</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="49">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7714,7 +7724,7 @@
         <f>IF(MAX(A34:$A$78)&lt;ROW(A34:A47),"",VLOOKUP(ROW(A34:A47),A34:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="46">
         <f>IF(AND(Agreement!S23=0,Agreement!S24=0,Agreement!W24=0,Agreement!Z24=0),0,IF(AND(Agreement!S23&lt;&gt;0,Agreement!S24&lt;&gt;0,Agreement!W24&lt;&gt;0,Agreement!Z24&lt;&gt;0),1))</f>
         <v>0</v>
       </c>
@@ -7798,22 +7808,22 @@
       </c>
     </row>
     <row r="40" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="46" t="str">
+      <c r="A40" s="47" t="str">
         <f>IF(D40=0,"",MAX($A$2:A39)+1)</f>
         <v/>
       </c>
-      <c r="B40" s="47" t="str">
+      <c r="B40" s="48" t="str">
         <f>Agreement!N26</f>
         <v>Матерчатые клеванты ($)</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="49">
         <v>25</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="49">
         <f>IF(Agreement!W26&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7907,18 +7917,21 @@
       </c>
     </row>
     <row r="44" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="46" t="str">
+      <c r="A44" s="47" t="str">
         <f>IF(D44=0,"",MAX($A$2:A43)+1)</f>
         <v/>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="49">
         <v>125</v>
       </c>
-      <c r="D44" s="48"/>
-      <c r="E44" s="46">
+      <c r="D44" s="49">
+        <f>IF(Agreement!W29&lt;&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7963,7 +7976,7 @@
         <f>IF(D46=0,"",MAX($A$2:A45)+1)</f>
         <v/>
       </c>
-      <c r="B46" s="120" t="s">
+      <c r="B46" s="121" t="s">
         <v>195</v>
       </c>
       <c r="C46" s="33"/>
@@ -8038,19 +8051,19 @@
       </c>
     </row>
     <row r="49" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="52" t="str">
+      <c r="A49" s="53" t="str">
         <f>IF(D49=0,"",MAX($A$2:A48)+1)</f>
         <v/>
       </c>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54">
+      <c r="C49" s="55"/>
+      <c r="D49" s="55">
         <f>IF(AND(Agreement!S33&lt;&gt;0,Agreement!X33=0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E49" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8064,19 +8077,19 @@
       </c>
     </row>
     <row r="50" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="58" t="str">
+      <c r="A50" s="59" t="str">
         <f>IF(D50=0,"",MAX($A$2:A49)+1)</f>
         <v/>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60">
+      <c r="C50" s="61"/>
+      <c r="D50" s="61">
         <f>IF(AND(Agreement!S33&lt;&gt;0,Agreement!X33&lt;&gt;0),1,0)</f>
         <v>0</v>
       </c>
-      <c r="E50" s="61">
+      <c r="E50" s="62">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8090,22 +8103,22 @@
       </c>
     </row>
     <row r="51" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="62" t="str">
+      <c r="A51" s="63" t="str">
         <f>IF(D51=0,"",MAX($A$2:A50)+1)</f>
         <v/>
       </c>
-      <c r="B51" s="63" t="str">
+      <c r="B51" s="64" t="str">
         <f>CONCATENATE("Цвет подушки опцепки - ",Agreement!X33)</f>
         <v xml:space="preserve">Цвет подушки опцепки - </v>
       </c>
-      <c r="C51" s="64">
+      <c r="C51" s="65">
         <v>25</v>
       </c>
-      <c r="D51" s="64">
+      <c r="D51" s="65">
         <f>IF(D50&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E51" s="65">
+      <c r="E51" s="66">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8119,21 +8132,21 @@
       </c>
     </row>
     <row r="52" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55" t="str">
+      <c r="A52" s="56" t="str">
         <f>IF(D52=0,"",MAX($A$2:A51)+1)</f>
         <v/>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="57">
-        <v>0</v>
-      </c>
-      <c r="D52" s="57">
+      <c r="C52" s="58">
+        <v>0</v>
+      </c>
+      <c r="D52" s="58">
         <f>IF(Agreement!S34&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E52" s="55">
+      <c r="E52" s="56">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8147,22 +8160,22 @@
       </c>
     </row>
     <row r="53" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46" t="str">
+      <c r="A53" s="47" t="str">
         <f>IF(D53=0,"",MAX($A$2:A52)+1)</f>
         <v/>
       </c>
-      <c r="B53" s="47" t="str">
+      <c r="B53" s="48" t="str">
         <f>CONCATENATE("Подушка ЗП, цвет - ",Agreement!X34)</f>
         <v xml:space="preserve">Подушка ЗП, цвет - </v>
       </c>
-      <c r="C53" s="48">
+      <c r="C53" s="49">
         <v>25</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="49">
         <f>IF(Agreement!X34&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8200,27 +8213,27 @@
         <f>IF(MAX(A52:$A$78)&lt;ROW(A52:A65),"",VLOOKUP(ROW(A52:A65),A52:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J54" s="43">
+      <c r="J54" s="44">
         <f>IF(AND(Agreement!S35=0,Agreement!W35=0,Agreement!Z35=0),0,IF(AND(Agreement!S35&lt;&gt;0,Agreement!W35=0,Agreement!Z35=0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="46" t="str">
+      <c r="A55" s="47" t="str">
         <f>IF(D55=0,"",MAX($A$2:A54)+1)</f>
         <v/>
       </c>
-      <c r="B55" s="47" t="s">
+      <c r="B55" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="48">
+      <c r="C55" s="49">
         <v>50</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8232,27 +8245,27 @@
         <f>IF(MAX(A53:$A$78)&lt;ROW(A53:A66),"",VLOOKUP(ROW(A53:A66),A53:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J55" s="44">
+      <c r="J55" s="45">
         <f>IF(AND(Agreement!S35=0,Agreement!W35=0,Agreement!Z35=0),0,IF(AND(Agreement!S35=0,Agreement!W35&lt;&gt;0,Agreement!Z35=0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="46" t="str">
+      <c r="A56" s="47" t="str">
         <f>IF(D56=0,"",MAX($A$2:A55)+1)</f>
         <v/>
       </c>
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="49">
         <v>700</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E56" s="46">
+      <c r="E56" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8264,7 +8277,7 @@
         <f>IF(MAX(A54:$A$78)&lt;ROW(A54:A67),"",VLOOKUP(ROW(A54:A67),A54:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J56" s="44">
+      <c r="J56" s="45">
         <f>IF(AND(Agreement!S35=0,Agreement!W35=0,Agreement!Z35=0),0,IF(AND(Agreement!S35=0,Agreement!W35=0,Agreement!Z35&lt;&gt;0),1))</f>
         <v>0</v>
       </c>
@@ -8294,27 +8307,27 @@
         <f>IF(MAX(A55:$A$78)&lt;ROW(A55:A68),"",VLOOKUP(ROW(A55:A68),A55:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J57" s="44">
+      <c r="J57" s="45">
         <f>IF(AND(Agreement!S36=0,Agreement!W36=0,Agreement!Z36=0),0,IF(AND(Agreement!S36&lt;&gt;0,Agreement!W36=0,Agreement!Z36=0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="46" t="str">
+      <c r="A58" s="47" t="str">
         <f>IF(D58=0,"",MAX($A$2:A57)+1)</f>
         <v/>
       </c>
-      <c r="B58" s="47" t="s">
+      <c r="B58" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="49">
         <v>170</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8326,27 +8339,27 @@
         <f>IF(MAX(A56:$A$78)&lt;ROW(A56:A69),"",VLOOKUP(ROW(A56:A69),A56:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J58" s="44">
+      <c r="J58" s="45">
         <f>IF(AND(Agreement!S36=0,Agreement!W36=0,Agreement!Z36=0),0,IF(AND(Agreement!S36=0,Agreement!W36&lt;&gt;0,Agreement!Z36=0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="46" t="str">
+      <c r="A59" s="47" t="str">
         <f>IF(D59=0,"",MAX($A$2:A58)+1)</f>
         <v/>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="49">
         <v>190</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E59" s="46">
+      <c r="E59" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8358,17 +8371,17 @@
         <f>IF(MAX(A57:$A$78)&lt;ROW(A57:A70),"",VLOOKUP(ROW(A57:A70),A57:$E$78,5))</f>
         <v/>
       </c>
-      <c r="J59" s="45">
+      <c r="J59" s="46">
         <f>IF(AND(Agreement!S36=0,Agreement!W36=0,Agreement!Z36=0),0,IF(AND(Agreement!S36=0,Agreement!W36=0,Agreement!Z36&lt;&gt;0),1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="46" t="str">
+      <c r="A60" s="47" t="str">
         <f>IF(D60=0,"",MAX($A$2:A59)+1)</f>
         <v/>
       </c>
-      <c r="B60" s="47" t="b">
+      <c r="B60" s="48" t="b">
         <f>IF(AND(Agreement!S39&lt;&gt;0,Agreement!S40&lt;&gt;0,Agreement!X39=0,Agreement!X40=0),CONCATENATE(Agreement!N39," - ",Agreement!N40),IF(AND(Agreement!S39&lt;&gt;0,Agreement!S40=0,Agreement!X39=0,Agreement!X40&lt;&gt;0),CONCATENATE(Agreement!N39," ",Agreement!T40," - ",Agreement!X40)))</f>
         <v>0</v>
       </c>
@@ -8376,11 +8389,11 @@
         <f>IF(B60="Медуза ОП ZP 725 - Цвет Std",0,25)</f>
         <v>25</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="49">
         <f>IF(AND(Agreement!S39=0,Agreement!X39=0),0,IF(AND(Agreement!S39&lt;&gt;0,Agreement!X39=0),1,0))</f>
         <v>0</v>
       </c>
-      <c r="E60" s="46">
+      <c r="E60" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8394,11 +8407,11 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="46" t="str">
+      <c r="A61" s="47" t="str">
         <f>IF(D61=0,"",MAX($A$2:A60)+1)</f>
         <v/>
       </c>
-      <c r="B61" s="47" t="b">
+      <c r="B61" s="48" t="b">
         <f>IF(AND(Agreement!S39=0,Agreement!S40&lt;&gt;0,Agreement!X39&lt;&gt;0,Agreement!X40=0),CONCATENATE("Медуза ОП ",Agreement!T39," - ",Agreement!N40),IF(AND(Agreement!S39=0,Agreement!S40=0,Agreement!X39&lt;&gt;0,Agreement!X40&lt;&gt;0),CONCATENATE("Медуза ОП ",Agreement!T39," ",Agreement!T40," - ",Agreement!X40)))</f>
         <v>0</v>
       </c>
@@ -8406,11 +8419,11 @@
         <f>IF(B61="Медуза ОП F-111 825 - Цвет Std",0,25)</f>
         <v>25</v>
       </c>
-      <c r="D61" s="48">
+      <c r="D61" s="49">
         <f>IF(AND(Agreement!S39=0,Agreement!X39=0),0,IF(AND(Agreement!S39=0,Agreement!X39&lt;&gt;0),1,0))</f>
         <v>0</v>
       </c>
-      <c r="E61" s="46">
+      <c r="E61" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8454,7 +8467,7 @@
         <f>IF(D63=0,"",MAX($A$2:A62)+1)</f>
         <v/>
       </c>
-      <c r="B63" s="47">
+      <c r="B63" s="48">
         <f>IF(AND(Agreement!Q38&lt;&gt;0,OR(Agreement!Y38="Red",Agreement!Y38="red")),"Привод медузы ОП мячик, цвет Red (Std)",IF(AND(Agreement!Q38&lt;&gt;0,OR(Agreement!Y38&lt;&gt;"Red")),CONCATENATE("Привод медузы ОП мячик, цвет  - ",Agreement!Y38),))</f>
         <v>0</v>
       </c>
@@ -8462,11 +8475,11 @@
         <f>IF(B63="Привод медузы ОП мячик, цвет Red (Std)",0,0)</f>
         <v>0</v>
       </c>
-      <c r="D63" s="48">
+      <c r="D63" s="49">
         <f>IF(Agreement!Q38&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E63" s="46">
+      <c r="E63" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8510,15 +8523,15 @@
         <f>IF(D65=0,"",MAX($A$2:A64)+1)</f>
         <v/>
       </c>
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51">
+      <c r="C65" s="52"/>
+      <c r="D65" s="52">
         <f>IF(Agreement!T38&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E65" s="49">
+      <c r="E65" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8532,20 +8545,20 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="str">
+      <c r="A66" s="47" t="str">
         <f>IF(D66=0,"",MAX($A$2:A65)+1)</f>
         <v/>
       </c>
-      <c r="B66" s="66" t="str">
+      <c r="B66" s="67" t="str">
         <f>CONCATENATE("Цвет привода - ",Agreement!Y38)</f>
         <v xml:space="preserve">Цвет привода - </v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67">
+      <c r="C66" s="68"/>
+      <c r="D66" s="68">
         <f>IF(Agreement!Y38&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E66" s="68">
+      <c r="E66" s="69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8642,17 +8655,17 @@
         <f>IF(D70=0,"",MAX($A$2:A69)+1)</f>
         <v/>
       </c>
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C70" s="48">
+      <c r="C70" s="49">
         <v>30</v>
       </c>
-      <c r="D70" s="48">
+      <c r="D70" s="49">
         <f>IF(Agreement!X42&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E70" s="46">
+      <c r="E70" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8670,18 +8683,18 @@
         <f>IF(D71=0,"",MAX($A$2:A70)+1)</f>
         <v/>
       </c>
-      <c r="B71" s="47" t="str">
+      <c r="B71" s="48" t="str">
         <f>Agreement!N43</f>
         <v>Защита на карман медузы ОП ($)</v>
       </c>
-      <c r="C71" s="48">
+      <c r="C71" s="49">
         <v>30</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="49">
         <f>IF(Agreement!X43&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="46">
+      <c r="E71" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8699,18 +8712,18 @@
         <f>IF(D72=0,"",MAX($A$2:A71)+1)</f>
         <v/>
       </c>
-      <c r="B72" s="47" t="str">
+      <c r="B72" s="48" t="str">
         <f>Agreement!N45</f>
         <v>Стропорез пластик($)</v>
       </c>
-      <c r="C72" s="48">
+      <c r="C72" s="49">
         <v>25</v>
       </c>
-      <c r="D72" s="48">
+      <c r="D72" s="49">
         <f>IF(Agreement!T45&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E72" s="46">
+      <c r="E72" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8728,18 +8741,18 @@
         <f>IF(D73=0,"",MAX($A$2:A72)+1)</f>
         <v/>
       </c>
-      <c r="B73" s="47" t="str">
+      <c r="B73" s="48" t="str">
         <f>Agreement!U45</f>
         <v>Стропорез Metal($)</v>
       </c>
-      <c r="C73" s="48">
+      <c r="C73" s="49">
         <v>50</v>
       </c>
-      <c r="D73" s="48">
+      <c r="D73" s="49">
         <f>IF(Agreement!Z45&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E73" s="46">
+      <c r="E73" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8757,17 +8770,17 @@
         <f>IF(D74=0,"",MAX($A$2:A73)+1)</f>
         <v/>
       </c>
-      <c r="B74" s="69" t="s">
+      <c r="B74" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="49">
         <v>175</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="49">
         <f>IF(Agreement!Z46&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E74" s="46">
+      <c r="E74" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8785,17 +8798,17 @@
         <f>IF(D75=0,"",MAX($A$2:A74)+1)</f>
         <v/>
       </c>
-      <c r="B75" s="69" t="s">
+      <c r="B75" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C75" s="48">
+      <c r="C75" s="49">
         <v>225</v>
       </c>
-      <c r="D75" s="48">
+      <c r="D75" s="49">
         <f>IF(Agreement!Z47&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E75" s="46">
+      <c r="E75" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8813,17 +8826,17 @@
         <f>IF(D76=0,"",MAX($A$2:A75)+1)</f>
         <v/>
       </c>
-      <c r="B76" s="47" t="s">
+      <c r="B76" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="48">
+      <c r="C76" s="49">
         <v>50</v>
       </c>
-      <c r="D76" s="48">
+      <c r="D76" s="49">
         <f>IF(Agreement!Z48&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
-      <c r="E76" s="46">
+      <c r="E76" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -8841,14 +8854,14 @@
         <f>IF(D77=0,"",MAX($A$2:A76)+1)</f>
         <v/>
       </c>
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="48">
+      <c r="C77" s="49">
         <v>50</v>
       </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="46">
+      <c r="D77" s="49"/>
+      <c r="E77" s="47">
         <f t="shared" ref="E77" si="4">C77*D77</f>
         <v>0</v>
       </c>
@@ -8861,20 +8874,20 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:7" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="34">
+    <row r="78" spans="1:7" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="36">
         <f>IF(D78=0,"",MAX($A$2:A77)+1)</f>
         <v>5</v>
       </c>
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="36">
+      <c r="C78" s="37"/>
+      <c r="D78" s="37">
         <f>SUM(D3:D77)</f>
         <v>4</v>
       </c>
-      <c r="E78" s="37">
+      <c r="E78" s="38">
         <f>SUM(E3:E77)</f>
         <v>1300</v>
       </c>
@@ -8888,7 +8901,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="38" t="str">
+      <c r="A79" s="39" t="str">
         <f>IF(D79=0,"",MAX($A$2:A78)+1)</f>
         <v/>
       </c>
@@ -8903,7 +8916,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="38" t="str">
+      <c r="A80" s="39" t="str">
         <f>IF(D80=0,"",MAX($A$2:A79)+1)</f>
         <v/>
       </c>

--- a/server/orders/OrderConfirmationTmpRu.xlsx
+++ b/server/orders/OrderConfirmationTmpRu.xlsx
@@ -2037,7 +2037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="345">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -2891,38 +2891,6 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3080,6 +3048,30 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3509,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5457,21 +5449,21 @@
       <c r="AE42" s="84"/>
     </row>
     <row r="43" spans="1:31" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="314" t="s">
+      <c r="A43" s="306" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="315"/>
-      <c r="C43" s="315"/>
-      <c r="D43" s="315"/>
-      <c r="E43" s="315"/>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
-      <c r="H43" s="315"/>
-      <c r="I43" s="315"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="315"/>
-      <c r="L43" s="315"/>
-      <c r="M43" s="316"/>
+      <c r="B43" s="307"/>
+      <c r="C43" s="307"/>
+      <c r="D43" s="307"/>
+      <c r="E43" s="307"/>
+      <c r="F43" s="307"/>
+      <c r="G43" s="307"/>
+      <c r="H43" s="307"/>
+      <c r="I43" s="307"/>
+      <c r="J43" s="307"/>
+      <c r="K43" s="307"/>
+      <c r="L43" s="307"/>
+      <c r="M43" s="308"/>
       <c r="N43" s="289" t="s">
         <v>118</v>
       </c>
@@ -5500,19 +5492,19 @@
       <c r="AE43" s="84"/>
     </row>
     <row r="44" spans="1:31" s="71" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="291"/>
-      <c r="B44" s="170"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170"/>
-      <c r="M44" s="292"/>
+      <c r="A44" s="339"/>
+      <c r="B44" s="340"/>
+      <c r="C44" s="340"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="340"/>
+      <c r="F44" s="340"/>
+      <c r="G44" s="340"/>
+      <c r="H44" s="340"/>
+      <c r="I44" s="340"/>
+      <c r="J44" s="340"/>
+      <c r="K44" s="340"/>
+      <c r="L44" s="340"/>
+      <c r="M44" s="341"/>
       <c r="N44" s="274" t="s">
         <v>120</v>
       </c>
@@ -5541,19 +5533,19 @@
       <c r="AE44" s="84"/>
     </row>
     <row r="45" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="293"/>
-      <c r="B45" s="294"/>
-      <c r="C45" s="294"/>
-      <c r="D45" s="294"/>
-      <c r="E45" s="294"/>
-      <c r="F45" s="294"/>
-      <c r="G45" s="294"/>
-      <c r="H45" s="294"/>
-      <c r="I45" s="294"/>
-      <c r="J45" s="294"/>
-      <c r="K45" s="294"/>
-      <c r="L45" s="294"/>
-      <c r="M45" s="295"/>
+      <c r="A45" s="294"/>
+      <c r="B45" s="295"/>
+      <c r="C45" s="295"/>
+      <c r="D45" s="295"/>
+      <c r="E45" s="295"/>
+      <c r="F45" s="295"/>
+      <c r="G45" s="295"/>
+      <c r="H45" s="295"/>
+      <c r="I45" s="295"/>
+      <c r="J45" s="295"/>
+      <c r="K45" s="295"/>
+      <c r="L45" s="295"/>
+      <c r="M45" s="296"/>
       <c r="N45" s="190" t="s">
         <v>124</v>
       </c>
@@ -5584,19 +5576,19 @@
       <c r="AE45" s="84"/>
     </row>
     <row r="46" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="293"/>
-      <c r="B46" s="294"/>
-      <c r="C46" s="294"/>
-      <c r="D46" s="294"/>
-      <c r="E46" s="294"/>
-      <c r="F46" s="294"/>
-      <c r="G46" s="294"/>
-      <c r="H46" s="294"/>
-      <c r="I46" s="294"/>
-      <c r="J46" s="294"/>
-      <c r="K46" s="294"/>
-      <c r="L46" s="294"/>
-      <c r="M46" s="295"/>
+      <c r="A46" s="294"/>
+      <c r="B46" s="295"/>
+      <c r="C46" s="295"/>
+      <c r="D46" s="295"/>
+      <c r="E46" s="295"/>
+      <c r="F46" s="295"/>
+      <c r="G46" s="295"/>
+      <c r="H46" s="295"/>
+      <c r="I46" s="295"/>
+      <c r="J46" s="295"/>
+      <c r="K46" s="295"/>
+      <c r="L46" s="295"/>
+      <c r="M46" s="296"/>
       <c r="N46" s="190" t="s">
         <v>125</v>
       </c>
@@ -5625,19 +5617,19 @@
       <c r="AE46" s="84"/>
     </row>
     <row r="47" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="293"/>
-      <c r="B47" s="294"/>
-      <c r="C47" s="294"/>
-      <c r="D47" s="294"/>
-      <c r="E47" s="294"/>
-      <c r="F47" s="294"/>
-      <c r="G47" s="294"/>
-      <c r="H47" s="294"/>
-      <c r="I47" s="294"/>
-      <c r="J47" s="294"/>
-      <c r="K47" s="294"/>
-      <c r="L47" s="294"/>
-      <c r="M47" s="295"/>
+      <c r="A47" s="294"/>
+      <c r="B47" s="295"/>
+      <c r="C47" s="295"/>
+      <c r="D47" s="295"/>
+      <c r="E47" s="295"/>
+      <c r="F47" s="295"/>
+      <c r="G47" s="295"/>
+      <c r="H47" s="295"/>
+      <c r="I47" s="295"/>
+      <c r="J47" s="295"/>
+      <c r="K47" s="295"/>
+      <c r="L47" s="295"/>
+      <c r="M47" s="296"/>
       <c r="N47" s="190" t="s">
         <v>126</v>
       </c>
@@ -5666,19 +5658,19 @@
       <c r="AE47" s="84"/>
     </row>
     <row r="48" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="296"/>
-      <c r="B48" s="297"/>
-      <c r="C48" s="297"/>
-      <c r="D48" s="297"/>
-      <c r="E48" s="297"/>
-      <c r="F48" s="297"/>
-      <c r="G48" s="297"/>
-      <c r="H48" s="297"/>
-      <c r="I48" s="297"/>
-      <c r="J48" s="297"/>
-      <c r="K48" s="297"/>
-      <c r="L48" s="297"/>
-      <c r="M48" s="298"/>
+      <c r="A48" s="342"/>
+      <c r="B48" s="343"/>
+      <c r="C48" s="343"/>
+      <c r="D48" s="343"/>
+      <c r="E48" s="343"/>
+      <c r="F48" s="343"/>
+      <c r="G48" s="343"/>
+      <c r="H48" s="343"/>
+      <c r="I48" s="343"/>
+      <c r="J48" s="343"/>
+      <c r="K48" s="343"/>
+      <c r="L48" s="343"/>
+      <c r="M48" s="344"/>
       <c r="N48" s="239" t="s">
         <v>127</v>
       </c>
@@ -5707,34 +5699,34 @@
       <c r="AE48" s="84"/>
     </row>
     <row r="49" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="299" t="s">
+      <c r="A49" s="291" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="300"/>
-      <c r="C49" s="300"/>
-      <c r="D49" s="300"/>
-      <c r="E49" s="300"/>
-      <c r="F49" s="300"/>
-      <c r="G49" s="300"/>
-      <c r="H49" s="300"/>
-      <c r="I49" s="300"/>
-      <c r="J49" s="300"/>
-      <c r="K49" s="300"/>
-      <c r="L49" s="300"/>
-      <c r="M49" s="300"/>
-      <c r="N49" s="300"/>
-      <c r="O49" s="300"/>
-      <c r="P49" s="300"/>
-      <c r="Q49" s="300"/>
-      <c r="R49" s="300"/>
-      <c r="S49" s="300"/>
-      <c r="T49" s="300"/>
-      <c r="U49" s="300"/>
-      <c r="V49" s="300"/>
-      <c r="W49" s="300"/>
-      <c r="X49" s="300"/>
-      <c r="Y49" s="300"/>
-      <c r="Z49" s="301"/>
+      <c r="B49" s="292"/>
+      <c r="C49" s="292"/>
+      <c r="D49" s="292"/>
+      <c r="E49" s="292"/>
+      <c r="F49" s="292"/>
+      <c r="G49" s="292"/>
+      <c r="H49" s="292"/>
+      <c r="I49" s="292"/>
+      <c r="J49" s="292"/>
+      <c r="K49" s="292"/>
+      <c r="L49" s="292"/>
+      <c r="M49" s="292"/>
+      <c r="N49" s="292"/>
+      <c r="O49" s="292"/>
+      <c r="P49" s="292"/>
+      <c r="Q49" s="292"/>
+      <c r="R49" s="292"/>
+      <c r="S49" s="292"/>
+      <c r="T49" s="292"/>
+      <c r="U49" s="292"/>
+      <c r="V49" s="292"/>
+      <c r="W49" s="292"/>
+      <c r="X49" s="292"/>
+      <c r="Y49" s="292"/>
+      <c r="Z49" s="293"/>
       <c r="AA49" s="82"/>
       <c r="AB49" s="4" t="str">
         <f>PriceList!F47</f>
@@ -5748,32 +5740,32 @@
       <c r="AE49" s="84"/>
     </row>
     <row r="50" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="302"/>
-      <c r="B50" s="303"/>
-      <c r="C50" s="303"/>
-      <c r="D50" s="303"/>
-      <c r="E50" s="303"/>
-      <c r="F50" s="303"/>
-      <c r="G50" s="303"/>
-      <c r="H50" s="303"/>
-      <c r="I50" s="303"/>
-      <c r="J50" s="303"/>
-      <c r="K50" s="303"/>
-      <c r="L50" s="303"/>
-      <c r="M50" s="303"/>
-      <c r="N50" s="303"/>
-      <c r="O50" s="303"/>
-      <c r="P50" s="303"/>
-      <c r="Q50" s="303"/>
-      <c r="R50" s="303"/>
-      <c r="S50" s="303"/>
-      <c r="T50" s="303"/>
-      <c r="U50" s="303"/>
-      <c r="V50" s="303"/>
-      <c r="W50" s="303"/>
-      <c r="X50" s="303"/>
-      <c r="Y50" s="303"/>
-      <c r="Z50" s="304"/>
+      <c r="A50" s="294"/>
+      <c r="B50" s="295"/>
+      <c r="C50" s="295"/>
+      <c r="D50" s="295"/>
+      <c r="E50" s="295"/>
+      <c r="F50" s="295"/>
+      <c r="G50" s="295"/>
+      <c r="H50" s="295"/>
+      <c r="I50" s="295"/>
+      <c r="J50" s="295"/>
+      <c r="K50" s="295"/>
+      <c r="L50" s="295"/>
+      <c r="M50" s="295"/>
+      <c r="N50" s="295"/>
+      <c r="O50" s="295"/>
+      <c r="P50" s="295"/>
+      <c r="Q50" s="295"/>
+      <c r="R50" s="295"/>
+      <c r="S50" s="295"/>
+      <c r="T50" s="295"/>
+      <c r="U50" s="295"/>
+      <c r="V50" s="295"/>
+      <c r="W50" s="295"/>
+      <c r="X50" s="295"/>
+      <c r="Y50" s="295"/>
+      <c r="Z50" s="296"/>
       <c r="AA50" s="82"/>
       <c r="AB50" s="4" t="str">
         <f>PriceList!F48</f>
@@ -5787,32 +5779,32 @@
       <c r="AE50" s="84"/>
     </row>
     <row r="51" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="302"/>
-      <c r="B51" s="303"/>
-      <c r="C51" s="303"/>
-      <c r="D51" s="303"/>
-      <c r="E51" s="303"/>
-      <c r="F51" s="303"/>
-      <c r="G51" s="303"/>
-      <c r="H51" s="303"/>
-      <c r="I51" s="303"/>
-      <c r="J51" s="303"/>
-      <c r="K51" s="303"/>
-      <c r="L51" s="303"/>
-      <c r="M51" s="303"/>
-      <c r="N51" s="303"/>
-      <c r="O51" s="303"/>
-      <c r="P51" s="303"/>
-      <c r="Q51" s="303"/>
-      <c r="R51" s="303"/>
-      <c r="S51" s="303"/>
-      <c r="T51" s="303"/>
-      <c r="U51" s="303"/>
-      <c r="V51" s="303"/>
-      <c r="W51" s="303"/>
-      <c r="X51" s="303"/>
-      <c r="Y51" s="303"/>
-      <c r="Z51" s="304"/>
+      <c r="A51" s="294"/>
+      <c r="B51" s="295"/>
+      <c r="C51" s="295"/>
+      <c r="D51" s="295"/>
+      <c r="E51" s="295"/>
+      <c r="F51" s="295"/>
+      <c r="G51" s="295"/>
+      <c r="H51" s="295"/>
+      <c r="I51" s="295"/>
+      <c r="J51" s="295"/>
+      <c r="K51" s="295"/>
+      <c r="L51" s="295"/>
+      <c r="M51" s="295"/>
+      <c r="N51" s="295"/>
+      <c r="O51" s="295"/>
+      <c r="P51" s="295"/>
+      <c r="Q51" s="295"/>
+      <c r="R51" s="295"/>
+      <c r="S51" s="295"/>
+      <c r="T51" s="295"/>
+      <c r="U51" s="295"/>
+      <c r="V51" s="295"/>
+      <c r="W51" s="295"/>
+      <c r="X51" s="295"/>
+      <c r="Y51" s="295"/>
+      <c r="Z51" s="296"/>
       <c r="AA51" s="82"/>
       <c r="AB51" s="4" t="str">
         <f>PriceList!F49</f>
@@ -5826,32 +5818,32 @@
       <c r="AE51" s="84"/>
     </row>
     <row r="52" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="302"/>
-      <c r="B52" s="303"/>
-      <c r="C52" s="303"/>
-      <c r="D52" s="303"/>
-      <c r="E52" s="303"/>
-      <c r="F52" s="303"/>
-      <c r="G52" s="303"/>
-      <c r="H52" s="303"/>
-      <c r="I52" s="303"/>
-      <c r="J52" s="303"/>
-      <c r="K52" s="303"/>
-      <c r="L52" s="303"/>
-      <c r="M52" s="303"/>
-      <c r="N52" s="303"/>
-      <c r="O52" s="303"/>
-      <c r="P52" s="303"/>
-      <c r="Q52" s="303"/>
-      <c r="R52" s="303"/>
-      <c r="S52" s="303"/>
-      <c r="T52" s="303"/>
-      <c r="U52" s="303"/>
-      <c r="V52" s="303"/>
-      <c r="W52" s="303"/>
-      <c r="X52" s="303"/>
-      <c r="Y52" s="303"/>
-      <c r="Z52" s="304"/>
+      <c r="A52" s="294"/>
+      <c r="B52" s="295"/>
+      <c r="C52" s="295"/>
+      <c r="D52" s="295"/>
+      <c r="E52" s="295"/>
+      <c r="F52" s="295"/>
+      <c r="G52" s="295"/>
+      <c r="H52" s="295"/>
+      <c r="I52" s="295"/>
+      <c r="J52" s="295"/>
+      <c r="K52" s="295"/>
+      <c r="L52" s="295"/>
+      <c r="M52" s="295"/>
+      <c r="N52" s="295"/>
+      <c r="O52" s="295"/>
+      <c r="P52" s="295"/>
+      <c r="Q52" s="295"/>
+      <c r="R52" s="295"/>
+      <c r="S52" s="295"/>
+      <c r="T52" s="295"/>
+      <c r="U52" s="295"/>
+      <c r="V52" s="295"/>
+      <c r="W52" s="295"/>
+      <c r="X52" s="295"/>
+      <c r="Y52" s="295"/>
+      <c r="Z52" s="296"/>
       <c r="AA52" s="82"/>
       <c r="AB52" s="4" t="str">
         <f>PriceList!F50</f>
@@ -5865,32 +5857,32 @@
       <c r="AE52" s="84"/>
     </row>
     <row r="53" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="302"/>
-      <c r="B53" s="303"/>
-      <c r="C53" s="303"/>
-      <c r="D53" s="303"/>
-      <c r="E53" s="303"/>
-      <c r="F53" s="303"/>
-      <c r="G53" s="303"/>
-      <c r="H53" s="303"/>
-      <c r="I53" s="303"/>
-      <c r="J53" s="303"/>
-      <c r="K53" s="303"/>
-      <c r="L53" s="303"/>
-      <c r="M53" s="303"/>
-      <c r="N53" s="303"/>
-      <c r="O53" s="303"/>
-      <c r="P53" s="303"/>
-      <c r="Q53" s="303"/>
-      <c r="R53" s="303"/>
-      <c r="S53" s="303"/>
-      <c r="T53" s="303"/>
-      <c r="U53" s="303"/>
-      <c r="V53" s="303"/>
-      <c r="W53" s="303"/>
-      <c r="X53" s="303"/>
-      <c r="Y53" s="303"/>
-      <c r="Z53" s="304"/>
+      <c r="A53" s="294"/>
+      <c r="B53" s="295"/>
+      <c r="C53" s="295"/>
+      <c r="D53" s="295"/>
+      <c r="E53" s="295"/>
+      <c r="F53" s="295"/>
+      <c r="G53" s="295"/>
+      <c r="H53" s="295"/>
+      <c r="I53" s="295"/>
+      <c r="J53" s="295"/>
+      <c r="K53" s="295"/>
+      <c r="L53" s="295"/>
+      <c r="M53" s="295"/>
+      <c r="N53" s="295"/>
+      <c r="O53" s="295"/>
+      <c r="P53" s="295"/>
+      <c r="Q53" s="295"/>
+      <c r="R53" s="295"/>
+      <c r="S53" s="295"/>
+      <c r="T53" s="295"/>
+      <c r="U53" s="295"/>
+      <c r="V53" s="295"/>
+      <c r="W53" s="295"/>
+      <c r="X53" s="295"/>
+      <c r="Y53" s="295"/>
+      <c r="Z53" s="296"/>
       <c r="AA53" s="82"/>
       <c r="AB53" s="4" t="str">
         <f>PriceList!F51</f>
@@ -5904,32 +5896,32 @@
       <c r="AE53" s="84"/>
     </row>
     <row r="54" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="302"/>
-      <c r="B54" s="303"/>
-      <c r="C54" s="303"/>
-      <c r="D54" s="303"/>
-      <c r="E54" s="303"/>
-      <c r="F54" s="303"/>
-      <c r="G54" s="303"/>
-      <c r="H54" s="303"/>
-      <c r="I54" s="303"/>
-      <c r="J54" s="303"/>
-      <c r="K54" s="303"/>
-      <c r="L54" s="303"/>
-      <c r="M54" s="303"/>
-      <c r="N54" s="303"/>
-      <c r="O54" s="303"/>
-      <c r="P54" s="303"/>
-      <c r="Q54" s="303"/>
-      <c r="R54" s="303"/>
-      <c r="S54" s="303"/>
-      <c r="T54" s="303"/>
-      <c r="U54" s="303"/>
-      <c r="V54" s="303"/>
-      <c r="W54" s="303"/>
-      <c r="X54" s="303"/>
-      <c r="Y54" s="303"/>
-      <c r="Z54" s="304"/>
+      <c r="A54" s="294"/>
+      <c r="B54" s="295"/>
+      <c r="C54" s="295"/>
+      <c r="D54" s="295"/>
+      <c r="E54" s="295"/>
+      <c r="F54" s="295"/>
+      <c r="G54" s="295"/>
+      <c r="H54" s="295"/>
+      <c r="I54" s="295"/>
+      <c r="J54" s="295"/>
+      <c r="K54" s="295"/>
+      <c r="L54" s="295"/>
+      <c r="M54" s="295"/>
+      <c r="N54" s="295"/>
+      <c r="O54" s="295"/>
+      <c r="P54" s="295"/>
+      <c r="Q54" s="295"/>
+      <c r="R54" s="295"/>
+      <c r="S54" s="295"/>
+      <c r="T54" s="295"/>
+      <c r="U54" s="295"/>
+      <c r="V54" s="295"/>
+      <c r="W54" s="295"/>
+      <c r="X54" s="295"/>
+      <c r="Y54" s="295"/>
+      <c r="Z54" s="296"/>
       <c r="AA54" s="82"/>
       <c r="AB54" s="4" t="str">
         <f>PriceList!F52</f>
@@ -5943,34 +5935,34 @@
       <c r="AE54" s="84"/>
     </row>
     <row r="55" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="305" t="s">
+      <c r="A55" s="297" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="306"/>
-      <c r="C55" s="306"/>
-      <c r="D55" s="306"/>
-      <c r="E55" s="306"/>
-      <c r="F55" s="306"/>
-      <c r="G55" s="306"/>
-      <c r="H55" s="306"/>
-      <c r="I55" s="306"/>
-      <c r="J55" s="306"/>
-      <c r="K55" s="306"/>
-      <c r="L55" s="306"/>
-      <c r="M55" s="306"/>
-      <c r="N55" s="306"/>
-      <c r="O55" s="306"/>
-      <c r="P55" s="306"/>
-      <c r="Q55" s="306"/>
-      <c r="R55" s="306"/>
-      <c r="S55" s="306"/>
-      <c r="T55" s="306"/>
-      <c r="U55" s="306"/>
-      <c r="V55" s="306"/>
-      <c r="W55" s="306"/>
-      <c r="X55" s="306"/>
-      <c r="Y55" s="306"/>
-      <c r="Z55" s="307"/>
+      <c r="B55" s="298"/>
+      <c r="C55" s="298"/>
+      <c r="D55" s="298"/>
+      <c r="E55" s="298"/>
+      <c r="F55" s="298"/>
+      <c r="G55" s="298"/>
+      <c r="H55" s="298"/>
+      <c r="I55" s="298"/>
+      <c r="J55" s="298"/>
+      <c r="K55" s="298"/>
+      <c r="L55" s="298"/>
+      <c r="M55" s="298"/>
+      <c r="N55" s="298"/>
+      <c r="O55" s="298"/>
+      <c r="P55" s="298"/>
+      <c r="Q55" s="298"/>
+      <c r="R55" s="298"/>
+      <c r="S55" s="298"/>
+      <c r="T55" s="298"/>
+      <c r="U55" s="298"/>
+      <c r="V55" s="298"/>
+      <c r="W55" s="298"/>
+      <c r="X55" s="298"/>
+      <c r="Y55" s="298"/>
+      <c r="Z55" s="299"/>
       <c r="AA55" s="82"/>
       <c r="AB55" s="4" t="str">
         <f>PriceList!F53</f>
@@ -5984,36 +5976,36 @@
       <c r="AE55" s="84"/>
     </row>
     <row r="56" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="308" t="s">
+      <c r="A56" s="300" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="309"/>
-      <c r="C56" s="309"/>
-      <c r="D56" s="309"/>
-      <c r="E56" s="309"/>
-      <c r="F56" s="309"/>
-      <c r="G56" s="310"/>
-      <c r="H56" s="311"/>
-      <c r="I56" s="312"/>
-      <c r="J56" s="313"/>
-      <c r="K56" s="319"/>
-      <c r="L56" s="320"/>
-      <c r="M56" s="321"/>
-      <c r="N56" s="318" t="s">
+      <c r="B56" s="301"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
+      <c r="E56" s="301"/>
+      <c r="F56" s="301"/>
+      <c r="G56" s="302"/>
+      <c r="H56" s="303"/>
+      <c r="I56" s="304"/>
+      <c r="J56" s="305"/>
+      <c r="K56" s="311"/>
+      <c r="L56" s="312"/>
+      <c r="M56" s="313"/>
+      <c r="N56" s="310" t="s">
         <v>131</v>
       </c>
-      <c r="O56" s="309"/>
-      <c r="P56" s="309"/>
-      <c r="Q56" s="309"/>
-      <c r="R56" s="309"/>
-      <c r="S56" s="309"/>
-      <c r="T56" s="310"/>
-      <c r="U56" s="311"/>
-      <c r="V56" s="312"/>
-      <c r="W56" s="313"/>
-      <c r="X56" s="311"/>
-      <c r="Y56" s="312"/>
-      <c r="Z56" s="317"/>
+      <c r="O56" s="301"/>
+      <c r="P56" s="301"/>
+      <c r="Q56" s="301"/>
+      <c r="R56" s="301"/>
+      <c r="S56" s="301"/>
+      <c r="T56" s="302"/>
+      <c r="U56" s="303"/>
+      <c r="V56" s="304"/>
+      <c r="W56" s="305"/>
+      <c r="X56" s="303"/>
+      <c r="Y56" s="304"/>
+      <c r="Z56" s="309"/>
       <c r="AA56" s="82"/>
       <c r="AB56" s="4" t="str">
         <f>PriceList!F54</f>
@@ -6027,36 +6019,36 @@
       <c r="AE56" s="84"/>
     </row>
     <row r="57" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="308" t="s">
+      <c r="A57" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="309"/>
-      <c r="C57" s="309"/>
-      <c r="D57" s="309"/>
-      <c r="E57" s="309"/>
-      <c r="F57" s="309"/>
-      <c r="G57" s="310"/>
-      <c r="H57" s="311"/>
-      <c r="I57" s="312"/>
-      <c r="J57" s="313"/>
-      <c r="K57" s="322"/>
-      <c r="L57" s="323"/>
-      <c r="M57" s="324"/>
-      <c r="N57" s="318" t="s">
+      <c r="B57" s="301"/>
+      <c r="C57" s="301"/>
+      <c r="D57" s="301"/>
+      <c r="E57" s="301"/>
+      <c r="F57" s="301"/>
+      <c r="G57" s="302"/>
+      <c r="H57" s="303"/>
+      <c r="I57" s="304"/>
+      <c r="J57" s="305"/>
+      <c r="K57" s="314"/>
+      <c r="L57" s="315"/>
+      <c r="M57" s="316"/>
+      <c r="N57" s="310" t="s">
         <v>203</v>
       </c>
-      <c r="O57" s="309"/>
-      <c r="P57" s="309"/>
-      <c r="Q57" s="309"/>
-      <c r="R57" s="309"/>
-      <c r="S57" s="309"/>
-      <c r="T57" s="310"/>
-      <c r="U57" s="311"/>
-      <c r="V57" s="312"/>
-      <c r="W57" s="313"/>
-      <c r="X57" s="311"/>
-      <c r="Y57" s="312"/>
-      <c r="Z57" s="317"/>
+      <c r="O57" s="301"/>
+      <c r="P57" s="301"/>
+      <c r="Q57" s="301"/>
+      <c r="R57" s="301"/>
+      <c r="S57" s="301"/>
+      <c r="T57" s="302"/>
+      <c r="U57" s="303"/>
+      <c r="V57" s="304"/>
+      <c r="W57" s="305"/>
+      <c r="X57" s="303"/>
+      <c r="Y57" s="304"/>
+      <c r="Z57" s="309"/>
       <c r="AA57" s="82"/>
       <c r="AB57" s="4" t="str">
         <f>PriceList!F55</f>
@@ -6070,36 +6062,36 @@
       <c r="AE57" s="84"/>
     </row>
     <row r="58" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="308" t="s">
+      <c r="A58" s="300" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="309"/>
-      <c r="C58" s="309"/>
-      <c r="D58" s="309"/>
-      <c r="E58" s="309"/>
-      <c r="F58" s="309"/>
-      <c r="G58" s="310"/>
-      <c r="H58" s="311"/>
-      <c r="I58" s="312"/>
-      <c r="J58" s="313"/>
-      <c r="K58" s="322"/>
-      <c r="L58" s="323"/>
-      <c r="M58" s="324"/>
-      <c r="N58" s="318" t="s">
+      <c r="B58" s="301"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
+      <c r="E58" s="301"/>
+      <c r="F58" s="301"/>
+      <c r="G58" s="302"/>
+      <c r="H58" s="303"/>
+      <c r="I58" s="304"/>
+      <c r="J58" s="305"/>
+      <c r="K58" s="314"/>
+      <c r="L58" s="315"/>
+      <c r="M58" s="316"/>
+      <c r="N58" s="310" t="s">
         <v>132</v>
       </c>
-      <c r="O58" s="309"/>
-      <c r="P58" s="309"/>
-      <c r="Q58" s="309"/>
-      <c r="R58" s="309"/>
-      <c r="S58" s="309"/>
-      <c r="T58" s="310"/>
-      <c r="U58" s="311"/>
-      <c r="V58" s="312"/>
-      <c r="W58" s="313"/>
-      <c r="X58" s="311"/>
-      <c r="Y58" s="312"/>
-      <c r="Z58" s="317"/>
+      <c r="O58" s="301"/>
+      <c r="P58" s="301"/>
+      <c r="Q58" s="301"/>
+      <c r="R58" s="301"/>
+      <c r="S58" s="301"/>
+      <c r="T58" s="302"/>
+      <c r="U58" s="303"/>
+      <c r="V58" s="304"/>
+      <c r="W58" s="305"/>
+      <c r="X58" s="303"/>
+      <c r="Y58" s="304"/>
+      <c r="Z58" s="309"/>
       <c r="AA58" s="82"/>
       <c r="AB58" s="4" t="str">
         <f>PriceList!F56</f>
@@ -6113,36 +6105,36 @@
       <c r="AE58" s="84"/>
     </row>
     <row r="59" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="308" t="s">
+      <c r="A59" s="300" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="309"/>
-      <c r="C59" s="309"/>
-      <c r="D59" s="309"/>
-      <c r="E59" s="309"/>
-      <c r="F59" s="309"/>
-      <c r="G59" s="310"/>
-      <c r="H59" s="311"/>
-      <c r="I59" s="312"/>
-      <c r="J59" s="313"/>
-      <c r="K59" s="322"/>
-      <c r="L59" s="323"/>
-      <c r="M59" s="324"/>
-      <c r="N59" s="318" t="s">
+      <c r="B59" s="301"/>
+      <c r="C59" s="301"/>
+      <c r="D59" s="301"/>
+      <c r="E59" s="301"/>
+      <c r="F59" s="301"/>
+      <c r="G59" s="302"/>
+      <c r="H59" s="303"/>
+      <c r="I59" s="304"/>
+      <c r="J59" s="305"/>
+      <c r="K59" s="314"/>
+      <c r="L59" s="315"/>
+      <c r="M59" s="316"/>
+      <c r="N59" s="310" t="s">
         <v>134</v>
       </c>
-      <c r="O59" s="309"/>
-      <c r="P59" s="309"/>
-      <c r="Q59" s="309"/>
-      <c r="R59" s="309"/>
-      <c r="S59" s="309"/>
-      <c r="T59" s="310"/>
-      <c r="U59" s="311"/>
-      <c r="V59" s="312"/>
-      <c r="W59" s="313"/>
-      <c r="X59" s="311"/>
-      <c r="Y59" s="312"/>
-      <c r="Z59" s="317"/>
+      <c r="O59" s="301"/>
+      <c r="P59" s="301"/>
+      <c r="Q59" s="301"/>
+      <c r="R59" s="301"/>
+      <c r="S59" s="301"/>
+      <c r="T59" s="302"/>
+      <c r="U59" s="303"/>
+      <c r="V59" s="304"/>
+      <c r="W59" s="305"/>
+      <c r="X59" s="303"/>
+      <c r="Y59" s="304"/>
+      <c r="Z59" s="309"/>
       <c r="AA59" s="82"/>
       <c r="AB59" s="4" t="str">
         <f>PriceList!F57</f>
@@ -6156,36 +6148,36 @@
       <c r="AE59" s="84"/>
     </row>
     <row r="60" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="337" t="s">
+      <c r="A60" s="329" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="338"/>
-      <c r="C60" s="338"/>
-      <c r="D60" s="338"/>
-      <c r="E60" s="338"/>
-      <c r="F60" s="338"/>
-      <c r="G60" s="339"/>
-      <c r="H60" s="340"/>
-      <c r="I60" s="341"/>
-      <c r="J60" s="342"/>
-      <c r="K60" s="325"/>
-      <c r="L60" s="326"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="343" t="s">
+      <c r="B60" s="330"/>
+      <c r="C60" s="330"/>
+      <c r="D60" s="330"/>
+      <c r="E60" s="330"/>
+      <c r="F60" s="330"/>
+      <c r="G60" s="331"/>
+      <c r="H60" s="332"/>
+      <c r="I60" s="333"/>
+      <c r="J60" s="334"/>
+      <c r="K60" s="317"/>
+      <c r="L60" s="318"/>
+      <c r="M60" s="319"/>
+      <c r="N60" s="335" t="s">
         <v>136</v>
       </c>
-      <c r="O60" s="344"/>
-      <c r="P60" s="344"/>
-      <c r="Q60" s="344"/>
-      <c r="R60" s="344"/>
-      <c r="S60" s="344"/>
-      <c r="T60" s="345"/>
-      <c r="U60" s="340"/>
-      <c r="V60" s="341"/>
-      <c r="W60" s="342"/>
-      <c r="X60" s="340"/>
-      <c r="Y60" s="341"/>
-      <c r="Z60" s="346"/>
+      <c r="O60" s="336"/>
+      <c r="P60" s="336"/>
+      <c r="Q60" s="336"/>
+      <c r="R60" s="336"/>
+      <c r="S60" s="336"/>
+      <c r="T60" s="337"/>
+      <c r="U60" s="332"/>
+      <c r="V60" s="333"/>
+      <c r="W60" s="334"/>
+      <c r="X60" s="332"/>
+      <c r="Y60" s="333"/>
+      <c r="Z60" s="338"/>
       <c r="AA60" s="82"/>
       <c r="AB60" s="4" t="str">
         <f>PriceList!F58</f>
@@ -6199,34 +6191,34 @@
       <c r="AE60" s="84"/>
     </row>
     <row r="61" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="328"/>
-      <c r="B61" s="329"/>
-      <c r="C61" s="329"/>
-      <c r="D61" s="329"/>
-      <c r="E61" s="329"/>
-      <c r="F61" s="329"/>
-      <c r="G61" s="329"/>
-      <c r="H61" s="329"/>
-      <c r="I61" s="329"/>
-      <c r="J61" s="329"/>
-      <c r="K61" s="329"/>
-      <c r="L61" s="329"/>
-      <c r="M61" s="330"/>
-      <c r="N61" s="331" t="s">
+      <c r="A61" s="320"/>
+      <c r="B61" s="321"/>
+      <c r="C61" s="321"/>
+      <c r="D61" s="321"/>
+      <c r="E61" s="321"/>
+      <c r="F61" s="321"/>
+      <c r="G61" s="321"/>
+      <c r="H61" s="321"/>
+      <c r="I61" s="321"/>
+      <c r="J61" s="321"/>
+      <c r="K61" s="321"/>
+      <c r="L61" s="321"/>
+      <c r="M61" s="322"/>
+      <c r="N61" s="323" t="s">
         <v>137</v>
       </c>
-      <c r="O61" s="332"/>
-      <c r="P61" s="332"/>
-      <c r="Q61" s="332"/>
-      <c r="R61" s="332"/>
-      <c r="S61" s="332"/>
-      <c r="T61" s="333"/>
-      <c r="U61" s="334"/>
-      <c r="V61" s="335"/>
-      <c r="W61" s="335"/>
-      <c r="X61" s="335"/>
-      <c r="Y61" s="335"/>
-      <c r="Z61" s="336"/>
+      <c r="O61" s="324"/>
+      <c r="P61" s="324"/>
+      <c r="Q61" s="324"/>
+      <c r="R61" s="324"/>
+      <c r="S61" s="324"/>
+      <c r="T61" s="325"/>
+      <c r="U61" s="326"/>
+      <c r="V61" s="327"/>
+      <c r="W61" s="327"/>
+      <c r="X61" s="327"/>
+      <c r="Y61" s="327"/>
+      <c r="Z61" s="328"/>
       <c r="AA61" s="86"/>
       <c r="AB61" s="22"/>
       <c r="AC61" s="23"/>
@@ -6726,10 +6718,10 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8086,7 +8078,7 @@
       </c>
       <c r="C50" s="61"/>
       <c r="D50" s="61">
-        <f>IF(AND(Agreement!S33&lt;&gt;0,Agreement!X33&lt;&gt;0),1,0)</f>
+        <f>IF(Agreement!X33&lt;&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="E50" s="62">

--- a/server/orders/OrderConfirmationTmpRu.xlsx
+++ b/server/orders/OrderConfirmationTmpRu.xlsx
@@ -2402,296 +2402,396 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2729,350 +2829,250 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3501,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG87"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:K8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3523,20 +3523,20 @@
       <c r="E1" s="90"/>
       <c r="F1" s="90"/>
       <c r="G1" s="90"/>
-      <c r="H1" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="123"/>
-      <c r="P1" s="123"/>
-      <c r="Q1" s="123"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="123"/>
+      <c r="H1" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
       <c r="T1" s="90"/>
       <c r="U1" s="90"/>
       <c r="V1" s="90"/>
@@ -3545,10 +3545,10 @@
       <c r="Y1" s="90"/>
       <c r="Z1" s="91"/>
       <c r="AA1" s="80"/>
-      <c r="AB1" s="124" t="s">
+      <c r="AB1" s="337" t="s">
         <v>1</v>
       </c>
-      <c r="AC1" s="125"/>
+      <c r="AC1" s="338"/>
       <c r="AD1" s="80"/>
       <c r="AE1" s="81"/>
     </row>
@@ -3560,20 +3560,20 @@
       <c r="E2" s="93"/>
       <c r="F2" s="93"/>
       <c r="G2" s="93"/>
-      <c r="H2" s="126" t="s">
+      <c r="H2" s="339" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127"/>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="127"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="298"/>
+      <c r="N2" s="298"/>
+      <c r="O2" s="298"/>
+      <c r="P2" s="298"/>
+      <c r="Q2" s="298"/>
+      <c r="R2" s="298"/>
+      <c r="S2" s="298"/>
       <c r="T2" s="93"/>
       <c r="U2" s="93"/>
       <c r="V2" s="93"/>
@@ -3582,10 +3582,10 @@
       <c r="Y2" s="93"/>
       <c r="Z2" s="94"/>
       <c r="AA2" s="82"/>
-      <c r="AB2" s="128" t="s">
+      <c r="AB2" s="340" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="129"/>
+      <c r="AC2" s="341"/>
       <c r="AD2" s="83"/>
       <c r="AE2" s="84"/>
       <c r="AG2" s="72">
@@ -3601,20 +3601,20 @@
       <c r="E3" s="93"/>
       <c r="F3" s="93"/>
       <c r="G3" s="93"/>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="339" t="s">
         <v>191</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="127"/>
-      <c r="L3" s="127"/>
-      <c r="M3" s="127"/>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-      <c r="S3" s="127"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="298"/>
+      <c r="N3" s="298"/>
+      <c r="O3" s="298"/>
+      <c r="P3" s="298"/>
+      <c r="Q3" s="298"/>
+      <c r="R3" s="298"/>
+      <c r="S3" s="298"/>
       <c r="T3" s="93"/>
       <c r="U3" s="93"/>
       <c r="V3" s="93"/>
@@ -3623,10 +3623,10 @@
       <c r="Y3" s="93"/>
       <c r="Z3" s="94"/>
       <c r="AA3" s="82"/>
-      <c r="AB3" s="128" t="s">
+      <c r="AB3" s="340" t="s">
         <v>191</v>
       </c>
-      <c r="AC3" s="129"/>
+      <c r="AC3" s="341"/>
       <c r="AD3" s="83"/>
       <c r="AE3" s="84"/>
       <c r="AG3" s="72">
@@ -3642,20 +3642,20 @@
       <c r="E4" s="93"/>
       <c r="F4" s="93"/>
       <c r="G4" s="93"/>
-      <c r="H4" s="130" t="s">
+      <c r="H4" s="342" t="s">
         <v>192</v>
       </c>
-      <c r="I4" s="127"/>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
+      <c r="I4" s="298"/>
+      <c r="J4" s="298"/>
+      <c r="K4" s="298"/>
+      <c r="L4" s="298"/>
+      <c r="M4" s="298"/>
+      <c r="N4" s="298"/>
+      <c r="O4" s="298"/>
+      <c r="P4" s="298"/>
+      <c r="Q4" s="298"/>
+      <c r="R4" s="298"/>
+      <c r="S4" s="298"/>
       <c r="T4" s="93"/>
       <c r="U4" s="93"/>
       <c r="V4" s="93"/>
@@ -3664,11 +3664,11 @@
       <c r="Y4" s="93"/>
       <c r="Z4" s="94"/>
       <c r="AA4" s="82"/>
-      <c r="AB4" s="131" t="str">
+      <c r="AB4" s="343" t="str">
         <f>H4</f>
         <v>Мы благодарим Вас за заказ парашютной системы Fire 1</v>
       </c>
-      <c r="AC4" s="129"/>
+      <c r="AC4" s="341"/>
       <c r="AD4" s="83"/>
       <c r="AE4" s="84"/>
     </row>
@@ -3680,20 +3680,20 @@
       <c r="E5" s="93"/>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="344" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
+      <c r="I5" s="298"/>
+      <c r="J5" s="298"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
+      <c r="M5" s="298"/>
+      <c r="N5" s="298"/>
+      <c r="O5" s="298"/>
+      <c r="P5" s="298"/>
+      <c r="Q5" s="298"/>
+      <c r="R5" s="298"/>
+      <c r="S5" s="298"/>
       <c r="T5" s="93"/>
       <c r="U5" s="93"/>
       <c r="V5" s="93"/>
@@ -3702,11 +3702,11 @@
       <c r="Y5" s="93"/>
       <c r="Z5" s="94"/>
       <c r="AA5" s="82"/>
-      <c r="AB5" s="133" t="str">
+      <c r="AB5" s="329" t="str">
         <f>H5</f>
         <v>Пожалуйста, тщательно проверьте введенную информацию:</v>
       </c>
-      <c r="AC5" s="129"/>
+      <c r="AC5" s="341"/>
       <c r="AD5" s="83"/>
       <c r="AE5" s="84"/>
     </row>
@@ -3718,20 +3718,20 @@
       <c r="E6" s="96"/>
       <c r="F6" s="96"/>
       <c r="G6" s="96"/>
-      <c r="H6" s="148" t="s">
+      <c r="H6" s="328" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="149"/>
-      <c r="J6" s="149"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="149"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="149"/>
-      <c r="P6" s="149"/>
-      <c r="Q6" s="149"/>
-      <c r="R6" s="149"/>
-      <c r="S6" s="149"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="241"/>
+      <c r="M6" s="241"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="241"/>
+      <c r="R6" s="241"/>
+      <c r="S6" s="241"/>
       <c r="T6" s="96"/>
       <c r="U6" s="96"/>
       <c r="V6" s="96"/>
@@ -3740,47 +3740,47 @@
       <c r="Y6" s="96"/>
       <c r="Z6" s="97"/>
       <c r="AA6" s="82"/>
-      <c r="AB6" s="133" t="str">
+      <c r="AB6" s="329" t="str">
         <f>H6</f>
         <v>она будет использована при производстве.</v>
       </c>
-      <c r="AC6" s="150"/>
+      <c r="AC6" s="330"/>
       <c r="AD6" s="85"/>
       <c r="AE6" s="84"/>
     </row>
     <row r="7" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="151" t="s">
+      <c r="A7" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
-      <c r="L7" s="152"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="154" t="s">
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="244"/>
+      <c r="M7" s="244"/>
+      <c r="N7" s="244"/>
+      <c r="O7" s="244"/>
+      <c r="P7" s="244"/>
+      <c r="Q7" s="244"/>
+      <c r="R7" s="331"/>
+      <c r="S7" s="316" t="s">
         <v>7</v>
       </c>
-      <c r="T7" s="155"/>
-      <c r="U7" s="155"/>
-      <c r="V7" s="155"/>
-      <c r="W7" s="155"/>
-      <c r="X7" s="155"/>
-      <c r="Y7" s="156" t="s">
+      <c r="T7" s="243"/>
+      <c r="U7" s="243"/>
+      <c r="V7" s="243"/>
+      <c r="W7" s="243"/>
+      <c r="X7" s="243"/>
+      <c r="Y7" s="332" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="157"/>
+      <c r="Z7" s="333"/>
       <c r="AA7" s="82"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
@@ -3788,40 +3788,40 @@
       <c r="AE7" s="84"/>
     </row>
     <row r="8" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="145" t="s">
+      <c r="A8" s="322" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="142"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="134" t="s">
+      <c r="B8" s="248"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="323"/>
+      <c r="G8" s="323"/>
+      <c r="H8" s="323"/>
+      <c r="I8" s="323"/>
+      <c r="J8" s="323"/>
+      <c r="K8" s="324"/>
+      <c r="L8" s="247" t="s">
         <v>10</v>
       </c>
-      <c r="M8" s="142"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="144"/>
-      <c r="S8" s="134" t="s">
+      <c r="M8" s="248"/>
+      <c r="N8" s="176"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="325"/>
+      <c r="Q8" s="325"/>
+      <c r="R8" s="334"/>
+      <c r="S8" s="247" t="s">
         <v>11</v>
       </c>
-      <c r="T8" s="135"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="137"/>
-      <c r="W8" s="134" t="s">
+      <c r="T8" s="176"/>
+      <c r="U8" s="302"/>
+      <c r="V8" s="303"/>
+      <c r="W8" s="247" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="135"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="138"/>
+      <c r="X8" s="176"/>
+      <c r="Y8" s="302"/>
+      <c r="Z8" s="321"/>
       <c r="AA8" s="82"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -3829,40 +3829,40 @@
       <c r="AE8" s="84"/>
     </row>
     <row r="9" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="145" t="s">
+      <c r="A9" s="322" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="142"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="158" t="s">
+      <c r="B9" s="248"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="323"/>
+      <c r="F9" s="323"/>
+      <c r="G9" s="323"/>
+      <c r="H9" s="323"/>
+      <c r="I9" s="323"/>
+      <c r="J9" s="323"/>
+      <c r="K9" s="324"/>
+      <c r="L9" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="142"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="134" t="s">
+      <c r="M9" s="248"/>
+      <c r="N9" s="176"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="325"/>
+      <c r="Q9" s="325"/>
+      <c r="R9" s="334"/>
+      <c r="S9" s="247" t="s">
         <v>15</v>
       </c>
-      <c r="T9" s="135"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="137"/>
-      <c r="W9" s="134" t="s">
+      <c r="T9" s="176"/>
+      <c r="U9" s="302"/>
+      <c r="V9" s="303"/>
+      <c r="W9" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="138"/>
+      <c r="X9" s="176"/>
+      <c r="Y9" s="302"/>
+      <c r="Z9" s="321"/>
       <c r="AA9" s="82"/>
       <c r="AB9" s="3" t="s">
         <v>17</v>
@@ -3874,40 +3874,40 @@
       <c r="AE9" s="84"/>
     </row>
     <row r="10" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="322" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="142"/>
-      <c r="C10" s="135"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="134" t="s">
+      <c r="B10" s="248"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="323"/>
+      <c r="F10" s="323"/>
+      <c r="G10" s="323"/>
+      <c r="H10" s="323"/>
+      <c r="I10" s="323"/>
+      <c r="J10" s="323"/>
+      <c r="K10" s="324"/>
+      <c r="L10" s="247" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="142"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="144"/>
-      <c r="S10" s="134" t="s">
+      <c r="M10" s="248"/>
+      <c r="N10" s="176"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="325"/>
+      <c r="Q10" s="325"/>
+      <c r="R10" s="334"/>
+      <c r="S10" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="135"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="134" t="s">
+      <c r="T10" s="176"/>
+      <c r="U10" s="302"/>
+      <c r="V10" s="303"/>
+      <c r="W10" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="136"/>
-      <c r="Z10" s="138"/>
+      <c r="X10" s="176"/>
+      <c r="Y10" s="302"/>
+      <c r="Z10" s="321"/>
       <c r="AA10" s="82"/>
       <c r="AB10" s="4" t="str">
         <f>PriceList!F3</f>
@@ -3915,46 +3915,46 @@
       </c>
       <c r="AC10" s="5">
         <f>PriceList!G3</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="AD10" s="83"/>
       <c r="AE10" s="84"/>
     </row>
     <row r="11" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="145" t="s">
+      <c r="A11" s="322" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="142"/>
-      <c r="C11" s="135"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="134" t="s">
+      <c r="B11" s="248"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="323"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="323"/>
+      <c r="I11" s="323"/>
+      <c r="J11" s="323"/>
+      <c r="K11" s="324"/>
+      <c r="L11" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="142"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="134" t="s">
+      <c r="M11" s="248"/>
+      <c r="N11" s="176"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="325"/>
+      <c r="Q11" s="326"/>
+      <c r="R11" s="327"/>
+      <c r="S11" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="T11" s="135"/>
-      <c r="U11" s="136"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="158" t="s">
+      <c r="T11" s="176"/>
+      <c r="U11" s="302"/>
+      <c r="V11" s="303"/>
+      <c r="W11" s="277" t="s">
         <v>26</v>
       </c>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="138"/>
+      <c r="X11" s="176"/>
+      <c r="Y11" s="302"/>
+      <c r="Z11" s="321"/>
       <c r="AA11" s="82"/>
       <c r="AB11" s="4" t="str">
         <f>PriceList!F4</f>
@@ -3968,40 +3968,40 @@
       <c r="AE11" s="84"/>
     </row>
     <row r="12" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="180" t="s">
+      <c r="A12" s="320" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="164"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="166" t="s">
+      <c r="B12" s="265"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="306"/>
+      <c r="E12" s="307"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="307"/>
+      <c r="H12" s="307"/>
+      <c r="I12" s="307"/>
+      <c r="J12" s="307"/>
+      <c r="K12" s="308"/>
+      <c r="L12" s="294" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="167"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="171"/>
-      <c r="S12" s="172" t="s">
+      <c r="M12" s="265"/>
+      <c r="N12" s="290"/>
+      <c r="O12" s="309"/>
+      <c r="P12" s="310"/>
+      <c r="Q12" s="309"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="312" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="168"/>
-      <c r="U12" s="173"/>
-      <c r="V12" s="174"/>
-      <c r="W12" s="166" t="s">
+      <c r="T12" s="290"/>
+      <c r="U12" s="313"/>
+      <c r="V12" s="314"/>
+      <c r="W12" s="294" t="s">
         <v>30</v>
       </c>
-      <c r="X12" s="168"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="175"/>
+      <c r="X12" s="290"/>
+      <c r="Y12" s="313"/>
+      <c r="Z12" s="315"/>
       <c r="AA12" s="82"/>
       <c r="AB12" s="4" t="str">
         <f>PriceList!F5</f>
@@ -4015,42 +4015,42 @@
       <c r="AE12" s="84"/>
     </row>
     <row r="13" spans="1:33" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="151" t="s">
+      <c r="A13" s="282" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="155"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="154" t="s">
+      <c r="B13" s="243"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="283"/>
+      <c r="F13" s="316" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="176"/>
-      <c r="H13" s="154" t="s">
+      <c r="G13" s="283"/>
+      <c r="H13" s="316" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="155"/>
-      <c r="J13" s="176"/>
-      <c r="K13" s="154" t="s">
+      <c r="I13" s="243"/>
+      <c r="J13" s="283"/>
+      <c r="K13" s="316" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="155"/>
-      <c r="M13" s="155"/>
-      <c r="N13" s="177" t="s">
+      <c r="L13" s="243"/>
+      <c r="M13" s="243"/>
+      <c r="N13" s="317" t="s">
         <v>35</v>
       </c>
-      <c r="O13" s="178"/>
-      <c r="P13" s="178"/>
-      <c r="Q13" s="178"/>
-      <c r="R13" s="178"/>
-      <c r="S13" s="178"/>
-      <c r="T13" s="178"/>
-      <c r="U13" s="178"/>
-      <c r="V13" s="178"/>
-      <c r="W13" s="178"/>
-      <c r="X13" s="178"/>
-      <c r="Y13" s="178"/>
-      <c r="Z13" s="179"/>
+      <c r="O13" s="318"/>
+      <c r="P13" s="318"/>
+      <c r="Q13" s="318"/>
+      <c r="R13" s="318"/>
+      <c r="S13" s="318"/>
+      <c r="T13" s="318"/>
+      <c r="U13" s="318"/>
+      <c r="V13" s="318"/>
+      <c r="W13" s="318"/>
+      <c r="X13" s="318"/>
+      <c r="Y13" s="318"/>
+      <c r="Z13" s="319"/>
       <c r="AA13" s="82"/>
       <c r="AB13" s="4" t="str">
         <f>PriceList!F6</f>
@@ -4067,39 +4067,39 @@
       <c r="A14" s="98">
         <v>1</v>
       </c>
-      <c r="B14" s="134" t="s">
+      <c r="B14" s="247" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="182"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="135"/>
-      <c r="K14" s="182"/>
-      <c r="L14" s="142"/>
-      <c r="M14" s="142"/>
-      <c r="N14" s="186" t="s">
+      <c r="C14" s="248"/>
+      <c r="D14" s="248"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="250"/>
+      <c r="I14" s="248"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="250"/>
+      <c r="L14" s="248"/>
+      <c r="M14" s="248"/>
+      <c r="N14" s="300" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="161"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="160" t="s">
+      <c r="O14" s="213"/>
+      <c r="P14" s="295"/>
+      <c r="Q14" s="295"/>
+      <c r="R14" s="304" t="s">
         <v>37</v>
       </c>
-      <c r="S14" s="161"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="159"/>
-      <c r="V14" s="160" t="s">
+      <c r="S14" s="213"/>
+      <c r="T14" s="295"/>
+      <c r="U14" s="295"/>
+      <c r="V14" s="304" t="s">
         <v>16</v>
       </c>
-      <c r="W14" s="161"/>
-      <c r="X14" s="161"/>
-      <c r="Y14" s="159"/>
-      <c r="Z14" s="162"/>
+      <c r="W14" s="213"/>
+      <c r="X14" s="213"/>
+      <c r="Y14" s="295"/>
+      <c r="Z14" s="296"/>
       <c r="AA14" s="82"/>
       <c r="AB14" s="4" t="str">
         <f>PriceList!F7</f>
@@ -4107,48 +4107,48 @@
       </c>
       <c r="AC14" s="5">
         <f>PriceList!G7</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="AD14" s="83"/>
       <c r="AE14" s="84"/>
     </row>
     <row r="15" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="183">
+      <c r="A15" s="268">
         <v>2</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="247" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="182"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="135"/>
-      <c r="K15" s="182"/>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="186" t="s">
+      <c r="C15" s="248"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="249"/>
+      <c r="H15" s="250"/>
+      <c r="I15" s="248"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="250"/>
+      <c r="L15" s="248"/>
+      <c r="M15" s="248"/>
+      <c r="N15" s="300" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="161"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="187" t="s">
+      <c r="O15" s="213"/>
+      <c r="P15" s="295"/>
+      <c r="Q15" s="295"/>
+      <c r="R15" s="305" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="161"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="159"/>
-      <c r="V15" s="187" t="s">
+      <c r="S15" s="213"/>
+      <c r="T15" s="295"/>
+      <c r="U15" s="295"/>
+      <c r="V15" s="305" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="161"/>
-      <c r="X15" s="161"/>
-      <c r="Y15" s="159"/>
-      <c r="Z15" s="162"/>
+      <c r="W15" s="213"/>
+      <c r="X15" s="213"/>
+      <c r="Y15" s="295"/>
+      <c r="Z15" s="296"/>
       <c r="AA15" s="82"/>
       <c r="AB15" s="4" t="str">
         <f>PriceList!F8</f>
@@ -4162,36 +4162,36 @@
       <c r="AE15" s="84"/>
     </row>
     <row r="16" spans="1:33" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
-      <c r="B16" s="134" t="s">
+      <c r="A16" s="269"/>
+      <c r="B16" s="247" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="142"/>
-      <c r="J16" s="135"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="196" t="s">
+      <c r="C16" s="248"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="250"/>
+      <c r="I16" s="248"/>
+      <c r="J16" s="176"/>
+      <c r="K16" s="250"/>
+      <c r="L16" s="248"/>
+      <c r="M16" s="248"/>
+      <c r="N16" s="301" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="127"/>
-      <c r="P16" s="127"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
-      <c r="S16" s="127"/>
-      <c r="T16" s="191"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="127"/>
-      <c r="W16" s="127"/>
-      <c r="X16" s="127"/>
-      <c r="Y16" s="127"/>
-      <c r="Z16" s="192"/>
+      <c r="O16" s="298"/>
+      <c r="P16" s="298"/>
+      <c r="Q16" s="298"/>
+      <c r="R16" s="298"/>
+      <c r="S16" s="298"/>
+      <c r="T16" s="297"/>
+      <c r="U16" s="297"/>
+      <c r="V16" s="298"/>
+      <c r="W16" s="298"/>
+      <c r="X16" s="298"/>
+      <c r="Y16" s="298"/>
+      <c r="Z16" s="299"/>
       <c r="AA16" s="82"/>
       <c r="AB16" s="4" t="str">
         <f>PriceList!F9</f>
@@ -4205,36 +4205,36 @@
       <c r="AE16" s="84"/>
     </row>
     <row r="17" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="185"/>
-      <c r="B17" s="134" t="s">
+      <c r="A17" s="270"/>
+      <c r="B17" s="247" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="182"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="182"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="142"/>
-      <c r="N17" s="193" t="s">
+      <c r="C17" s="248"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="249"/>
+      <c r="H17" s="250"/>
+      <c r="I17" s="248"/>
+      <c r="J17" s="176"/>
+      <c r="K17" s="250"/>
+      <c r="L17" s="248"/>
+      <c r="M17" s="248"/>
+      <c r="N17" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="O17" s="194"/>
-      <c r="P17" s="194"/>
-      <c r="Q17" s="194"/>
-      <c r="R17" s="194"/>
-      <c r="S17" s="194"/>
-      <c r="T17" s="194"/>
-      <c r="U17" s="194"/>
-      <c r="V17" s="194"/>
-      <c r="W17" s="194"/>
-      <c r="X17" s="194"/>
-      <c r="Y17" s="194"/>
-      <c r="Z17" s="195"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="217"/>
+      <c r="Q17" s="217"/>
+      <c r="R17" s="217"/>
+      <c r="S17" s="217"/>
+      <c r="T17" s="217"/>
+      <c r="U17" s="217"/>
+      <c r="V17" s="217"/>
+      <c r="W17" s="217"/>
+      <c r="X17" s="217"/>
+      <c r="Y17" s="217"/>
+      <c r="Z17" s="218"/>
       <c r="AA17" s="82"/>
       <c r="AB17" s="4" t="str">
         <f>PriceList!F10</f>
@@ -4251,38 +4251,38 @@
       <c r="A18" s="98">
         <v>3</v>
       </c>
-      <c r="B18" s="134" t="s">
+      <c r="B18" s="247" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="182"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="188" t="s">
+      <c r="C18" s="248"/>
+      <c r="D18" s="248"/>
+      <c r="E18" s="176"/>
+      <c r="F18" s="178"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="250"/>
+      <c r="I18" s="248"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="250"/>
+      <c r="L18" s="248"/>
+      <c r="M18" s="248"/>
+      <c r="N18" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="189"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="189"/>
+      <c r="O18" s="231"/>
+      <c r="P18" s="231"/>
+      <c r="Q18" s="231"/>
+      <c r="R18" s="231"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="190" t="s">
+      <c r="T18" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="U18" s="189"/>
-      <c r="V18" s="189"/>
+      <c r="U18" s="231"/>
+      <c r="V18" s="231"/>
       <c r="W18" s="9"/>
-      <c r="X18" s="190" t="s">
+      <c r="X18" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="Y18" s="189"/>
+      <c r="Y18" s="231"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="82"/>
       <c r="AB18" s="4" t="str">
@@ -4300,37 +4300,37 @@
       <c r="A19" s="99">
         <v>4</v>
       </c>
-      <c r="B19" s="166" t="s">
+      <c r="B19" s="294" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="167"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="182"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="135"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="142"/>
-      <c r="M19" s="142"/>
-      <c r="N19" s="188" t="s">
+      <c r="C19" s="265"/>
+      <c r="D19" s="265"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="249"/>
+      <c r="H19" s="250"/>
+      <c r="I19" s="248"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="250"/>
+      <c r="L19" s="248"/>
+      <c r="M19" s="248"/>
+      <c r="N19" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="O19" s="189"/>
-      <c r="P19" s="189"/>
-      <c r="Q19" s="189"/>
-      <c r="R19" s="189"/>
+      <c r="O19" s="231"/>
+      <c r="P19" s="231"/>
+      <c r="Q19" s="231"/>
+      <c r="R19" s="231"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="190" t="s">
+      <c r="T19" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="U19" s="189"/>
-      <c r="V19" s="189"/>
+      <c r="U19" s="231"/>
+      <c r="V19" s="231"/>
       <c r="W19" s="6"/>
-      <c r="X19" s="197"/>
-      <c r="Y19" s="197"/>
-      <c r="Z19" s="198"/>
+      <c r="X19" s="196"/>
+      <c r="Y19" s="196"/>
+      <c r="Z19" s="288"/>
       <c r="AA19" s="82"/>
       <c r="AB19" s="4" t="str">
         <f>PriceList!F12</f>
@@ -4347,38 +4347,38 @@
       <c r="A20" s="98">
         <v>5</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="201"/>
-      <c r="E20" s="201"/>
-      <c r="F20" s="202"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="135"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="142"/>
-      <c r="N20" s="188" t="s">
+      <c r="C20" s="272"/>
+      <c r="D20" s="272"/>
+      <c r="E20" s="272"/>
+      <c r="F20" s="273"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="250"/>
+      <c r="I20" s="248"/>
+      <c r="J20" s="176"/>
+      <c r="K20" s="250"/>
+      <c r="L20" s="248"/>
+      <c r="M20" s="248"/>
+      <c r="N20" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="O20" s="189"/>
-      <c r="P20" s="189"/>
-      <c r="Q20" s="189"/>
-      <c r="R20" s="189"/>
+      <c r="O20" s="231"/>
+      <c r="P20" s="231"/>
+      <c r="Q20" s="231"/>
+      <c r="R20" s="231"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="190" t="s">
+      <c r="T20" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="U20" s="189"/>
-      <c r="V20" s="189"/>
+      <c r="U20" s="231"/>
+      <c r="V20" s="231"/>
       <c r="W20" s="9"/>
-      <c r="X20" s="190" t="s">
+      <c r="X20" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="Y20" s="189"/>
+      <c r="Y20" s="231"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="82"/>
       <c r="AB20" s="4" t="str">
@@ -4393,40 +4393,40 @@
       <c r="AE20" s="84"/>
     </row>
     <row r="21" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="183">
+      <c r="A21" s="268">
         <v>6</v>
       </c>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="291" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="204"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="181"/>
-      <c r="H21" s="182"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="135"/>
-      <c r="K21" s="182"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="142"/>
-      <c r="N21" s="188" t="s">
+      <c r="C21" s="292"/>
+      <c r="D21" s="292"/>
+      <c r="E21" s="292"/>
+      <c r="F21" s="273"/>
+      <c r="G21" s="249"/>
+      <c r="H21" s="250"/>
+      <c r="I21" s="248"/>
+      <c r="J21" s="176"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="248"/>
+      <c r="M21" s="248"/>
+      <c r="N21" s="215" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="189"/>
-      <c r="P21" s="189"/>
-      <c r="Q21" s="189"/>
-      <c r="R21" s="189"/>
+      <c r="O21" s="231"/>
+      <c r="P21" s="231"/>
+      <c r="Q21" s="231"/>
+      <c r="R21" s="231"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="190" t="s">
+      <c r="T21" s="161" t="s">
         <v>58</v>
       </c>
-      <c r="U21" s="189"/>
-      <c r="V21" s="189"/>
+      <c r="U21" s="231"/>
+      <c r="V21" s="231"/>
       <c r="W21" s="6"/>
-      <c r="X21" s="197"/>
-      <c r="Y21" s="197"/>
-      <c r="Z21" s="198"/>
+      <c r="X21" s="196"/>
+      <c r="Y21" s="196"/>
+      <c r="Z21" s="288"/>
       <c r="AA21" s="82"/>
       <c r="AB21" s="4" t="str">
         <f>PriceList!F14</f>
@@ -4440,38 +4440,38 @@
       <c r="AE21" s="84"/>
     </row>
     <row r="22" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="184"/>
-      <c r="B22" s="203" t="s">
+      <c r="A22" s="269"/>
+      <c r="B22" s="291" t="s">
         <v>198</v>
       </c>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="142"/>
-      <c r="N22" s="188" t="s">
+      <c r="C22" s="292"/>
+      <c r="D22" s="292"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="273"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="250"/>
+      <c r="I22" s="248"/>
+      <c r="J22" s="176"/>
+      <c r="K22" s="250"/>
+      <c r="L22" s="248"/>
+      <c r="M22" s="248"/>
+      <c r="N22" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="O22" s="189"/>
-      <c r="P22" s="189"/>
-      <c r="Q22" s="189"/>
-      <c r="R22" s="189"/>
+      <c r="O22" s="231"/>
+      <c r="P22" s="231"/>
+      <c r="Q22" s="231"/>
+      <c r="R22" s="231"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="190" t="s">
+      <c r="T22" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="189"/>
-      <c r="V22" s="189"/>
+      <c r="U22" s="231"/>
+      <c r="V22" s="231"/>
       <c r="W22" s="9"/>
-      <c r="X22" s="197"/>
-      <c r="Y22" s="197"/>
-      <c r="Z22" s="198"/>
+      <c r="X22" s="196"/>
+      <c r="Y22" s="196"/>
+      <c r="Z22" s="288"/>
       <c r="AA22" s="82"/>
       <c r="AB22" s="4" t="str">
         <f>PriceList!F15</f>
@@ -4485,38 +4485,38 @@
       <c r="AE22" s="84"/>
     </row>
     <row r="23" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="185"/>
-      <c r="B23" s="206" t="s">
+      <c r="A23" s="270"/>
+      <c r="B23" s="285" t="s">
         <v>199</v>
       </c>
-      <c r="C23" s="207"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="181"/>
-      <c r="H23" s="182"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="182"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="142"/>
-      <c r="N23" s="188" t="s">
+      <c r="C23" s="286"/>
+      <c r="D23" s="286"/>
+      <c r="E23" s="287"/>
+      <c r="F23" s="178"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="250"/>
+      <c r="I23" s="248"/>
+      <c r="J23" s="176"/>
+      <c r="K23" s="250"/>
+      <c r="L23" s="248"/>
+      <c r="M23" s="248"/>
+      <c r="N23" s="215" t="s">
         <v>61</v>
       </c>
-      <c r="O23" s="189"/>
-      <c r="P23" s="189"/>
-      <c r="Q23" s="189"/>
-      <c r="R23" s="189"/>
+      <c r="O23" s="231"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="231"/>
+      <c r="R23" s="231"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="190" t="s">
+      <c r="T23" s="161" t="s">
         <v>62</v>
       </c>
-      <c r="U23" s="189"/>
-      <c r="V23" s="189"/>
+      <c r="U23" s="231"/>
+      <c r="V23" s="231"/>
       <c r="W23" s="6"/>
-      <c r="X23" s="197"/>
-      <c r="Y23" s="197"/>
-      <c r="Z23" s="198"/>
+      <c r="X23" s="196"/>
+      <c r="Y23" s="196"/>
+      <c r="Z23" s="288"/>
       <c r="AA23" s="82"/>
       <c r="AB23" s="4" t="str">
         <f>PriceList!F16</f>
@@ -4533,38 +4533,38 @@
       <c r="A24" s="98">
         <v>7</v>
       </c>
-      <c r="B24" s="134" t="s">
+      <c r="B24" s="247" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="181"/>
-      <c r="H24" s="182"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="182"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="142"/>
-      <c r="N24" s="188" t="s">
+      <c r="C24" s="248"/>
+      <c r="D24" s="248"/>
+      <c r="E24" s="176"/>
+      <c r="F24" s="178"/>
+      <c r="G24" s="249"/>
+      <c r="H24" s="250"/>
+      <c r="I24" s="248"/>
+      <c r="J24" s="176"/>
+      <c r="K24" s="250"/>
+      <c r="L24" s="248"/>
+      <c r="M24" s="248"/>
+      <c r="N24" s="215" t="s">
         <v>63</v>
       </c>
-      <c r="O24" s="190"/>
-      <c r="P24" s="190"/>
-      <c r="Q24" s="190"/>
-      <c r="R24" s="190"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="161"/>
       <c r="S24" s="9"/>
-      <c r="T24" s="190" t="s">
+      <c r="T24" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="U24" s="190"/>
-      <c r="V24" s="190"/>
+      <c r="U24" s="161"/>
+      <c r="V24" s="161"/>
       <c r="W24" s="9"/>
-      <c r="X24" s="205" t="s">
+      <c r="X24" s="284" t="s">
         <v>65</v>
       </c>
-      <c r="Y24" s="205"/>
+      <c r="Y24" s="284"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="82"/>
       <c r="AB24" s="4" t="str">
@@ -4582,38 +4582,38 @@
       <c r="A25" s="100">
         <v>8</v>
       </c>
-      <c r="B25" s="210" t="s">
+      <c r="B25" s="289" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="167"/>
-      <c r="D25" s="167"/>
-      <c r="E25" s="168"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="181"/>
-      <c r="H25" s="182"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="142"/>
-      <c r="N25" s="188" t="s">
+      <c r="C25" s="265"/>
+      <c r="D25" s="265"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="178"/>
+      <c r="G25" s="249"/>
+      <c r="H25" s="250"/>
+      <c r="I25" s="248"/>
+      <c r="J25" s="176"/>
+      <c r="K25" s="250"/>
+      <c r="L25" s="248"/>
+      <c r="M25" s="248"/>
+      <c r="N25" s="215" t="s">
         <v>66</v>
       </c>
-      <c r="O25" s="189"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="189"/>
+      <c r="O25" s="231"/>
+      <c r="P25" s="231"/>
+      <c r="Q25" s="231"/>
+      <c r="R25" s="231"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="190">
+      <c r="T25" s="161">
         <v>550</v>
       </c>
-      <c r="U25" s="189"/>
-      <c r="V25" s="189"/>
+      <c r="U25" s="231"/>
+      <c r="V25" s="231"/>
       <c r="W25" s="6"/>
-      <c r="X25" s="190">
+      <c r="X25" s="161">
         <v>600</v>
       </c>
-      <c r="Y25" s="189"/>
+      <c r="Y25" s="231"/>
       <c r="Z25" s="7"/>
       <c r="AA25" s="82"/>
       <c r="AB25" s="4" t="str">
@@ -4631,35 +4631,35 @@
       <c r="A26" s="98">
         <v>9</v>
       </c>
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="271" t="s">
         <v>200</v>
       </c>
-      <c r="C26" s="201"/>
-      <c r="D26" s="201"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="181"/>
-      <c r="H26" s="182"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="182"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="142"/>
-      <c r="N26" s="209" t="s">
+      <c r="C26" s="272"/>
+      <c r="D26" s="272"/>
+      <c r="E26" s="272"/>
+      <c r="F26" s="273"/>
+      <c r="G26" s="249"/>
+      <c r="H26" s="250"/>
+      <c r="I26" s="248"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="250"/>
+      <c r="L26" s="248"/>
+      <c r="M26" s="248"/>
+      <c r="N26" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="O26" s="197"/>
-      <c r="P26" s="197"/>
-      <c r="Q26" s="197"/>
-      <c r="R26" s="197"/>
-      <c r="S26" s="197"/>
-      <c r="T26" s="197"/>
-      <c r="U26" s="197"/>
-      <c r="V26" s="197"/>
+      <c r="O26" s="196"/>
+      <c r="P26" s="196"/>
+      <c r="Q26" s="196"/>
+      <c r="R26" s="196"/>
+      <c r="S26" s="196"/>
+      <c r="T26" s="196"/>
+      <c r="U26" s="196"/>
+      <c r="V26" s="196"/>
       <c r="W26" s="76"/>
-      <c r="X26" s="197"/>
-      <c r="Y26" s="197"/>
-      <c r="Z26" s="198"/>
+      <c r="X26" s="196"/>
+      <c r="Y26" s="196"/>
+      <c r="Z26" s="288"/>
       <c r="AA26" s="82"/>
       <c r="AB26" s="4" t="str">
         <f>PriceList!F19</f>
@@ -4676,35 +4676,35 @@
       <c r="A27" s="101">
         <v>10</v>
       </c>
-      <c r="B27" s="213" t="s">
+      <c r="B27" s="274" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="214"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="135"/>
-      <c r="K27" s="182"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="142"/>
-      <c r="N27" s="193" t="s">
+      <c r="C27" s="275"/>
+      <c r="D27" s="275"/>
+      <c r="E27" s="276"/>
+      <c r="F27" s="178"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="250"/>
+      <c r="I27" s="248"/>
+      <c r="J27" s="176"/>
+      <c r="K27" s="250"/>
+      <c r="L27" s="248"/>
+      <c r="M27" s="248"/>
+      <c r="N27" s="216" t="s">
         <v>70</v>
       </c>
-      <c r="O27" s="194"/>
-      <c r="P27" s="194"/>
-      <c r="Q27" s="194"/>
-      <c r="R27" s="194"/>
-      <c r="S27" s="194"/>
-      <c r="T27" s="194"/>
-      <c r="U27" s="194"/>
-      <c r="V27" s="194"/>
-      <c r="W27" s="194"/>
-      <c r="X27" s="194"/>
-      <c r="Y27" s="194"/>
-      <c r="Z27" s="195"/>
+      <c r="O27" s="217"/>
+      <c r="P27" s="217"/>
+      <c r="Q27" s="217"/>
+      <c r="R27" s="217"/>
+      <c r="S27" s="217"/>
+      <c r="T27" s="217"/>
+      <c r="U27" s="217"/>
+      <c r="V27" s="217"/>
+      <c r="W27" s="217"/>
+      <c r="X27" s="217"/>
+      <c r="Y27" s="217"/>
+      <c r="Z27" s="218"/>
       <c r="AA27" s="82"/>
       <c r="AB27" s="4" t="str">
         <f>PriceList!F20</f>
@@ -4721,37 +4721,37 @@
       <c r="A28" s="98">
         <v>11</v>
       </c>
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="277" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="142"/>
-      <c r="N28" s="188" t="s">
+      <c r="C28" s="248"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="176"/>
+      <c r="F28" s="178"/>
+      <c r="G28" s="249"/>
+      <c r="H28" s="250"/>
+      <c r="I28" s="248"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="250"/>
+      <c r="L28" s="248"/>
+      <c r="M28" s="248"/>
+      <c r="N28" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="O28" s="189"/>
-      <c r="P28" s="189"/>
-      <c r="Q28" s="189"/>
-      <c r="R28" s="189"/>
+      <c r="O28" s="231"/>
+      <c r="P28" s="231"/>
+      <c r="Q28" s="231"/>
+      <c r="R28" s="231"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="190" t="s">
+      <c r="T28" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="U28" s="189"/>
-      <c r="V28" s="189"/>
+      <c r="U28" s="231"/>
+      <c r="V28" s="231"/>
       <c r="W28" s="6"/>
-      <c r="X28" s="211"/>
-      <c r="Y28" s="211"/>
-      <c r="Z28" s="212"/>
+      <c r="X28" s="219"/>
+      <c r="Y28" s="219"/>
+      <c r="Z28" s="185"/>
       <c r="AA28" s="82"/>
       <c r="AB28" s="4" t="str">
         <f>PriceList!F21</f>
@@ -4768,37 +4768,37 @@
       <c r="A29" s="98">
         <v>12</v>
       </c>
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="247" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="188" t="s">
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="178"/>
+      <c r="G29" s="249"/>
+      <c r="H29" s="250"/>
+      <c r="I29" s="248"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="250"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="248"/>
+      <c r="N29" s="215" t="s">
         <v>74</v>
       </c>
-      <c r="O29" s="189"/>
-      <c r="P29" s="189"/>
-      <c r="Q29" s="189"/>
-      <c r="R29" s="189"/>
+      <c r="O29" s="231"/>
+      <c r="P29" s="231"/>
+      <c r="Q29" s="231"/>
+      <c r="R29" s="231"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="190" t="s">
+      <c r="T29" s="161" t="s">
         <v>75</v>
       </c>
-      <c r="U29" s="189"/>
-      <c r="V29" s="189"/>
+      <c r="U29" s="231"/>
+      <c r="V29" s="231"/>
       <c r="W29" s="9"/>
-      <c r="X29" s="211"/>
-      <c r="Y29" s="211"/>
-      <c r="Z29" s="212"/>
+      <c r="X29" s="219"/>
+      <c r="Y29" s="219"/>
+      <c r="Z29" s="185"/>
       <c r="AA29" s="82"/>
       <c r="AB29" s="4" t="str">
         <f>PriceList!F22</f>
@@ -4815,37 +4815,37 @@
       <c r="A30" s="102">
         <v>13</v>
       </c>
-      <c r="B30" s="223" t="s">
+      <c r="B30" s="253" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="228"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="225"/>
-      <c r="K30" s="228"/>
-      <c r="L30" s="224"/>
-      <c r="M30" s="224"/>
-      <c r="N30" s="209" t="s">
+      <c r="C30" s="254"/>
+      <c r="D30" s="254"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="257"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="255"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="254"/>
+      <c r="N30" s="278" t="s">
         <v>193</v>
       </c>
-      <c r="O30" s="197"/>
-      <c r="P30" s="197"/>
-      <c r="Q30" s="197"/>
-      <c r="R30" s="216"/>
+      <c r="O30" s="196"/>
+      <c r="P30" s="196"/>
+      <c r="Q30" s="196"/>
+      <c r="R30" s="279"/>
       <c r="S30" s="8"/>
-      <c r="T30" s="217" t="s">
+      <c r="T30" s="280" t="s">
         <v>194</v>
       </c>
-      <c r="U30" s="190"/>
-      <c r="V30" s="218"/>
+      <c r="U30" s="161"/>
+      <c r="V30" s="281"/>
       <c r="W30" s="8"/>
-      <c r="X30" s="211"/>
-      <c r="Y30" s="211"/>
-      <c r="Z30" s="212"/>
+      <c r="X30" s="219"/>
+      <c r="Y30" s="219"/>
+      <c r="Z30" s="185"/>
       <c r="AA30" s="82"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="5"/>
@@ -4853,40 +4853,40 @@
       <c r="AE30" s="84"/>
     </row>
     <row r="31" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="151" t="s">
+      <c r="A31" s="282" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="155"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="155" t="s">
+      <c r="B31" s="243"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="243"/>
+      <c r="E31" s="243"/>
+      <c r="F31" s="243"/>
+      <c r="G31" s="243"/>
+      <c r="H31" s="283"/>
+      <c r="I31" s="243" t="s">
         <v>85</v>
       </c>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
-      <c r="M31" s="219"/>
-      <c r="N31" s="188" t="s">
+      <c r="J31" s="244"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="244"/>
+      <c r="M31" s="245"/>
+      <c r="N31" s="215" t="s">
         <v>77</v>
       </c>
-      <c r="O31" s="189"/>
-      <c r="P31" s="189"/>
-      <c r="Q31" s="189"/>
-      <c r="R31" s="189"/>
+      <c r="O31" s="231"/>
+      <c r="P31" s="231"/>
+      <c r="Q31" s="231"/>
+      <c r="R31" s="231"/>
       <c r="S31" s="8"/>
-      <c r="T31" s="190" t="s">
+      <c r="T31" s="161" t="s">
         <v>78</v>
       </c>
-      <c r="U31" s="189"/>
-      <c r="V31" s="189"/>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231"/>
       <c r="W31" s="8"/>
-      <c r="X31" s="211"/>
-      <c r="Y31" s="211"/>
-      <c r="Z31" s="212"/>
+      <c r="X31" s="219"/>
+      <c r="Y31" s="219"/>
+      <c r="Z31" s="185"/>
       <c r="AA31" s="82"/>
       <c r="AB31" s="4" t="str">
         <f>PriceList!F23</f>
@@ -4905,33 +4905,33 @@
       <c r="C32" s="103">
         <v>9</v>
       </c>
-      <c r="D32" s="231"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="233"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="263"/>
       <c r="G32" s="111"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="234" t="s">
+      <c r="I32" s="264" t="s">
         <v>86</v>
       </c>
-      <c r="J32" s="167"/>
-      <c r="K32" s="167"/>
-      <c r="L32" s="167"/>
+      <c r="J32" s="265"/>
+      <c r="K32" s="265"/>
+      <c r="L32" s="265"/>
       <c r="M32" s="11"/>
-      <c r="N32" s="193" t="s">
+      <c r="N32" s="216" t="s">
         <v>80</v>
       </c>
-      <c r="O32" s="194"/>
-      <c r="P32" s="194"/>
-      <c r="Q32" s="194"/>
-      <c r="R32" s="194"/>
-      <c r="S32" s="194"/>
-      <c r="T32" s="194"/>
-      <c r="U32" s="194"/>
-      <c r="V32" s="194"/>
-      <c r="W32" s="194"/>
-      <c r="X32" s="194"/>
-      <c r="Y32" s="194"/>
-      <c r="Z32" s="195"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="217"/>
+      <c r="Q32" s="217"/>
+      <c r="R32" s="217"/>
+      <c r="S32" s="217"/>
+      <c r="T32" s="217"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="217"/>
+      <c r="Z32" s="218"/>
       <c r="AA32" s="82"/>
       <c r="AB32" s="4" t="str">
         <f>PriceList!F24</f>
@@ -4949,36 +4949,36 @@
       <c r="B33" s="108" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="235"/>
-      <c r="D33" s="235"/>
+      <c r="C33" s="234"/>
+      <c r="D33" s="234"/>
       <c r="E33" s="108" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="235"/>
-      <c r="G33" s="235"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="234"/>
       <c r="H33" s="112"/>
-      <c r="I33" s="236"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="237"/>
+      <c r="I33" s="266"/>
+      <c r="J33" s="267"/>
+      <c r="K33" s="267"/>
+      <c r="L33" s="267"/>
       <c r="M33" s="114"/>
-      <c r="N33" s="229" t="s">
+      <c r="N33" s="259" t="s">
         <v>82</v>
       </c>
-      <c r="O33" s="230"/>
-      <c r="P33" s="230"/>
-      <c r="Q33" s="230"/>
-      <c r="R33" s="230"/>
+      <c r="O33" s="260"/>
+      <c r="P33" s="260"/>
+      <c r="Q33" s="260"/>
+      <c r="R33" s="260"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="197" t="s">
+      <c r="T33" s="196" t="s">
         <v>83</v>
       </c>
-      <c r="U33" s="197"/>
-      <c r="V33" s="197"/>
-      <c r="W33" s="197"/>
-      <c r="X33" s="241"/>
-      <c r="Y33" s="241"/>
-      <c r="Z33" s="242"/>
+      <c r="U33" s="196"/>
+      <c r="V33" s="196"/>
+      <c r="W33" s="196"/>
+      <c r="X33" s="205"/>
+      <c r="Y33" s="205"/>
+      <c r="Z33" s="206"/>
       <c r="AA33" s="82"/>
       <c r="AB33" s="4" t="str">
         <f>PriceList!F25</f>
@@ -4996,38 +4996,38 @@
       <c r="B34" s="108" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="235"/>
-      <c r="D34" s="235"/>
+      <c r="C34" s="234"/>
+      <c r="D34" s="234"/>
       <c r="E34" s="108" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="235"/>
-      <c r="G34" s="235"/>
+      <c r="F34" s="234"/>
+      <c r="G34" s="234"/>
       <c r="H34" s="112"/>
-      <c r="I34" s="243" t="s">
+      <c r="I34" s="235" t="s">
         <v>94</v>
       </c>
-      <c r="J34" s="244"/>
-      <c r="K34" s="244"/>
-      <c r="L34" s="244"/>
+      <c r="J34" s="236"/>
+      <c r="K34" s="236"/>
+      <c r="L34" s="236"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="188" t="s">
+      <c r="N34" s="215" t="s">
         <v>179</v>
       </c>
-      <c r="O34" s="190"/>
-      <c r="P34" s="190"/>
-      <c r="Q34" s="190"/>
-      <c r="R34" s="190"/>
+      <c r="O34" s="161"/>
+      <c r="P34" s="161"/>
+      <c r="Q34" s="161"/>
+      <c r="R34" s="161"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="220" t="s">
+      <c r="T34" s="246" t="s">
         <v>180</v>
       </c>
-      <c r="U34" s="220"/>
-      <c r="V34" s="220"/>
-      <c r="W34" s="220"/>
-      <c r="X34" s="221"/>
-      <c r="Y34" s="221"/>
-      <c r="Z34" s="222"/>
+      <c r="U34" s="246"/>
+      <c r="V34" s="246"/>
+      <c r="W34" s="246"/>
+      <c r="X34" s="251"/>
+      <c r="Y34" s="251"/>
+      <c r="Z34" s="252"/>
       <c r="AA34" s="82"/>
       <c r="AB34" s="4" t="str">
         <f>PriceList!F26</f>
@@ -5046,36 +5046,36 @@
       <c r="C35" s="109">
         <v>3</v>
       </c>
-      <c r="D35" s="245"/>
-      <c r="E35" s="246"/>
-      <c r="F35" s="247"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="238"/>
+      <c r="F35" s="239"/>
       <c r="G35" s="113"/>
       <c r="H35" s="107"/>
-      <c r="I35" s="248" t="s">
+      <c r="I35" s="240" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="249"/>
+      <c r="J35" s="241"/>
+      <c r="K35" s="241"/>
+      <c r="L35" s="242"/>
       <c r="M35" s="17"/>
-      <c r="N35" s="188" t="s">
+      <c r="N35" s="215" t="s">
         <v>87</v>
       </c>
-      <c r="O35" s="190"/>
-      <c r="P35" s="190"/>
-      <c r="Q35" s="190"/>
-      <c r="R35" s="190"/>
+      <c r="O35" s="161"/>
+      <c r="P35" s="161"/>
+      <c r="Q35" s="161"/>
+      <c r="R35" s="161"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="190" t="s">
+      <c r="T35" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="U35" s="189"/>
-      <c r="V35" s="189"/>
+      <c r="U35" s="231"/>
+      <c r="V35" s="231"/>
       <c r="W35" s="9"/>
-      <c r="X35" s="190" t="s">
+      <c r="X35" s="161" t="s">
         <v>48</v>
       </c>
-      <c r="Y35" s="189"/>
+      <c r="Y35" s="231"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="85"/>
       <c r="AB35" s="4" t="str">
@@ -5090,41 +5090,41 @@
       <c r="AE35" s="84"/>
     </row>
     <row r="36" spans="1:31" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="250" t="s">
+      <c r="A36" s="207" t="s">
         <v>101</v>
       </c>
-      <c r="B36" s="251"/>
-      <c r="C36" s="252"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="260"/>
-      <c r="F36" s="261" t="s">
+      <c r="B36" s="208"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="G36" s="161"/>
-      <c r="H36" s="262"/>
-      <c r="I36" s="259"/>
-      <c r="J36" s="260"/>
-      <c r="K36" s="161"/>
-      <c r="L36" s="161"/>
-      <c r="M36" s="161"/>
-      <c r="N36" s="238" t="s">
+      <c r="G36" s="213"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="213"/>
+      <c r="M36" s="213"/>
+      <c r="N36" s="232" t="s">
         <v>91</v>
       </c>
-      <c r="O36" s="239"/>
-      <c r="P36" s="239"/>
-      <c r="Q36" s="239"/>
-      <c r="R36" s="239"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="162"/>
+      <c r="Q36" s="162"/>
+      <c r="R36" s="162"/>
       <c r="S36" s="13"/>
-      <c r="T36" s="239" t="s">
+      <c r="T36" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="U36" s="240"/>
-      <c r="V36" s="240"/>
+      <c r="U36" s="233"/>
+      <c r="V36" s="233"/>
       <c r="W36" s="14"/>
-      <c r="X36" s="239" t="s">
+      <c r="X36" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="Y36" s="240"/>
+      <c r="Y36" s="233"/>
       <c r="Z36" s="15"/>
       <c r="AA36" s="85"/>
       <c r="AB36" s="4" t="str">
@@ -5139,42 +5139,42 @@
       <c r="AE36" s="84"/>
     </row>
     <row r="37" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="267" t="s">
+      <c r="A37" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="268"/>
-      <c r="C37" s="269"/>
-      <c r="D37" s="270" t="s">
+      <c r="B37" s="225"/>
+      <c r="C37" s="226"/>
+      <c r="D37" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="E37" s="269"/>
-      <c r="F37" s="270" t="s">
+      <c r="E37" s="226"/>
+      <c r="F37" s="227" t="s">
         <v>107</v>
       </c>
-      <c r="G37" s="271"/>
-      <c r="H37" s="271"/>
-      <c r="I37" s="271"/>
-      <c r="J37" s="271"/>
-      <c r="K37" s="272"/>
-      <c r="L37" s="270" t="s">
+      <c r="G37" s="228"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="228"/>
+      <c r="J37" s="228"/>
+      <c r="K37" s="229"/>
+      <c r="L37" s="227" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="273"/>
-      <c r="N37" s="193" t="s">
+      <c r="M37" s="230"/>
+      <c r="N37" s="216" t="s">
         <v>95</v>
       </c>
-      <c r="O37" s="194"/>
-      <c r="P37" s="194"/>
-      <c r="Q37" s="194"/>
-      <c r="R37" s="194"/>
-      <c r="S37" s="194"/>
-      <c r="T37" s="194"/>
-      <c r="U37" s="194"/>
-      <c r="V37" s="194"/>
-      <c r="W37" s="194"/>
-      <c r="X37" s="194"/>
-      <c r="Y37" s="194"/>
-      <c r="Z37" s="195"/>
+      <c r="O37" s="217"/>
+      <c r="P37" s="217"/>
+      <c r="Q37" s="217"/>
+      <c r="R37" s="217"/>
+      <c r="S37" s="217"/>
+      <c r="T37" s="217"/>
+      <c r="U37" s="217"/>
+      <c r="V37" s="217"/>
+      <c r="W37" s="217"/>
+      <c r="X37" s="217"/>
+      <c r="Y37" s="217"/>
+      <c r="Z37" s="218"/>
       <c r="AA37" s="85"/>
       <c r="AB37" s="4" t="str">
         <f>PriceList!F29</f>
@@ -5188,27 +5188,27 @@
       <c r="AE37" s="84"/>
     </row>
     <row r="38" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="253" t="s">
+      <c r="A38" s="172" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="254"/>
-      <c r="C38" s="255"/>
+      <c r="B38" s="173"/>
+      <c r="C38" s="174"/>
       <c r="D38" s="115" t="s">
         <v>110</v>
       </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="256" t="s">
+      <c r="F38" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="G38" s="135"/>
+      <c r="G38" s="176"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="256" t="s">
+      <c r="I38" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="J38" s="257"/>
+      <c r="J38" s="177"/>
       <c r="K38" s="19"/>
-      <c r="L38" s="139"/>
-      <c r="M38" s="258"/>
+      <c r="L38" s="178"/>
+      <c r="M38" s="179"/>
       <c r="N38" s="117" t="s">
         <v>97</v>
       </c>
@@ -5217,21 +5217,21 @@
         <v>98</v>
       </c>
       <c r="Q38" s="6"/>
-      <c r="R38" s="263" t="s">
+      <c r="R38" s="220" t="s">
         <v>99</v>
       </c>
-      <c r="S38" s="263"/>
+      <c r="S38" s="220"/>
       <c r="T38" s="6"/>
-      <c r="U38" s="264" t="s">
+      <c r="U38" s="221" t="s">
         <v>100</v>
       </c>
-      <c r="V38" s="264"/>
+      <c r="V38" s="221"/>
       <c r="W38" s="6"/>
       <c r="X38" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="Y38" s="265"/>
-      <c r="Z38" s="266"/>
+      <c r="Y38" s="222"/>
+      <c r="Z38" s="223"/>
       <c r="AA38" s="85"/>
       <c r="AB38" s="4" t="str">
         <f>PriceList!F30</f>
@@ -5245,44 +5245,44 @@
       <c r="AE38" s="84"/>
     </row>
     <row r="39" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="253" t="s">
+      <c r="A39" s="172" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="254"/>
-      <c r="C39" s="255"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="174"/>
       <c r="D39" s="115" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="18"/>
-      <c r="F39" s="256" t="s">
+      <c r="F39" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="G39" s="135"/>
+      <c r="G39" s="176"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="256" t="s">
+      <c r="I39" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="J39" s="257"/>
+      <c r="J39" s="177"/>
       <c r="K39" s="19"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="258"/>
-      <c r="N39" s="188" t="s">
+      <c r="L39" s="178"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="215" t="s">
         <v>103</v>
       </c>
-      <c r="O39" s="190"/>
-      <c r="P39" s="190"/>
-      <c r="Q39" s="190"/>
-      <c r="R39" s="190"/>
+      <c r="O39" s="161"/>
+      <c r="P39" s="161"/>
+      <c r="Q39" s="161"/>
+      <c r="R39" s="161"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="197" t="s">
+      <c r="T39" s="196" t="s">
         <v>104</v>
       </c>
-      <c r="U39" s="197"/>
-      <c r="V39" s="197"/>
-      <c r="W39" s="197"/>
+      <c r="U39" s="196"/>
+      <c r="V39" s="196"/>
+      <c r="W39" s="196"/>
       <c r="X39" s="6"/>
-      <c r="Y39" s="211"/>
-      <c r="Z39" s="212"/>
+      <c r="Y39" s="219"/>
+      <c r="Z39" s="185"/>
       <c r="AA39" s="85"/>
       <c r="AB39" s="4" t="str">
         <f>PriceList!F31</f>
@@ -5296,44 +5296,44 @@
       <c r="AE39" s="84"/>
     </row>
     <row r="40" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="253" t="s">
+      <c r="A40" s="172" t="s">
         <v>117</v>
       </c>
-      <c r="B40" s="254"/>
-      <c r="C40" s="255"/>
+      <c r="B40" s="173"/>
+      <c r="C40" s="174"/>
       <c r="D40" s="115" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="256" t="s">
+      <c r="F40" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="135"/>
+      <c r="G40" s="176"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="256" t="s">
+      <c r="I40" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="J40" s="257"/>
+      <c r="J40" s="177"/>
       <c r="K40" s="19"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="258"/>
-      <c r="N40" s="190" t="s">
+      <c r="L40" s="178"/>
+      <c r="M40" s="179"/>
+      <c r="N40" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="O40" s="190"/>
-      <c r="P40" s="190"/>
-      <c r="Q40" s="190"/>
-      <c r="R40" s="190"/>
+      <c r="O40" s="161"/>
+      <c r="P40" s="161"/>
+      <c r="Q40" s="161"/>
+      <c r="R40" s="161"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="190" t="s">
+      <c r="T40" s="161" t="s">
         <v>83</v>
       </c>
-      <c r="U40" s="190"/>
-      <c r="V40" s="190"/>
-      <c r="W40" s="190"/>
-      <c r="X40" s="241"/>
-      <c r="Y40" s="241"/>
-      <c r="Z40" s="242"/>
+      <c r="U40" s="161"/>
+      <c r="V40" s="161"/>
+      <c r="W40" s="161"/>
+      <c r="X40" s="205"/>
+      <c r="Y40" s="205"/>
+      <c r="Z40" s="206"/>
       <c r="AA40" s="85"/>
       <c r="AB40" s="4" t="str">
         <f>PriceList!F32</f>
@@ -5347,44 +5347,44 @@
       <c r="AE40" s="84"/>
     </row>
     <row r="41" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="254"/>
-      <c r="C41" s="255"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="174"/>
       <c r="D41" s="115" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="18"/>
-      <c r="F41" s="256" t="s">
+      <c r="F41" s="175" t="s">
         <v>111</v>
       </c>
-      <c r="G41" s="135"/>
+      <c r="G41" s="176"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="256" t="s">
+      <c r="I41" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="J41" s="257"/>
+      <c r="J41" s="177"/>
       <c r="K41" s="19"/>
-      <c r="L41" s="139"/>
-      <c r="M41" s="258"/>
-      <c r="N41" s="190" t="s">
+      <c r="L41" s="178"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="161" t="s">
         <v>113</v>
       </c>
-      <c r="O41" s="190"/>
-      <c r="P41" s="190"/>
-      <c r="Q41" s="190"/>
-      <c r="R41" s="190"/>
+      <c r="O41" s="161"/>
+      <c r="P41" s="161"/>
+      <c r="Q41" s="161"/>
+      <c r="R41" s="161"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="197" t="s">
+      <c r="T41" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="U41" s="197"/>
-      <c r="V41" s="197"/>
-      <c r="W41" s="197"/>
+      <c r="U41" s="196"/>
+      <c r="V41" s="196"/>
+      <c r="W41" s="196"/>
       <c r="X41" s="6"/>
-      <c r="Y41" s="276"/>
-      <c r="Z41" s="277"/>
+      <c r="Y41" s="182"/>
+      <c r="Z41" s="183"/>
       <c r="AA41" s="85"/>
       <c r="AB41" s="4" t="str">
         <f>PriceList!F33</f>
@@ -5398,44 +5398,44 @@
       <c r="AE41" s="84"/>
     </row>
     <row r="42" spans="1:31" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="281" t="s">
+      <c r="A42" s="188" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="282"/>
-      <c r="C42" s="283"/>
+      <c r="B42" s="189"/>
+      <c r="C42" s="190"/>
       <c r="D42" s="116" t="s">
         <v>122</v>
       </c>
       <c r="E42" s="20"/>
-      <c r="F42" s="284" t="s">
+      <c r="F42" s="191" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="285"/>
+      <c r="G42" s="192"/>
       <c r="H42" s="21"/>
-      <c r="I42" s="284" t="s">
+      <c r="I42" s="191" t="s">
         <v>112</v>
       </c>
-      <c r="J42" s="286"/>
+      <c r="J42" s="193"/>
       <c r="K42" s="21"/>
-      <c r="L42" s="287"/>
-      <c r="M42" s="288"/>
-      <c r="N42" s="190" t="s">
+      <c r="L42" s="194"/>
+      <c r="M42" s="195"/>
+      <c r="N42" s="161" t="s">
         <v>115</v>
       </c>
-      <c r="O42" s="190"/>
-      <c r="P42" s="190"/>
-      <c r="Q42" s="190"/>
-      <c r="R42" s="190"/>
+      <c r="O42" s="161"/>
+      <c r="P42" s="161"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="161"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="197" t="s">
+      <c r="T42" s="196" t="s">
         <v>116</v>
       </c>
-      <c r="U42" s="197"/>
-      <c r="V42" s="197"/>
-      <c r="W42" s="197"/>
+      <c r="U42" s="196"/>
+      <c r="V42" s="196"/>
+      <c r="W42" s="196"/>
       <c r="X42" s="76"/>
-      <c r="Y42" s="278"/>
-      <c r="Z42" s="212"/>
+      <c r="Y42" s="184"/>
+      <c r="Z42" s="185"/>
       <c r="AA42" s="85"/>
       <c r="AB42" s="4" t="str">
         <f>PriceList!F34</f>
@@ -5449,36 +5449,36 @@
       <c r="AE42" s="84"/>
     </row>
     <row r="43" spans="1:31" s="71" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="306" t="s">
+      <c r="A43" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="307"/>
-      <c r="C43" s="307"/>
-      <c r="D43" s="307"/>
-      <c r="E43" s="307"/>
-      <c r="F43" s="307"/>
-      <c r="G43" s="307"/>
-      <c r="H43" s="307"/>
-      <c r="I43" s="307"/>
-      <c r="J43" s="307"/>
-      <c r="K43" s="307"/>
-      <c r="L43" s="307"/>
-      <c r="M43" s="308"/>
-      <c r="N43" s="289" t="s">
+      <c r="B43" s="159"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="159"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="159"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="159"/>
+      <c r="K43" s="159"/>
+      <c r="L43" s="159"/>
+      <c r="M43" s="160"/>
+      <c r="N43" s="197" t="s">
         <v>118</v>
       </c>
-      <c r="O43" s="289"/>
-      <c r="P43" s="289"/>
-      <c r="Q43" s="289"/>
-      <c r="R43" s="289"/>
-      <c r="S43" s="289"/>
-      <c r="T43" s="289"/>
-      <c r="U43" s="289"/>
-      <c r="V43" s="289"/>
-      <c r="W43" s="290"/>
+      <c r="O43" s="197"/>
+      <c r="P43" s="197"/>
+      <c r="Q43" s="197"/>
+      <c r="R43" s="197"/>
+      <c r="S43" s="197"/>
+      <c r="T43" s="197"/>
+      <c r="U43" s="197"/>
+      <c r="V43" s="197"/>
+      <c r="W43" s="198"/>
       <c r="X43" s="14"/>
-      <c r="Y43" s="279"/>
-      <c r="Z43" s="280"/>
+      <c r="Y43" s="186"/>
+      <c r="Z43" s="187"/>
       <c r="AA43" s="85"/>
       <c r="AB43" s="4" t="str">
         <f>PriceList!F35</f>
@@ -5492,34 +5492,34 @@
       <c r="AE43" s="84"/>
     </row>
     <row r="44" spans="1:31" s="71" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="339"/>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="340"/>
-      <c r="F44" s="340"/>
-      <c r="G44" s="340"/>
-      <c r="H44" s="340"/>
-      <c r="I44" s="340"/>
-      <c r="J44" s="340"/>
-      <c r="K44" s="340"/>
-      <c r="L44" s="340"/>
-      <c r="M44" s="341"/>
-      <c r="N44" s="274" t="s">
+      <c r="A44" s="199"/>
+      <c r="B44" s="200"/>
+      <c r="C44" s="200"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="200"/>
+      <c r="K44" s="200"/>
+      <c r="L44" s="200"/>
+      <c r="M44" s="201"/>
+      <c r="N44" s="180" t="s">
         <v>120</v>
       </c>
-      <c r="O44" s="274"/>
-      <c r="P44" s="274"/>
-      <c r="Q44" s="274"/>
-      <c r="R44" s="274"/>
-      <c r="S44" s="274"/>
-      <c r="T44" s="274"/>
-      <c r="U44" s="274"/>
-      <c r="V44" s="274"/>
-      <c r="W44" s="274"/>
-      <c r="X44" s="274"/>
-      <c r="Y44" s="274"/>
-      <c r="Z44" s="275"/>
+      <c r="O44" s="180"/>
+      <c r="P44" s="180"/>
+      <c r="Q44" s="180"/>
+      <c r="R44" s="180"/>
+      <c r="S44" s="180"/>
+      <c r="T44" s="180"/>
+      <c r="U44" s="180"/>
+      <c r="V44" s="180"/>
+      <c r="W44" s="180"/>
+      <c r="X44" s="180"/>
+      <c r="Y44" s="180"/>
+      <c r="Z44" s="181"/>
       <c r="AA44" s="82"/>
       <c r="AB44" s="4" t="str">
         <f>PriceList!F36</f>
@@ -5533,35 +5533,35 @@
       <c r="AE44" s="84"/>
     </row>
     <row r="45" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="294"/>
-      <c r="B45" s="295"/>
-      <c r="C45" s="295"/>
-      <c r="D45" s="295"/>
-      <c r="E45" s="295"/>
-      <c r="F45" s="295"/>
-      <c r="G45" s="295"/>
-      <c r="H45" s="295"/>
-      <c r="I45" s="295"/>
-      <c r="J45" s="295"/>
-      <c r="K45" s="295"/>
-      <c r="L45" s="295"/>
-      <c r="M45" s="296"/>
-      <c r="N45" s="190" t="s">
+      <c r="A45" s="152"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
+      <c r="K45" s="153"/>
+      <c r="L45" s="153"/>
+      <c r="M45" s="154"/>
+      <c r="N45" s="161" t="s">
         <v>124</v>
       </c>
-      <c r="O45" s="190"/>
-      <c r="P45" s="190"/>
-      <c r="Q45" s="190"/>
-      <c r="R45" s="190"/>
-      <c r="S45" s="190"/>
+      <c r="O45" s="161"/>
+      <c r="P45" s="161"/>
+      <c r="Q45" s="161"/>
+      <c r="R45" s="161"/>
+      <c r="S45" s="161"/>
       <c r="T45" s="9"/>
-      <c r="U45" s="190" t="s">
+      <c r="U45" s="161" t="s">
         <v>188</v>
       </c>
-      <c r="V45" s="190"/>
-      <c r="W45" s="190"/>
-      <c r="X45" s="190"/>
-      <c r="Y45" s="190"/>
+      <c r="V45" s="161"/>
+      <c r="W45" s="161"/>
+      <c r="X45" s="161"/>
+      <c r="Y45" s="161"/>
       <c r="Z45" s="10"/>
       <c r="AA45" s="82"/>
       <c r="AB45" s="4" t="str">
@@ -5576,33 +5576,33 @@
       <c r="AE45" s="84"/>
     </row>
     <row r="46" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="294"/>
-      <c r="B46" s="295"/>
-      <c r="C46" s="295"/>
-      <c r="D46" s="295"/>
-      <c r="E46" s="295"/>
-      <c r="F46" s="295"/>
-      <c r="G46" s="295"/>
-      <c r="H46" s="295"/>
-      <c r="I46" s="295"/>
-      <c r="J46" s="295"/>
-      <c r="K46" s="295"/>
-      <c r="L46" s="295"/>
-      <c r="M46" s="296"/>
-      <c r="N46" s="190" t="s">
+      <c r="A46" s="152"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
+      <c r="K46" s="153"/>
+      <c r="L46" s="153"/>
+      <c r="M46" s="154"/>
+      <c r="N46" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="O46" s="190"/>
-      <c r="P46" s="190"/>
-      <c r="Q46" s="190"/>
-      <c r="R46" s="190"/>
-      <c r="S46" s="190"/>
-      <c r="T46" s="190"/>
-      <c r="U46" s="190"/>
-      <c r="V46" s="190"/>
-      <c r="W46" s="190"/>
-      <c r="X46" s="190"/>
-      <c r="Y46" s="190"/>
+      <c r="O46" s="161"/>
+      <c r="P46" s="161"/>
+      <c r="Q46" s="161"/>
+      <c r="R46" s="161"/>
+      <c r="S46" s="161"/>
+      <c r="T46" s="161"/>
+      <c r="U46" s="161"/>
+      <c r="V46" s="161"/>
+      <c r="W46" s="161"/>
+      <c r="X46" s="161"/>
+      <c r="Y46" s="161"/>
       <c r="Z46" s="10"/>
       <c r="AA46" s="82"/>
       <c r="AB46" s="4" t="str">
@@ -5617,33 +5617,33 @@
       <c r="AE46" s="84"/>
     </row>
     <row r="47" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="294"/>
-      <c r="B47" s="295"/>
-      <c r="C47" s="295"/>
-      <c r="D47" s="295"/>
-      <c r="E47" s="295"/>
-      <c r="F47" s="295"/>
-      <c r="G47" s="295"/>
-      <c r="H47" s="295"/>
-      <c r="I47" s="295"/>
-      <c r="J47" s="295"/>
-      <c r="K47" s="295"/>
-      <c r="L47" s="295"/>
-      <c r="M47" s="296"/>
-      <c r="N47" s="190" t="s">
+      <c r="A47" s="152"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="153"/>
+      <c r="L47" s="153"/>
+      <c r="M47" s="154"/>
+      <c r="N47" s="161" t="s">
         <v>126</v>
       </c>
-      <c r="O47" s="190"/>
-      <c r="P47" s="190"/>
-      <c r="Q47" s="190"/>
-      <c r="R47" s="190"/>
-      <c r="S47" s="190"/>
-      <c r="T47" s="190"/>
-      <c r="U47" s="190"/>
-      <c r="V47" s="190"/>
-      <c r="W47" s="190"/>
-      <c r="X47" s="190"/>
-      <c r="Y47" s="190"/>
+      <c r="O47" s="161"/>
+      <c r="P47" s="161"/>
+      <c r="Q47" s="161"/>
+      <c r="R47" s="161"/>
+      <c r="S47" s="161"/>
+      <c r="T47" s="161"/>
+      <c r="U47" s="161"/>
+      <c r="V47" s="161"/>
+      <c r="W47" s="161"/>
+      <c r="X47" s="161"/>
+      <c r="Y47" s="161"/>
       <c r="Z47" s="12"/>
       <c r="AA47" s="82"/>
       <c r="AB47" s="4" t="str">
@@ -5658,33 +5658,33 @@
       <c r="AE47" s="84"/>
     </row>
     <row r="48" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="342"/>
-      <c r="B48" s="343"/>
-      <c r="C48" s="343"/>
-      <c r="D48" s="343"/>
-      <c r="E48" s="343"/>
-      <c r="F48" s="343"/>
-      <c r="G48" s="343"/>
-      <c r="H48" s="343"/>
-      <c r="I48" s="343"/>
-      <c r="J48" s="343"/>
-      <c r="K48" s="343"/>
-      <c r="L48" s="343"/>
-      <c r="M48" s="344"/>
-      <c r="N48" s="239" t="s">
+      <c r="A48" s="202"/>
+      <c r="B48" s="203"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
+      <c r="I48" s="203"/>
+      <c r="J48" s="203"/>
+      <c r="K48" s="203"/>
+      <c r="L48" s="203"/>
+      <c r="M48" s="204"/>
+      <c r="N48" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="O48" s="239"/>
-      <c r="P48" s="239"/>
-      <c r="Q48" s="239"/>
-      <c r="R48" s="239"/>
-      <c r="S48" s="239"/>
-      <c r="T48" s="239"/>
-      <c r="U48" s="239"/>
-      <c r="V48" s="239"/>
-      <c r="W48" s="239"/>
-      <c r="X48" s="239"/>
-      <c r="Y48" s="239"/>
+      <c r="O48" s="162"/>
+      <c r="P48" s="162"/>
+      <c r="Q48" s="162"/>
+      <c r="R48" s="162"/>
+      <c r="S48" s="162"/>
+      <c r="T48" s="162"/>
+      <c r="U48" s="162"/>
+      <c r="V48" s="162"/>
+      <c r="W48" s="162"/>
+      <c r="X48" s="162"/>
+      <c r="Y48" s="162"/>
       <c r="Z48" s="15"/>
       <c r="AA48" s="82"/>
       <c r="AB48" s="4" t="str">
@@ -5699,34 +5699,34 @@
       <c r="AE48" s="84"/>
     </row>
     <row r="49" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="291" t="s">
+      <c r="A49" s="149" t="s">
         <v>128</v>
       </c>
-      <c r="B49" s="292"/>
-      <c r="C49" s="292"/>
-      <c r="D49" s="292"/>
-      <c r="E49" s="292"/>
-      <c r="F49" s="292"/>
-      <c r="G49" s="292"/>
-      <c r="H49" s="292"/>
-      <c r="I49" s="292"/>
-      <c r="J49" s="292"/>
-      <c r="K49" s="292"/>
-      <c r="L49" s="292"/>
-      <c r="M49" s="292"/>
-      <c r="N49" s="292"/>
-      <c r="O49" s="292"/>
-      <c r="P49" s="292"/>
-      <c r="Q49" s="292"/>
-      <c r="R49" s="292"/>
-      <c r="S49" s="292"/>
-      <c r="T49" s="292"/>
-      <c r="U49" s="292"/>
-      <c r="V49" s="292"/>
-      <c r="W49" s="292"/>
-      <c r="X49" s="292"/>
-      <c r="Y49" s="292"/>
-      <c r="Z49" s="293"/>
+      <c r="B49" s="150"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
+      <c r="K49" s="150"/>
+      <c r="L49" s="150"/>
+      <c r="M49" s="150"/>
+      <c r="N49" s="150"/>
+      <c r="O49" s="150"/>
+      <c r="P49" s="150"/>
+      <c r="Q49" s="150"/>
+      <c r="R49" s="150"/>
+      <c r="S49" s="150"/>
+      <c r="T49" s="150"/>
+      <c r="U49" s="150"/>
+      <c r="V49" s="150"/>
+      <c r="W49" s="150"/>
+      <c r="X49" s="150"/>
+      <c r="Y49" s="150"/>
+      <c r="Z49" s="151"/>
       <c r="AA49" s="82"/>
       <c r="AB49" s="4" t="str">
         <f>PriceList!F47</f>
@@ -5740,32 +5740,32 @@
       <c r="AE49" s="84"/>
     </row>
     <row r="50" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="294"/>
-      <c r="B50" s="295"/>
-      <c r="C50" s="295"/>
-      <c r="D50" s="295"/>
-      <c r="E50" s="295"/>
-      <c r="F50" s="295"/>
-      <c r="G50" s="295"/>
-      <c r="H50" s="295"/>
-      <c r="I50" s="295"/>
-      <c r="J50" s="295"/>
-      <c r="K50" s="295"/>
-      <c r="L50" s="295"/>
-      <c r="M50" s="295"/>
-      <c r="N50" s="295"/>
-      <c r="O50" s="295"/>
-      <c r="P50" s="295"/>
-      <c r="Q50" s="295"/>
-      <c r="R50" s="295"/>
-      <c r="S50" s="295"/>
-      <c r="T50" s="295"/>
-      <c r="U50" s="295"/>
-      <c r="V50" s="295"/>
-      <c r="W50" s="295"/>
-      <c r="X50" s="295"/>
-      <c r="Y50" s="295"/>
-      <c r="Z50" s="296"/>
+      <c r="A50" s="152"/>
+      <c r="B50" s="153"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="153"/>
+      <c r="L50" s="153"/>
+      <c r="M50" s="153"/>
+      <c r="N50" s="153"/>
+      <c r="O50" s="153"/>
+      <c r="P50" s="153"/>
+      <c r="Q50" s="153"/>
+      <c r="R50" s="153"/>
+      <c r="S50" s="153"/>
+      <c r="T50" s="153"/>
+      <c r="U50" s="153"/>
+      <c r="V50" s="153"/>
+      <c r="W50" s="153"/>
+      <c r="X50" s="153"/>
+      <c r="Y50" s="153"/>
+      <c r="Z50" s="154"/>
       <c r="AA50" s="82"/>
       <c r="AB50" s="4" t="str">
         <f>PriceList!F48</f>
@@ -5779,32 +5779,32 @@
       <c r="AE50" s="84"/>
     </row>
     <row r="51" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="294"/>
-      <c r="B51" s="295"/>
-      <c r="C51" s="295"/>
-      <c r="D51" s="295"/>
-      <c r="E51" s="295"/>
-      <c r="F51" s="295"/>
-      <c r="G51" s="295"/>
-      <c r="H51" s="295"/>
-      <c r="I51" s="295"/>
-      <c r="J51" s="295"/>
-      <c r="K51" s="295"/>
-      <c r="L51" s="295"/>
-      <c r="M51" s="295"/>
-      <c r="N51" s="295"/>
-      <c r="O51" s="295"/>
-      <c r="P51" s="295"/>
-      <c r="Q51" s="295"/>
-      <c r="R51" s="295"/>
-      <c r="S51" s="295"/>
-      <c r="T51" s="295"/>
-      <c r="U51" s="295"/>
-      <c r="V51" s="295"/>
-      <c r="W51" s="295"/>
-      <c r="X51" s="295"/>
-      <c r="Y51" s="295"/>
-      <c r="Z51" s="296"/>
+      <c r="A51" s="152"/>
+      <c r="B51" s="153"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="153"/>
+      <c r="L51" s="153"/>
+      <c r="M51" s="153"/>
+      <c r="N51" s="153"/>
+      <c r="O51" s="153"/>
+      <c r="P51" s="153"/>
+      <c r="Q51" s="153"/>
+      <c r="R51" s="153"/>
+      <c r="S51" s="153"/>
+      <c r="T51" s="153"/>
+      <c r="U51" s="153"/>
+      <c r="V51" s="153"/>
+      <c r="W51" s="153"/>
+      <c r="X51" s="153"/>
+      <c r="Y51" s="153"/>
+      <c r="Z51" s="154"/>
       <c r="AA51" s="82"/>
       <c r="AB51" s="4" t="str">
         <f>PriceList!F49</f>
@@ -5818,32 +5818,32 @@
       <c r="AE51" s="84"/>
     </row>
     <row r="52" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="294"/>
-      <c r="B52" s="295"/>
-      <c r="C52" s="295"/>
-      <c r="D52" s="295"/>
-      <c r="E52" s="295"/>
-      <c r="F52" s="295"/>
-      <c r="G52" s="295"/>
-      <c r="H52" s="295"/>
-      <c r="I52" s="295"/>
-      <c r="J52" s="295"/>
-      <c r="K52" s="295"/>
-      <c r="L52" s="295"/>
-      <c r="M52" s="295"/>
-      <c r="N52" s="295"/>
-      <c r="O52" s="295"/>
-      <c r="P52" s="295"/>
-      <c r="Q52" s="295"/>
-      <c r="R52" s="295"/>
-      <c r="S52" s="295"/>
-      <c r="T52" s="295"/>
-      <c r="U52" s="295"/>
-      <c r="V52" s="295"/>
-      <c r="W52" s="295"/>
-      <c r="X52" s="295"/>
-      <c r="Y52" s="295"/>
-      <c r="Z52" s="296"/>
+      <c r="A52" s="152"/>
+      <c r="B52" s="153"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="153"/>
+      <c r="L52" s="153"/>
+      <c r="M52" s="153"/>
+      <c r="N52" s="153"/>
+      <c r="O52" s="153"/>
+      <c r="P52" s="153"/>
+      <c r="Q52" s="153"/>
+      <c r="R52" s="153"/>
+      <c r="S52" s="153"/>
+      <c r="T52" s="153"/>
+      <c r="U52" s="153"/>
+      <c r="V52" s="153"/>
+      <c r="W52" s="153"/>
+      <c r="X52" s="153"/>
+      <c r="Y52" s="153"/>
+      <c r="Z52" s="154"/>
       <c r="AA52" s="82"/>
       <c r="AB52" s="4" t="str">
         <f>PriceList!F50</f>
@@ -5857,32 +5857,32 @@
       <c r="AE52" s="84"/>
     </row>
     <row r="53" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="294"/>
-      <c r="B53" s="295"/>
-      <c r="C53" s="295"/>
-      <c r="D53" s="295"/>
-      <c r="E53" s="295"/>
-      <c r="F53" s="295"/>
-      <c r="G53" s="295"/>
-      <c r="H53" s="295"/>
-      <c r="I53" s="295"/>
-      <c r="J53" s="295"/>
-      <c r="K53" s="295"/>
-      <c r="L53" s="295"/>
-      <c r="M53" s="295"/>
-      <c r="N53" s="295"/>
-      <c r="O53" s="295"/>
-      <c r="P53" s="295"/>
-      <c r="Q53" s="295"/>
-      <c r="R53" s="295"/>
-      <c r="S53" s="295"/>
-      <c r="T53" s="295"/>
-      <c r="U53" s="295"/>
-      <c r="V53" s="295"/>
-      <c r="W53" s="295"/>
-      <c r="X53" s="295"/>
-      <c r="Y53" s="295"/>
-      <c r="Z53" s="296"/>
+      <c r="A53" s="152"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="153"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="153"/>
+      <c r="L53" s="153"/>
+      <c r="M53" s="153"/>
+      <c r="N53" s="153"/>
+      <c r="O53" s="153"/>
+      <c r="P53" s="153"/>
+      <c r="Q53" s="153"/>
+      <c r="R53" s="153"/>
+      <c r="S53" s="153"/>
+      <c r="T53" s="153"/>
+      <c r="U53" s="153"/>
+      <c r="V53" s="153"/>
+      <c r="W53" s="153"/>
+      <c r="X53" s="153"/>
+      <c r="Y53" s="153"/>
+      <c r="Z53" s="154"/>
       <c r="AA53" s="82"/>
       <c r="AB53" s="4" t="str">
         <f>PriceList!F51</f>
@@ -5896,32 +5896,32 @@
       <c r="AE53" s="84"/>
     </row>
     <row r="54" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="294"/>
-      <c r="B54" s="295"/>
-      <c r="C54" s="295"/>
-      <c r="D54" s="295"/>
-      <c r="E54" s="295"/>
-      <c r="F54" s="295"/>
-      <c r="G54" s="295"/>
-      <c r="H54" s="295"/>
-      <c r="I54" s="295"/>
-      <c r="J54" s="295"/>
-      <c r="K54" s="295"/>
-      <c r="L54" s="295"/>
-      <c r="M54" s="295"/>
-      <c r="N54" s="295"/>
-      <c r="O54" s="295"/>
-      <c r="P54" s="295"/>
-      <c r="Q54" s="295"/>
-      <c r="R54" s="295"/>
-      <c r="S54" s="295"/>
-      <c r="T54" s="295"/>
-      <c r="U54" s="295"/>
-      <c r="V54" s="295"/>
-      <c r="W54" s="295"/>
-      <c r="X54" s="295"/>
-      <c r="Y54" s="295"/>
-      <c r="Z54" s="296"/>
+      <c r="A54" s="152"/>
+      <c r="B54" s="153"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="153"/>
+      <c r="K54" s="153"/>
+      <c r="L54" s="153"/>
+      <c r="M54" s="153"/>
+      <c r="N54" s="153"/>
+      <c r="O54" s="153"/>
+      <c r="P54" s="153"/>
+      <c r="Q54" s="153"/>
+      <c r="R54" s="153"/>
+      <c r="S54" s="153"/>
+      <c r="T54" s="153"/>
+      <c r="U54" s="153"/>
+      <c r="V54" s="153"/>
+      <c r="W54" s="153"/>
+      <c r="X54" s="153"/>
+      <c r="Y54" s="153"/>
+      <c r="Z54" s="154"/>
       <c r="AA54" s="82"/>
       <c r="AB54" s="4" t="str">
         <f>PriceList!F52</f>
@@ -5935,34 +5935,34 @@
       <c r="AE54" s="84"/>
     </row>
     <row r="55" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="297" t="s">
+      <c r="A55" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="298"/>
-      <c r="C55" s="298"/>
-      <c r="D55" s="298"/>
-      <c r="E55" s="298"/>
-      <c r="F55" s="298"/>
-      <c r="G55" s="298"/>
-      <c r="H55" s="298"/>
-      <c r="I55" s="298"/>
-      <c r="J55" s="298"/>
-      <c r="K55" s="298"/>
-      <c r="L55" s="298"/>
-      <c r="M55" s="298"/>
-      <c r="N55" s="298"/>
-      <c r="O55" s="298"/>
-      <c r="P55" s="298"/>
-      <c r="Q55" s="298"/>
-      <c r="R55" s="298"/>
-      <c r="S55" s="298"/>
-      <c r="T55" s="298"/>
-      <c r="U55" s="298"/>
-      <c r="V55" s="298"/>
-      <c r="W55" s="298"/>
-      <c r="X55" s="298"/>
-      <c r="Y55" s="298"/>
-      <c r="Z55" s="299"/>
+      <c r="B55" s="156"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="156"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="156"/>
+      <c r="K55" s="156"/>
+      <c r="L55" s="156"/>
+      <c r="M55" s="156"/>
+      <c r="N55" s="156"/>
+      <c r="O55" s="156"/>
+      <c r="P55" s="156"/>
+      <c r="Q55" s="156"/>
+      <c r="R55" s="156"/>
+      <c r="S55" s="156"/>
+      <c r="T55" s="156"/>
+      <c r="U55" s="156"/>
+      <c r="V55" s="156"/>
+      <c r="W55" s="156"/>
+      <c r="X55" s="156"/>
+      <c r="Y55" s="156"/>
+      <c r="Z55" s="157"/>
       <c r="AA55" s="82"/>
       <c r="AB55" s="4" t="str">
         <f>PriceList!F53</f>
@@ -5976,36 +5976,36 @@
       <c r="AE55" s="84"/>
     </row>
     <row r="56" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="300" t="s">
+      <c r="A56" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B56" s="301"/>
-      <c r="C56" s="301"/>
-      <c r="D56" s="301"/>
-      <c r="E56" s="301"/>
-      <c r="F56" s="301"/>
-      <c r="G56" s="302"/>
-      <c r="H56" s="303"/>
-      <c r="I56" s="304"/>
-      <c r="J56" s="305"/>
-      <c r="K56" s="311"/>
-      <c r="L56" s="312"/>
-      <c r="M56" s="313"/>
-      <c r="N56" s="310" t="s">
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="123"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="163"/>
+      <c r="L56" s="164"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="O56" s="301"/>
-      <c r="P56" s="301"/>
-      <c r="Q56" s="301"/>
-      <c r="R56" s="301"/>
-      <c r="S56" s="301"/>
-      <c r="T56" s="302"/>
-      <c r="U56" s="303"/>
-      <c r="V56" s="304"/>
-      <c r="W56" s="305"/>
-      <c r="X56" s="303"/>
-      <c r="Y56" s="304"/>
-      <c r="Z56" s="309"/>
+      <c r="O56" s="135"/>
+      <c r="P56" s="135"/>
+      <c r="Q56" s="135"/>
+      <c r="R56" s="135"/>
+      <c r="S56" s="135"/>
+      <c r="T56" s="136"/>
+      <c r="U56" s="122"/>
+      <c r="V56" s="123"/>
+      <c r="W56" s="137"/>
+      <c r="X56" s="122"/>
+      <c r="Y56" s="123"/>
+      <c r="Z56" s="124"/>
       <c r="AA56" s="82"/>
       <c r="AB56" s="4" t="str">
         <f>PriceList!F54</f>
@@ -6019,36 +6019,36 @@
       <c r="AE56" s="84"/>
     </row>
     <row r="57" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="300" t="s">
+      <c r="A57" s="134" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="301"/>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
-      <c r="E57" s="301"/>
-      <c r="F57" s="301"/>
-      <c r="G57" s="302"/>
-      <c r="H57" s="303"/>
-      <c r="I57" s="304"/>
-      <c r="J57" s="305"/>
-      <c r="K57" s="314"/>
-      <c r="L57" s="315"/>
-      <c r="M57" s="316"/>
-      <c r="N57" s="310" t="s">
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="122"/>
+      <c r="I57" s="123"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="166"/>
+      <c r="L57" s="167"/>
+      <c r="M57" s="168"/>
+      <c r="N57" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="O57" s="301"/>
-      <c r="P57" s="301"/>
-      <c r="Q57" s="301"/>
-      <c r="R57" s="301"/>
-      <c r="S57" s="301"/>
-      <c r="T57" s="302"/>
-      <c r="U57" s="303"/>
-      <c r="V57" s="304"/>
-      <c r="W57" s="305"/>
-      <c r="X57" s="303"/>
-      <c r="Y57" s="304"/>
-      <c r="Z57" s="309"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="135"/>
+      <c r="R57" s="135"/>
+      <c r="S57" s="135"/>
+      <c r="T57" s="136"/>
+      <c r="U57" s="122"/>
+      <c r="V57" s="123"/>
+      <c r="W57" s="137"/>
+      <c r="X57" s="122"/>
+      <c r="Y57" s="123"/>
+      <c r="Z57" s="124"/>
       <c r="AA57" s="82"/>
       <c r="AB57" s="4" t="str">
         <f>PriceList!F55</f>
@@ -6062,36 +6062,36 @@
       <c r="AE57" s="84"/>
     </row>
     <row r="58" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="300" t="s">
+      <c r="A58" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="301"/>
-      <c r="C58" s="301"/>
-      <c r="D58" s="301"/>
-      <c r="E58" s="301"/>
-      <c r="F58" s="301"/>
-      <c r="G58" s="302"/>
-      <c r="H58" s="303"/>
-      <c r="I58" s="304"/>
-      <c r="J58" s="305"/>
-      <c r="K58" s="314"/>
-      <c r="L58" s="315"/>
-      <c r="M58" s="316"/>
-      <c r="N58" s="310" t="s">
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="135"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="122"/>
+      <c r="I58" s="123"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="166"/>
+      <c r="L58" s="167"/>
+      <c r="M58" s="168"/>
+      <c r="N58" s="138" t="s">
         <v>132</v>
       </c>
-      <c r="O58" s="301"/>
-      <c r="P58" s="301"/>
-      <c r="Q58" s="301"/>
-      <c r="R58" s="301"/>
-      <c r="S58" s="301"/>
-      <c r="T58" s="302"/>
-      <c r="U58" s="303"/>
-      <c r="V58" s="304"/>
-      <c r="W58" s="305"/>
-      <c r="X58" s="303"/>
-      <c r="Y58" s="304"/>
-      <c r="Z58" s="309"/>
+      <c r="O58" s="135"/>
+      <c r="P58" s="135"/>
+      <c r="Q58" s="135"/>
+      <c r="R58" s="135"/>
+      <c r="S58" s="135"/>
+      <c r="T58" s="136"/>
+      <c r="U58" s="122"/>
+      <c r="V58" s="123"/>
+      <c r="W58" s="137"/>
+      <c r="X58" s="122"/>
+      <c r="Y58" s="123"/>
+      <c r="Z58" s="124"/>
       <c r="AA58" s="82"/>
       <c r="AB58" s="4" t="str">
         <f>PriceList!F56</f>
@@ -6105,36 +6105,36 @@
       <c r="AE58" s="84"/>
     </row>
     <row r="59" spans="1:31" s="71" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="300" t="s">
+      <c r="A59" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="301"/>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
-      <c r="E59" s="301"/>
-      <c r="F59" s="301"/>
-      <c r="G59" s="302"/>
-      <c r="H59" s="303"/>
-      <c r="I59" s="304"/>
-      <c r="J59" s="305"/>
-      <c r="K59" s="314"/>
-      <c r="L59" s="315"/>
-      <c r="M59" s="316"/>
-      <c r="N59" s="310" t="s">
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="166"/>
+      <c r="L59" s="167"/>
+      <c r="M59" s="168"/>
+      <c r="N59" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="O59" s="301"/>
-      <c r="P59" s="301"/>
-      <c r="Q59" s="301"/>
-      <c r="R59" s="301"/>
-      <c r="S59" s="301"/>
-      <c r="T59" s="302"/>
-      <c r="U59" s="303"/>
-      <c r="V59" s="304"/>
-      <c r="W59" s="305"/>
-      <c r="X59" s="303"/>
-      <c r="Y59" s="304"/>
-      <c r="Z59" s="309"/>
+      <c r="O59" s="135"/>
+      <c r="P59" s="135"/>
+      <c r="Q59" s="135"/>
+      <c r="R59" s="135"/>
+      <c r="S59" s="135"/>
+      <c r="T59" s="136"/>
+      <c r="U59" s="122"/>
+      <c r="V59" s="123"/>
+      <c r="W59" s="137"/>
+      <c r="X59" s="122"/>
+      <c r="Y59" s="123"/>
+      <c r="Z59" s="124"/>
       <c r="AA59" s="82"/>
       <c r="AB59" s="4" t="str">
         <f>PriceList!F57</f>
@@ -6148,36 +6148,36 @@
       <c r="AE59" s="84"/>
     </row>
     <row r="60" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="329" t="s">
+      <c r="A60" s="139" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="330"/>
-      <c r="C60" s="330"/>
-      <c r="D60" s="330"/>
-      <c r="E60" s="330"/>
-      <c r="F60" s="330"/>
-      <c r="G60" s="331"/>
-      <c r="H60" s="332"/>
-      <c r="I60" s="333"/>
-      <c r="J60" s="334"/>
-      <c r="K60" s="317"/>
-      <c r="L60" s="318"/>
-      <c r="M60" s="319"/>
-      <c r="N60" s="335" t="s">
+      <c r="B60" s="140"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="143"/>
+      <c r="J60" s="144"/>
+      <c r="K60" s="169"/>
+      <c r="L60" s="170"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="O60" s="336"/>
-      <c r="P60" s="336"/>
-      <c r="Q60" s="336"/>
-      <c r="R60" s="336"/>
-      <c r="S60" s="336"/>
-      <c r="T60" s="337"/>
-      <c r="U60" s="332"/>
-      <c r="V60" s="333"/>
-      <c r="W60" s="334"/>
-      <c r="X60" s="332"/>
-      <c r="Y60" s="333"/>
-      <c r="Z60" s="338"/>
+      <c r="O60" s="146"/>
+      <c r="P60" s="146"/>
+      <c r="Q60" s="146"/>
+      <c r="R60" s="146"/>
+      <c r="S60" s="146"/>
+      <c r="T60" s="147"/>
+      <c r="U60" s="142"/>
+      <c r="V60" s="143"/>
+      <c r="W60" s="144"/>
+      <c r="X60" s="142"/>
+      <c r="Y60" s="143"/>
+      <c r="Z60" s="148"/>
       <c r="AA60" s="82"/>
       <c r="AB60" s="4" t="str">
         <f>PriceList!F58</f>
@@ -6191,34 +6191,34 @@
       <c r="AE60" s="84"/>
     </row>
     <row r="61" spans="1:31" s="71" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="320"/>
-      <c r="B61" s="321"/>
-      <c r="C61" s="321"/>
-      <c r="D61" s="321"/>
-      <c r="E61" s="321"/>
-      <c r="F61" s="321"/>
-      <c r="G61" s="321"/>
-      <c r="H61" s="321"/>
-      <c r="I61" s="321"/>
-      <c r="J61" s="321"/>
-      <c r="K61" s="321"/>
-      <c r="L61" s="321"/>
-      <c r="M61" s="322"/>
-      <c r="N61" s="323" t="s">
+      <c r="A61" s="125"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="126"/>
+      <c r="D61" s="126"/>
+      <c r="E61" s="126"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
+      <c r="M61" s="127"/>
+      <c r="N61" s="128" t="s">
         <v>137</v>
       </c>
-      <c r="O61" s="324"/>
-      <c r="P61" s="324"/>
-      <c r="Q61" s="324"/>
-      <c r="R61" s="324"/>
-      <c r="S61" s="324"/>
-      <c r="T61" s="325"/>
-      <c r="U61" s="326"/>
-      <c r="V61" s="327"/>
-      <c r="W61" s="327"/>
-      <c r="X61" s="327"/>
-      <c r="Y61" s="327"/>
-      <c r="Z61" s="328"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="129"/>
+      <c r="R61" s="129"/>
+      <c r="S61" s="129"/>
+      <c r="T61" s="130"/>
+      <c r="U61" s="131"/>
+      <c r="V61" s="132"/>
+      <c r="W61" s="132"/>
+      <c r="X61" s="132"/>
+      <c r="Y61" s="132"/>
+      <c r="Z61" s="133"/>
       <c r="AA61" s="86"/>
       <c r="AB61" s="22"/>
       <c r="AC61" s="23"/>
@@ -6407,20 +6407,259 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="291">
-    <mergeCell ref="X58:Z58"/>
-    <mergeCell ref="A61:M61"/>
-    <mergeCell ref="N61:T61"/>
-    <mergeCell ref="U61:Z61"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="N59:T59"/>
-    <mergeCell ref="U59:W59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="A60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="N60:T60"/>
-    <mergeCell ref="U60:W60"/>
-    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="H1:S1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="H2:S2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H3:S3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="H4:S4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="A7:R7"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:Z13"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:Z16"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N17:Z17"/>
+    <mergeCell ref="N16:S16"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="X21:Z23"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="X19:Z19"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N27:Z27"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N26:V26"/>
+    <mergeCell ref="X26:Z26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="X28:Z31"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:M31"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N32:Z32"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="T35:V35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="T36:V36"/>
+    <mergeCell ref="X36:Y36"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N37:Z37"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="Y39:Z39"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N44:Z44"/>
+    <mergeCell ref="Y41:Z43"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N43:W43"/>
+    <mergeCell ref="A44:M48"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="T41:W41"/>
     <mergeCell ref="A49:Z49"/>
     <mergeCell ref="A50:Z54"/>
     <mergeCell ref="A55:Z55"/>
@@ -6445,259 +6684,20 @@
     <mergeCell ref="H58:J58"/>
     <mergeCell ref="N58:T58"/>
     <mergeCell ref="U58:W58"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N44:Z44"/>
-    <mergeCell ref="Y41:Z43"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="N43:W43"/>
-    <mergeCell ref="A44:M48"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N37:Z37"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="Y39:Z39"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="Y38:Z38"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="X36:Y36"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I31:M31"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N32:Z32"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="X28:Z31"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="N27:Z27"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N26:V26"/>
-    <mergeCell ref="X26:Z26"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="X21:Z23"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="X19:Z19"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:Z16"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N17:Z17"/>
-    <mergeCell ref="N16:S16"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:Z13"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="A7:R7"/>
-    <mergeCell ref="S7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="H1:S1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="H2:S2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="H3:S3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="H4:S4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="X58:Z58"/>
+    <mergeCell ref="A61:M61"/>
+    <mergeCell ref="N61:T61"/>
+    <mergeCell ref="U61:Z61"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="N59:T59"/>
+    <mergeCell ref="U59:W59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="A60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="N60:T60"/>
+    <mergeCell ref="U60:W60"/>
+    <mergeCell ref="X60:Z60"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.11811023622047245" bottom="0.11811023622047245" header="0" footer="0"/>
@@ -6718,10 +6718,10 @@
   <dimension ref="A1:K110"/>
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6768,14 +6768,14 @@
         <v>Ранец Fire 1</v>
       </c>
       <c r="C3" s="33">
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="D3" s="33">
         <v>1</v>
       </c>
       <c r="E3" s="34">
         <f>C3*D3</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="F3" s="28" t="str">
         <f>IF(MAX(A1:$A$78)&lt;ROW(A1:A14),"",VLOOKUP(ROW(A1:A14),A1:$B$78,2))</f>
@@ -6783,7 +6783,7 @@
       </c>
       <c r="G3" s="28">
         <f>IF(MAX(A1:$A$78)&lt;ROW(A1:A14),"",VLOOKUP(ROW(A1:A14),A1:$E$78,5))</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="I3" s="120"/>
       <c r="J3" s="120" t="s">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="G7" s="28">
         <f>IF(MAX(A5:$A$78)&lt;ROW(A5:A18),"",VLOOKUP(ROW(A5:A18),A5:$E$78,5))</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="26" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8251,7 +8251,7 @@
         <v>150</v>
       </c>
       <c r="C56" s="49">
-        <v>700</v>
+        <v>70</v>
       </c>
       <c r="D56" s="49">
         <f t="shared" si="3"/>
@@ -8881,7 +8881,7 @@
       </c>
       <c r="E78" s="38">
         <f>SUM(E3:E77)</f>
-        <v>1300</v>
+        <v>1350</v>
       </c>
       <c r="F78" s="28" t="str">
         <f>IF(MAX(A76:$A$78)&lt;ROW(A76:A89),"",VLOOKUP(ROW(A76:A89),A76:$B$78,2))</f>
